--- a/data.xlsx
+++ b/data.xlsx
@@ -8157,9 +8157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8202,22 +8204,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>68.973038397724622</v>
+        <v>68.973134640280747</v>
       </c>
       <c r="D2" s="12">
-        <v>59.101110976627211</v>
+        <v>59.101200840461786</v>
       </c>
       <c r="E2" s="3">
-        <v>14.312733860109425</v>
+        <v>14.312723136775752</v>
       </c>
       <c r="F2" s="2">
-        <v>70.268500562070059</v>
+        <v>70.268440364671719</v>
       </c>
       <c r="G2" s="12">
-        <v>57.134145900032316</v>
+        <v>57.134099113064387</v>
       </c>
       <c r="H2" s="2">
-        <v>18.691667755790256</v>
+        <v>18.691664683952169</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -8228,22 +8230,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>68.886330041271478</v>
+        <v>68.886315716644901</v>
       </c>
       <c r="D3" s="12">
-        <v>57.820525804886913</v>
+        <v>57.820518745351691</v>
       </c>
       <c r="E3" s="3">
-        <v>16.063860899186782</v>
+        <v>16.063853693106424</v>
       </c>
       <c r="F3" s="2">
-        <v>70.229038430838671</v>
+        <v>70.228972524648739</v>
       </c>
       <c r="G3" s="12">
-        <v>57.236620060493962</v>
+        <v>57.23656271788812</v>
       </c>
       <c r="H3" s="2">
-        <v>18.500065871099174</v>
+        <v>18.500071038630942</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -8254,22 +8256,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>68.613038749074846</v>
+        <v>68.612657759174013</v>
       </c>
       <c r="D4" s="12">
-        <v>57.269165821134095</v>
+        <v>57.268839729556561</v>
       </c>
       <c r="E4" s="3">
-        <v>16.533115475946918</v>
+        <v>16.533127268489594</v>
       </c>
       <c r="F4" s="2">
-        <v>69.382389686926501</v>
+        <v>69.382342480148054</v>
       </c>
       <c r="G4" s="12">
-        <v>56.609908694245235</v>
+        <v>56.609857040183812</v>
       </c>
       <c r="H4" s="2">
-        <v>18.408822541734899</v>
+        <v>18.408841476660648</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -8280,22 +8282,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>65.351890607021161</v>
+        <v>65.352136971748564</v>
       </c>
       <c r="D5" s="12">
-        <v>56.424162124705134</v>
+        <v>56.424356700822351</v>
       </c>
       <c r="E5" s="3">
-        <v>13.66101026212219</v>
+        <v>13.661038008268434</v>
       </c>
       <c r="F5" s="2">
-        <v>68.726718170318861</v>
+        <v>68.726719624269137</v>
       </c>
       <c r="G5" s="12">
-        <v>57.199348690110043</v>
+        <v>57.199339690448362</v>
       </c>
       <c r="H5" s="2">
-        <v>16.772762889159996</v>
+        <v>16.772777744727634</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -8306,22 +8308,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>65.889976021027039</v>
+        <v>65.889983447812526</v>
       </c>
       <c r="D6" s="12">
-        <v>56.173340764951874</v>
+        <v>56.173338201697142</v>
       </c>
       <c r="E6" s="3">
-        <v>14.746757918039547</v>
+        <v>14.746771417557508</v>
       </c>
       <c r="F6" s="2">
-        <v>68.726373398368395</v>
+        <v>68.726393777336426</v>
       </c>
       <c r="G6" s="12">
-        <v>56.25142755934894</v>
+        <v>56.251441511837776</v>
       </c>
       <c r="H6" s="2">
-        <v>18.15161374325568</v>
+        <v>18.151617711698488</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -8332,22 +8334,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>67.387867118059233</v>
+        <v>67.387832796265158</v>
       </c>
       <c r="D7" s="12">
-        <v>57.251004278284704</v>
+        <v>57.250967343448409</v>
       </c>
       <c r="E7" s="3">
-        <v>15.042563703664033</v>
+        <v>15.042575242720332</v>
       </c>
       <c r="F7" s="2">
-        <v>69.343783504541676</v>
+        <v>69.343803937657228</v>
       </c>
       <c r="G7" s="12">
-        <v>56.40502692101991</v>
+        <v>56.405041679744905</v>
       </c>
       <c r="H7" s="2">
-        <v>18.658855818956486</v>
+        <v>18.658858503846673</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -8358,22 +8360,22 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>67.058098212362481</v>
+        <v>67.058009464137044</v>
       </c>
       <c r="D8" s="12">
-        <v>56.896426367881368</v>
+        <v>56.896346078286484</v>
       </c>
       <c r="E8" s="3">
-        <v>15.153534197019278</v>
+        <v>15.153541638132076</v>
       </c>
       <c r="F8" s="2">
-        <v>68.70973781725526</v>
+        <v>68.710155504902758</v>
       </c>
       <c r="G8" s="12">
-        <v>57.203181536751856</v>
+        <v>57.20352675390825</v>
       </c>
       <c r="H8" s="2">
-        <v>16.746616485580194</v>
+        <v>16.746620155987653</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -8384,22 +8386,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>67.693356024008324</v>
+        <v>67.693365841631163</v>
       </c>
       <c r="D9" s="12">
-        <v>57.659396696542856</v>
+        <v>57.659405133838924</v>
       </c>
       <c r="E9" s="3">
-        <v>14.822664906592603</v>
+        <v>14.822664795936898</v>
       </c>
       <c r="F9" s="2">
-        <v>68.448249223429244</v>
+        <v>68.44818213263585</v>
       </c>
       <c r="G9" s="12">
-        <v>56.376708253266195</v>
+        <v>56.376644386814391</v>
       </c>
       <c r="H9" s="2">
-        <v>17.636011303604036</v>
+        <v>17.636023879246004</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -8410,22 +8412,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>68.307912186363112</v>
+        <v>68.307898447685545</v>
       </c>
       <c r="D10" s="12">
-        <v>58.211509534597504</v>
+        <v>58.211502869944873</v>
       </c>
       <c r="E10" s="3">
-        <v>14.780722069530967</v>
+        <v>14.780714686271768</v>
       </c>
       <c r="F10" s="2">
-        <v>69.189241781350248</v>
+        <v>69.189144474247783</v>
       </c>
       <c r="G10" s="12">
-        <v>56.825285143946616</v>
+        <v>56.825195714610452</v>
       </c>
       <c r="H10" s="2">
-        <v>17.869767494310494</v>
+        <v>17.869781240378259</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -8436,22 +8438,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>67.530677807332822</v>
+        <v>67.530781923006103</v>
       </c>
       <c r="D11" s="12">
-        <v>57.311271733770532</v>
+        <v>57.311373711948931</v>
       </c>
       <c r="E11" s="3">
-        <v>15.132983120232543</v>
+        <v>15.13296295415123</v>
       </c>
       <c r="F11" s="2">
-        <v>69.392645323320522</v>
+        <v>69.392565343569544</v>
       </c>
       <c r="G11" s="12">
-        <v>57.022777037019601</v>
+        <v>57.022712477516137</v>
       </c>
       <c r="H11" s="2">
-        <v>17.82590680707747</v>
+        <v>17.825905130915743</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -8462,22 +8464,22 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>68.596498923579858</v>
+        <v>68.596506981040278</v>
       </c>
       <c r="D12" s="12">
-        <v>58.477215405818392</v>
+        <v>58.477230983841345</v>
       </c>
       <c r="E12" s="3">
-        <v>14.751895033352769</v>
+        <v>14.75188233709313</v>
       </c>
       <c r="F12" s="2">
-        <v>68.752853370157013</v>
+        <v>68.752800846889201</v>
       </c>
       <c r="G12" s="12">
-        <v>56.230253390030697</v>
+        <v>56.230229281626606</v>
       </c>
       <c r="H12" s="2">
-        <v>18.213934936934422</v>
+        <v>18.213907522327784</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -8488,22 +8490,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>68.595612730491297</v>
+        <v>68.595650603612725</v>
       </c>
       <c r="D13" s="12">
-        <v>58.543541401233398</v>
+        <v>58.543582430069428</v>
       </c>
       <c r="E13" s="3">
-        <v>14.654102396828176</v>
+        <v>14.654089705527026</v>
       </c>
       <c r="F13" s="2">
-        <v>69.797991527375814</v>
+        <v>69.797998693999858</v>
       </c>
       <c r="G13" s="12">
-        <v>57.197498371823777</v>
+        <v>57.197534786704487</v>
       </c>
       <c r="H13" s="2">
-        <v>18.052801921399034</v>
+        <v>18.052758163649983</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -8514,22 +8516,22 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>68.297852113558946</v>
+        <v>68.297961546263309</v>
       </c>
       <c r="D14" s="12">
-        <v>57.613664643999371</v>
+        <v>57.613770314717762</v>
       </c>
       <c r="E14" s="3">
-        <v>15.643518996461193</v>
+        <v>15.643499439303685</v>
       </c>
       <c r="F14" s="2">
-        <v>69.752297778228396</v>
+        <v>69.752258227594567</v>
       </c>
       <c r="G14" s="12">
-        <v>57.01812531361854</v>
+        <v>57.018105410490172</v>
       </c>
       <c r="H14" s="2">
-        <v>18.256276667898597</v>
+        <v>18.256258851941602</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -8540,22 +8542,22 @@
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>68.162235392463145</v>
+        <v>68.162228796248527</v>
       </c>
       <c r="D15" s="12">
-        <v>58.069143478284523</v>
+        <v>58.069141535827598</v>
       </c>
       <c r="E15" s="3">
-        <v>14.807454385943805</v>
+        <v>14.807448991422104</v>
       </c>
       <c r="F15" s="2">
-        <v>69.178225125723699</v>
+        <v>69.178110917204265</v>
       </c>
       <c r="G15" s="12">
-        <v>56.802160004062699</v>
+        <v>56.802058097608707</v>
       </c>
       <c r="H15" s="2">
-        <v>17.890116578112391</v>
+        <v>17.890128330344012</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -8566,22 +8568,22 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>67.371087594066324</v>
+        <v>67.370745192221761</v>
       </c>
       <c r="D16" s="12">
-        <v>56.728233940127517</v>
+        <v>56.727937322316698</v>
       </c>
       <c r="E16" s="3">
-        <v>15.797360609740519</v>
+        <v>15.797372939157883</v>
       </c>
       <c r="F16" s="2">
-        <v>68.382912020471778</v>
+        <v>68.382891639612893</v>
       </c>
       <c r="G16" s="12">
-        <v>56.851885395618886</v>
+        <v>56.851857139870596</v>
       </c>
       <c r="H16" s="2">
-        <v>16.86243870603354</v>
+        <v>16.862455247596731</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -8592,22 +8594,22 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>69.022360632333502</v>
+        <v>69.022560932887004</v>
       </c>
       <c r="D17" s="12">
-        <v>58.4307483122371</v>
+        <v>58.430896238238759</v>
       </c>
       <c r="E17" s="3">
-        <v>15.345189911013804</v>
+        <v>15.345221260258485</v>
       </c>
       <c r="F17" s="2">
-        <v>71.148144935948139</v>
+        <v>71.148169957821096</v>
       </c>
       <c r="G17" s="12">
-        <v>58.84565775986642</v>
+        <v>58.845666145774047</v>
       </c>
       <c r="H17" s="2">
-        <v>17.291367451895155</v>
+        <v>17.29138475289016</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -8618,22 +8620,22 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>67.117749340000458</v>
+        <v>67.117747153884068</v>
       </c>
       <c r="D18" s="12">
-        <v>56.644590772880491</v>
+        <v>56.644576172312433</v>
       </c>
       <c r="E18" s="3">
-        <v>15.604156382041012</v>
+        <v>15.604175386815786</v>
       </c>
       <c r="F18" s="2">
-        <v>69.260857471950558</v>
+        <v>69.260893845753515</v>
       </c>
       <c r="G18" s="12">
-        <v>57.064626975225885</v>
+        <v>57.064652050551892</v>
       </c>
       <c r="H18" s="2">
-        <v>17.609124319120546</v>
+        <v>17.609131384245625</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -8644,22 +8646,22 @@
         <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>67.626204053097339</v>
+        <v>67.626165417009403</v>
       </c>
       <c r="D19" s="12">
-        <v>57.027644948600972</v>
+        <v>57.027600674292366</v>
       </c>
       <c r="E19" s="3">
-        <v>15.67226676832963</v>
+        <v>15.672284059523614</v>
       </c>
       <c r="F19" s="2">
-        <v>69.758051087435931</v>
+        <v>69.758067875930834</v>
       </c>
       <c r="G19" s="12">
-        <v>57.531206714985714</v>
+        <v>57.531218046588847</v>
       </c>
       <c r="H19" s="2">
-        <v>17.527502821322912</v>
+        <v>17.527506425619759</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -8670,22 +8672,22 @@
         <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>67.6529789404849</v>
+        <v>67.652895494526746</v>
       </c>
       <c r="D20" s="12">
-        <v>57.232858769311477</v>
+        <v>57.232780851233521</v>
       </c>
       <c r="E20" s="3">
-        <v>15.402307975736186</v>
+        <v>15.402318802653797</v>
       </c>
       <c r="F20" s="2">
-        <v>69.674848440945084</v>
+        <v>69.675283260001891</v>
       </c>
       <c r="G20" s="12">
-        <v>57.33953731735609</v>
+        <v>57.33989029996399</v>
       </c>
       <c r="H20" s="2">
-        <v>17.704109014380052</v>
+        <v>17.704115983291892</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -8696,22 +8698,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="2">
-        <v>66.818552941666468</v>
+        <v>66.81856041181338</v>
       </c>
       <c r="D21" s="12">
-        <v>56.222046572213848</v>
+        <v>56.222052982160406</v>
       </c>
       <c r="E21" s="3">
-        <v>15.858628933050255</v>
+        <v>15.858628746780864</v>
       </c>
       <c r="F21" s="2">
-        <v>69.448723539925766</v>
+        <v>69.448625160708914</v>
       </c>
       <c r="G21" s="12">
-        <v>56.906410811601745</v>
+        <v>56.906319262731728</v>
       </c>
       <c r="H21" s="2">
-        <v>18.059817501344703</v>
+        <v>18.05983324933133</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -8722,22 +8724,22 @@
         <v>9</v>
       </c>
       <c r="C22" s="2">
-        <v>66.678567072703771</v>
+        <v>66.678556296471243</v>
       </c>
       <c r="D22" s="12">
-        <v>56.587453053149851</v>
+        <v>56.587450886550187</v>
       </c>
       <c r="E22" s="3">
-        <v>15.133969523596635</v>
+        <v>15.133959057321544</v>
       </c>
       <c r="F22" s="2">
-        <v>68.994227360916767</v>
+        <v>68.994107293327218</v>
       </c>
       <c r="G22" s="12">
-        <v>56.894211054767851</v>
+        <v>56.894104057615678</v>
       </c>
       <c r="H22" s="2">
-        <v>17.537722747226859</v>
+        <v>17.537734323119203</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -8748,22 +8750,22 @@
         <v>10</v>
       </c>
       <c r="C23" s="2">
-        <v>67.646062605093903</v>
+        <v>67.646162907267353</v>
       </c>
       <c r="D23" s="12">
-        <v>57.062761140224026</v>
+        <v>57.062862283806439</v>
       </c>
       <c r="E23" s="3">
-        <v>15.645110827297334</v>
+        <v>15.645086385711213</v>
       </c>
       <c r="F23" s="2">
-        <v>68.740939749116649</v>
+        <v>68.740839931346173</v>
       </c>
       <c r="G23" s="12">
-        <v>56.984697426032348</v>
+        <v>56.984617782080058</v>
       </c>
       <c r="H23" s="2">
-        <v>17.10224266061967</v>
+        <v>17.102238146940682</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -8774,22 +8776,22 @@
         <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>67.364765998701444</v>
+        <v>67.364789804379086</v>
       </c>
       <c r="D24" s="12">
-        <v>56.399225802457579</v>
+        <v>56.399257693967044</v>
       </c>
       <c r="E24" s="3">
-        <v>16.277856879151393</v>
+        <v>16.277839123754266</v>
       </c>
       <c r="F24" s="2">
-        <v>69.968430728111557</v>
+        <v>69.968351945841221</v>
       </c>
       <c r="G24" s="12">
-        <v>58.096276229970613</v>
+        <v>58.096227639821521</v>
       </c>
       <c r="H24" s="2">
-        <v>16.967873045880669</v>
+        <v>16.967849000086908</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -8800,22 +8802,22 @@
         <v>12</v>
       </c>
       <c r="C25" s="2">
-        <v>66.784736299824559</v>
+        <v>66.784786047688556</v>
       </c>
       <c r="D25" s="12">
-        <v>55.777343756934826</v>
+        <v>55.777395226283346</v>
       </c>
       <c r="E25" s="3">
-        <v>16.481898638444797</v>
+        <v>16.481883783449184</v>
       </c>
       <c r="F25" s="2">
-        <v>69.651394485749023</v>
+        <v>69.651458206848233</v>
       </c>
       <c r="G25" s="12">
-        <v>57.710638914204125</v>
+        <v>57.710721062111027</v>
       </c>
       <c r="H25" s="2">
-        <v>17.143598717162835</v>
+        <v>17.143556577489097</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -8826,22 +8828,22 @@
         <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>67.401708849497339</v>
+        <v>67.401822464769339</v>
       </c>
       <c r="D26" s="12">
-        <v>57.951704399742532</v>
+        <v>57.95181915204202</v>
       </c>
       <c r="E26" s="3">
-        <v>14.020422643669031</v>
+        <v>14.020397323331727</v>
       </c>
       <c r="F26" s="2">
-        <v>69.321482884000403</v>
+        <v>69.321496111254078</v>
       </c>
       <c r="G26" s="12">
-        <v>58.113387271767671</v>
+        <v>58.113453348376495</v>
       </c>
       <c r="H26" s="2">
-        <v>16.168286000153625</v>
+        <v>16.168206677031026</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -8852,22 +8854,22 @@
         <v>2</v>
       </c>
       <c r="C27" s="2">
-        <v>67.795647709174972</v>
+        <v>67.795661921947286</v>
       </c>
       <c r="D27" s="12">
-        <v>57.990289437065357</v>
+        <v>57.9903052953185</v>
       </c>
       <c r="E27" s="3">
-        <v>14.463108773843361</v>
+        <v>14.463103314659914</v>
       </c>
       <c r="F27" s="2">
-        <v>68.954547266722898</v>
+        <v>68.954316848057431</v>
       </c>
       <c r="G27" s="12">
-        <v>57.583709349944478</v>
+        <v>57.583489578020064</v>
       </c>
       <c r="H27" s="2">
-        <v>16.490338008884191</v>
+        <v>16.490377672935647</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -8878,22 +8880,22 @@
         <v>3</v>
       </c>
       <c r="C28" s="2">
-        <v>68.068783925067862</v>
+        <v>68.068546072374076</v>
       </c>
       <c r="D28" s="12">
-        <v>58.736365358420137</v>
+        <v>58.736153791993473</v>
       </c>
       <c r="E28" s="3">
-        <v>13.710276618017939</v>
+        <v>13.710285908645526</v>
       </c>
       <c r="F28" s="2">
-        <v>68.944661303285585</v>
+        <v>68.944638333582617</v>
       </c>
       <c r="G28" s="12">
-        <v>57.258998662181504</v>
+        <v>57.258957667897349</v>
       </c>
       <c r="H28" s="2">
-        <v>16.949336497135263</v>
+        <v>16.949368287560119</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -8904,22 +8906,22 @@
         <v>4</v>
       </c>
       <c r="C29" s="2">
-        <v>67.713254823860453</v>
+        <v>67.713335207024386</v>
       </c>
       <c r="D29" s="12">
-        <v>57.972723687315167</v>
+        <v>57.9727643893997</v>
       </c>
       <c r="E29" s="3">
-        <v>14.384969622096758</v>
+        <v>14.385011147131063</v>
       </c>
       <c r="F29" s="2">
-        <v>69.547699178169495</v>
+        <v>69.547762111360683</v>
       </c>
       <c r="G29" s="12">
-        <v>57.731845611787094</v>
+        <v>57.731879177582776</v>
       </c>
       <c r="H29" s="2">
-        <v>16.989567887950066</v>
+        <v>16.989594740457889</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -8930,22 +8932,22 @@
         <v>5</v>
       </c>
       <c r="C30" s="2">
-        <v>68.608683022798573</v>
+        <v>68.608657544914408</v>
       </c>
       <c r="D30" s="12">
-        <v>59.522120627773909</v>
+        <v>59.522084312253163</v>
       </c>
       <c r="E30" s="3">
-        <v>13.244041416747788</v>
+        <v>13.244062131244515</v>
       </c>
       <c r="F30" s="2">
-        <v>69.95428597678999</v>
+        <v>69.954391593912163</v>
       </c>
       <c r="G30" s="12">
-        <v>58.267212121017579</v>
+        <v>58.267292156136499</v>
       </c>
       <c r="H30" s="2">
-        <v>16.706730249022968</v>
+        <v>16.706741594751772</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -8956,22 +8958,22 @@
         <v>6</v>
       </c>
       <c r="C31" s="2">
-        <v>67.552361268575751</v>
+        <v>67.55230499425447</v>
       </c>
       <c r="D31" s="12">
-        <v>58.118843470132987</v>
+        <v>58.118780621915931</v>
       </c>
       <c r="E31" s="3">
-        <v>13.964749153529704</v>
+        <v>13.964770518401814</v>
       </c>
       <c r="F31" s="2">
-        <v>69.829807008199069</v>
+        <v>69.829667190296249</v>
       </c>
       <c r="G31" s="12">
-        <v>58.289324811311182</v>
+        <v>58.289194248312661</v>
       </c>
       <c r="H31" s="2">
-        <v>16.526584694030259</v>
+        <v>16.526604531185988</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -8982,22 +8984,22 @@
         <v>7</v>
       </c>
       <c r="C32" s="2">
-        <v>67.67497052597956</v>
+        <v>67.674835411993598</v>
       </c>
       <c r="D32" s="12">
-        <v>57.860455230502659</v>
+        <v>57.860318107572795</v>
       </c>
       <c r="E32" s="3">
-        <v>14.502430099632232</v>
+        <v>14.502462022510421</v>
       </c>
       <c r="F32" s="2">
-        <v>69.472413256192866</v>
+        <v>69.473073700683955</v>
       </c>
       <c r="G32" s="12">
-        <v>57.461896528585065</v>
+        <v>57.462445511618341</v>
       </c>
       <c r="H32" s="2">
-        <v>17.288181257381556</v>
+        <v>17.288177345962698</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -9008,22 +9010,22 @@
         <v>8</v>
       </c>
       <c r="C33" s="2">
-        <v>68.947026379904358</v>
+        <v>68.947120481152211</v>
       </c>
       <c r="D33" s="12">
-        <v>59.105429402022168</v>
+        <v>59.105511340605688</v>
       </c>
       <c r="E33" s="3">
-        <v>14.274142765279102</v>
+        <v>14.274140924038855</v>
       </c>
       <c r="F33" s="2">
-        <v>70.650469151927524</v>
+        <v>70.650205216863199</v>
       </c>
       <c r="G33" s="12">
-        <v>58.962130249968361</v>
+        <v>58.961888232556433</v>
       </c>
       <c r="H33" s="2">
-        <v>16.543894247643912</v>
+        <v>16.543925029558046</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -9034,22 +9036,22 @@
         <v>9</v>
       </c>
       <c r="C34" s="2">
-        <v>68.88306658426437</v>
+        <v>68.882970866967185</v>
       </c>
       <c r="D34" s="12">
-        <v>58.703631153280412</v>
+        <v>58.703569432483263</v>
       </c>
       <c r="E34" s="3">
-        <v>14.777848803423261</v>
+        <v>14.777819984192128</v>
       </c>
       <c r="F34" s="2">
-        <v>70.179592405882161</v>
+        <v>70.179408576427889</v>
       </c>
       <c r="G34" s="12">
-        <v>58.60618202592611</v>
+        <v>58.606019173480774</v>
       </c>
       <c r="H34" s="2">
-        <v>16.491133651819297</v>
+        <v>16.491146958503204</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -9060,22 +9062,22 @@
         <v>10</v>
       </c>
       <c r="C35" s="2">
-        <v>68.777081393341206</v>
+        <v>68.777177669714618</v>
       </c>
       <c r="D35" s="12">
-        <v>58.942209063740414</v>
+        <v>58.94231143996047</v>
       </c>
       <c r="E35" s="3">
-        <v>14.29963605660212</v>
+        <v>14.299607170540876</v>
       </c>
       <c r="F35" s="2">
-        <v>70.556547610499791</v>
+        <v>70.556449825526371</v>
       </c>
       <c r="G35" s="12">
-        <v>59.051182477999809</v>
+        <v>59.051104246772304</v>
       </c>
       <c r="H35" s="2">
-        <v>16.306587442478296</v>
+        <v>16.306582328340998</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -9086,22 +9088,22 @@
         <v>11</v>
       </c>
       <c r="C36" s="2">
-        <v>68.189854683411895</v>
+        <v>68.189931927713175</v>
       </c>
       <c r="D36" s="12">
-        <v>58.847369204713438</v>
+        <v>58.847449136516616</v>
       </c>
       <c r="E36" s="3">
-        <v>13.700697152198412</v>
+        <v>13.700677691100136</v>
       </c>
       <c r="F36" s="2">
-        <v>70.13793389398721</v>
+        <v>70.137871680715975</v>
       </c>
       <c r="G36" s="12">
-        <v>59.100315229174264</v>
+        <v>59.100278930913277</v>
       </c>
       <c r="H36" s="2">
-        <v>15.737017120430425</v>
+        <v>15.736994130715001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -9112,22 +9114,22 @@
         <v>12</v>
       </c>
       <c r="C37" s="2">
-        <v>68.237961741125531</v>
+        <v>68.238032271305883</v>
       </c>
       <c r="D37" s="12">
-        <v>59.012421684735031</v>
+        <v>59.012492635381022</v>
       </c>
       <c r="E37" s="3">
-        <v>13.51965946959179</v>
+        <v>13.519644879625581</v>
       </c>
       <c r="F37" s="2">
-        <v>69.25069316086099</v>
+        <v>69.250849423895417</v>
       </c>
       <c r="G37" s="12">
-        <v>58.251970940581124</v>
+        <v>58.252140898312788</v>
       </c>
       <c r="H37" s="2">
-        <v>15.882472388732863</v>
+        <v>15.882416774786092</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -9138,22 +9140,22 @@
         <v>1</v>
       </c>
       <c r="C38" s="2">
-        <v>68.239868470103289</v>
+        <v>68.239976243175221</v>
       </c>
       <c r="D38" s="12">
-        <v>57.92209134897962</v>
+        <v>57.922206525509623</v>
       </c>
       <c r="E38" s="3">
-        <v>15.11986665924481</v>
+        <v>15.11983193091673</v>
       </c>
       <c r="F38" s="2">
-        <v>68.905637623012964</v>
+        <v>68.905767188547927</v>
       </c>
       <c r="G38" s="12">
-        <v>57.774758089603218</v>
+        <v>57.774993841960367</v>
       </c>
       <c r="H38" s="2">
-        <v>16.153800933252342</v>
+        <v>16.153616454382188</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -9164,22 +9166,22 @@
         <v>2</v>
       </c>
       <c r="C39" s="2">
-        <v>67.354452234701199</v>
+        <v>67.354479561084247</v>
       </c>
       <c r="D39" s="12">
-        <v>57.658462565478473</v>
+        <v>57.658488399411297</v>
       </c>
       <c r="E39" s="3">
-        <v>14.395469560700144</v>
+        <v>14.395465936129122</v>
       </c>
       <c r="F39" s="2">
-        <v>69.068021634132677</v>
+        <v>69.067579187310216</v>
       </c>
       <c r="G39" s="12">
-        <v>57.977046843500645</v>
+        <v>57.976602086954934</v>
       </c>
       <c r="H39" s="2">
-        <v>16.05804615250625</v>
+        <v>16.058152364478733</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -9190,22 +9192,22 @@
         <v>3</v>
       </c>
       <c r="C40" s="2">
-        <v>67.638406655621793</v>
+        <v>67.638294223454764</v>
       </c>
       <c r="D40" s="12">
-        <v>58.169770926255552</v>
+        <v>58.169669018160832</v>
       </c>
       <c r="E40" s="3">
-        <v>13.998904169306384</v>
+        <v>13.998911879729995</v>
       </c>
       <c r="F40" s="2">
-        <v>69.165744443416401</v>
+        <v>69.165665918465024</v>
       </c>
       <c r="G40" s="12">
-        <v>58.518933793505468</v>
+        <v>58.518830812032277</v>
       </c>
       <c r="H40" s="2">
-        <v>15.393184495571994</v>
+        <v>15.393237331053259</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -9216,22 +9218,22 @@
         <v>4</v>
       </c>
       <c r="C41" s="2">
-        <v>67.124814066767016</v>
+        <v>67.124767532383501</v>
       </c>
       <c r="D41" s="12">
-        <v>57.592115909000171</v>
+        <v>57.59204067260071</v>
       </c>
       <c r="E41" s="3">
-        <v>14.201451862920567</v>
+        <v>14.20150446730983</v>
       </c>
       <c r="F41" s="2">
-        <v>68.035178075976162</v>
+        <v>68.035225427473009</v>
       </c>
       <c r="G41" s="12">
-        <v>57.15655720865842</v>
+        <v>57.156574926724289</v>
       </c>
       <c r="H41" s="2">
-        <v>15.989699997800248</v>
+        <v>15.989732425220787</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -9242,22 +9244,22 @@
         <v>5</v>
       </c>
       <c r="C42" s="2">
-        <v>67.240782322220383</v>
+        <v>67.240727037557107</v>
       </c>
       <c r="D42" s="12">
-        <v>57.776209736128692</v>
+        <v>57.776142908491202</v>
       </c>
       <c r="E42" s="3">
-        <v>14.07564317252751</v>
+        <v>14.075671912023632</v>
       </c>
       <c r="F42" s="2">
-        <v>68.086969371009545</v>
+        <v>68.087260692601276</v>
       </c>
       <c r="G42" s="12">
-        <v>57.730948628666624</v>
+        <v>57.731179964597267</v>
       </c>
       <c r="H42" s="2">
-        <v>15.209989279905248</v>
+        <v>15.210012302829131</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -9268,22 +9270,22 @@
         <v>6</v>
       </c>
       <c r="C43" s="2">
-        <v>66.700985377338441</v>
+        <v>66.700908120673176</v>
       </c>
       <c r="D43" s="12">
-        <v>57.338139945129171</v>
+        <v>57.338054120360397</v>
       </c>
       <c r="E43" s="3">
-        <v>14.037042150490167</v>
+        <v>14.037071254522962</v>
       </c>
       <c r="F43" s="2">
-        <v>67.487583000365376</v>
+        <v>67.487229761553607</v>
       </c>
       <c r="G43" s="12">
-        <v>56.972800092915968</v>
+        <v>56.972478898673806</v>
       </c>
       <c r="H43" s="2">
-        <v>15.580322245934445</v>
+        <v>15.580356313380461</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -9294,22 +9296,22 @@
         <v>7</v>
       </c>
       <c r="C44" s="2">
-        <v>66.720802995935017</v>
+        <v>66.720609710525238</v>
       </c>
       <c r="D44" s="12">
-        <v>58.142174945333345</v>
+        <v>58.141974017111089</v>
       </c>
       <c r="E44" s="3">
-        <v>12.857501207118757</v>
+        <v>12.85754990944103</v>
       </c>
       <c r="F44" s="2">
-        <v>68.444371277521412</v>
+        <v>68.445216965174041</v>
       </c>
       <c r="G44" s="12">
-        <v>58.297187179325007</v>
+        <v>58.297918797268665</v>
       </c>
       <c r="H44" s="2">
-        <v>14.825447160662216</v>
+        <v>14.8254306404909</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -9320,22 +9322,22 @@
         <v>8</v>
       </c>
       <c r="C45" s="2">
-        <v>66.495823101778825</v>
+        <v>66.496014583607348</v>
       </c>
       <c r="D45" s="12">
-        <v>57.867829654370261</v>
+        <v>57.867999177127686</v>
       </c>
       <c r="E45" s="3">
-        <v>12.975241218087513</v>
+        <v>12.975236877740123</v>
       </c>
       <c r="F45" s="2">
-        <v>67.486855215320901</v>
+        <v>67.48640152678982</v>
       </c>
       <c r="G45" s="12">
-        <v>57.576934781309163</v>
+        <v>57.576520450582933</v>
       </c>
       <c r="H45" s="2">
-        <v>14.684223175599953</v>
+        <v>14.684263573118495</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -9346,22 +9348,22 @@
         <v>9</v>
       </c>
       <c r="C46" s="2">
-        <v>66.122728253221851</v>
+        <v>66.122549493297541</v>
       </c>
       <c r="D46" s="12">
-        <v>57.741715734014697</v>
+        <v>57.741588398430423</v>
       </c>
       <c r="E46" s="3">
-        <v>12.674934535537382</v>
+        <v>12.674891030504904</v>
       </c>
       <c r="F46" s="2">
-        <v>67.892129774474029</v>
+        <v>67.891898408322348</v>
       </c>
       <c r="G46" s="12">
-        <v>57.890468299945674</v>
+        <v>57.890261912579469</v>
       </c>
       <c r="H46" s="2">
-        <v>14.73169498107093</v>
+        <v>14.73170839264211</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -9372,22 +9374,22 @@
         <v>10</v>
       </c>
       <c r="C47" s="2">
-        <v>65.808947429244711</v>
+        <v>65.809059737499368</v>
       </c>
       <c r="D47" s="12">
-        <v>57.106586440574183</v>
+        <v>57.106707223600914</v>
       </c>
       <c r="E47" s="3">
-        <v>13.223674482906722</v>
+        <v>13.223639037862856</v>
       </c>
       <c r="F47" s="2">
-        <v>67.457875457025452</v>
+        <v>67.457811624247242</v>
       </c>
       <c r="G47" s="12">
-        <v>57.373710727011506</v>
+        <v>57.373661884413686</v>
       </c>
       <c r="H47" s="2">
-        <v>14.948832381236402</v>
+        <v>14.948824305188227</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -9398,22 +9400,22 @@
         <v>11</v>
       </c>
       <c r="C48" s="2">
-        <v>66.498267835868361</v>
+        <v>66.49842295160451</v>
       </c>
       <c r="D48" s="12">
-        <v>57.874420940949513</v>
+        <v>57.8745721410587</v>
       </c>
       <c r="E48" s="3">
-        <v>12.96852861822552</v>
+        <v>12.968504255840729</v>
       </c>
       <c r="F48" s="2">
-        <v>68.017401004954891</v>
+        <v>68.017398010715226</v>
       </c>
       <c r="G48" s="12">
-        <v>57.517531760681429</v>
+        <v>57.517546523170395</v>
       </c>
       <c r="H48" s="2">
-        <v>15.437033890060842</v>
+        <v>15.437008463468018</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -9424,22 +9426,22 @@
         <v>12</v>
       </c>
       <c r="C49" s="2">
-        <v>65.77409690724788</v>
+        <v>65.77416931162962</v>
       </c>
       <c r="D49" s="12">
-        <v>57.289227709292575</v>
+        <v>57.289302054743196</v>
       </c>
       <c r="E49" s="3">
-        <v>12.900016263120031</v>
+        <v>12.899999111636381</v>
       </c>
       <c r="F49" s="2">
-        <v>67.825433979136349</v>
+        <v>67.825751356349727</v>
       </c>
       <c r="G49" s="12">
-        <v>58.14153310401867</v>
+        <v>58.141850666987061</v>
       </c>
       <c r="H49" s="2">
-        <v>14.277683616586268</v>
+        <v>14.277616533113532</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -9450,22 +9452,22 @@
         <v>1</v>
       </c>
       <c r="C50" s="2">
-        <v>65.973821658950939</v>
+        <v>65.973944339346943</v>
       </c>
       <c r="D50" s="12">
-        <v>58.644431724937988</v>
+        <v>58.644558924790466</v>
       </c>
       <c r="E50" s="3">
-        <v>11.109542769709403</v>
+        <v>11.109515260837934</v>
       </c>
       <c r="F50" s="2">
-        <v>68.203698712959905</v>
+        <v>68.203913620788441</v>
       </c>
       <c r="G50" s="12">
-        <v>58.496983945696293</v>
+        <v>58.497341599950346</v>
       </c>
       <c r="H50" s="2">
-        <v>14.231947754204665</v>
+        <v>14.231693616302332</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -9476,22 +9478,22 @@
         <v>2</v>
       </c>
       <c r="C51" s="2">
-        <v>65.958015908975241</v>
+        <v>65.958063739236508</v>
       </c>
       <c r="D51" s="12">
-        <v>57.549677788087592</v>
+        <v>57.549720975959005</v>
       </c>
       <c r="E51" s="3">
-        <v>12.748015544451041</v>
+        <v>12.748013338474678</v>
       </c>
       <c r="F51" s="2">
-        <v>66.795871670139476</v>
+        <v>66.795126395475464</v>
       </c>
       <c r="G51" s="12">
-        <v>56.940503111088873</v>
+        <v>56.939762298516186</v>
       </c>
       <c r="H51" s="2">
-        <v>14.754457592408896</v>
+        <v>14.754615536780932</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -9502,22 +9504,22 @@
         <v>3</v>
       </c>
       <c r="C52" s="2">
-        <v>65.740142012694776</v>
+        <v>65.740135295304711</v>
       </c>
       <c r="D52" s="12">
-        <v>57.010701519589489</v>
+        <v>57.01069143881071</v>
       </c>
       <c r="E52" s="3">
-        <v>13.278706473465766</v>
+        <v>13.278712946484426</v>
       </c>
       <c r="F52" s="2">
-        <v>67.972621315552075</v>
+        <v>67.972278727323427</v>
       </c>
       <c r="G52" s="12">
-        <v>58.145203351947885</v>
+        <v>58.144853205407365</v>
       </c>
       <c r="H52" s="2">
-        <v>14.457906394373071</v>
+        <v>14.457990383608593</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -9528,22 +9530,22 @@
         <v>4</v>
       </c>
       <c r="C53" s="2">
-        <v>65.645004000735611</v>
+        <v>65.644844719976547</v>
       </c>
       <c r="D53" s="12">
-        <v>57.9662361148226</v>
+        <v>57.966060876916828</v>
       </c>
       <c r="E53" s="3">
-        <v>11.697413996390289</v>
+        <v>11.697466687316238</v>
       </c>
       <c r="F53" s="2">
-        <v>68.375163859642683</v>
+        <v>68.375385318645087</v>
       </c>
       <c r="G53" s="12">
-        <v>58.817326950850394</v>
+        <v>58.817491824656585</v>
       </c>
       <c r="H53" s="2">
-        <v>13.978521394716022</v>
+        <v>13.978558876774889</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -9554,22 +9556,22 @@
         <v>5</v>
       </c>
       <c r="C54" s="2">
-        <v>66.13613222774859</v>
+        <v>66.13605587001193</v>
       </c>
       <c r="D54" s="12">
-        <v>57.806339689891082</v>
+        <v>57.806252381461768</v>
       </c>
       <c r="E54" s="3">
-        <v>12.594919384116324</v>
+        <v>12.594950483473177</v>
       </c>
       <c r="F54" s="2">
-        <v>67.907203513475451</v>
+        <v>67.907520281409887</v>
       </c>
       <c r="G54" s="12">
-        <v>58.408313607432447</v>
+        <v>58.408559849025053</v>
       </c>
       <c r="H54" s="2">
-        <v>13.98804458816808</v>
+        <v>13.988083194646148</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -9580,22 +9582,22 @@
         <v>6</v>
       </c>
       <c r="C55" s="2">
-        <v>65.865832835628908</v>
+        <v>65.865696685445101</v>
       </c>
       <c r="D55" s="12">
-        <v>58.218243857639315</v>
+        <v>58.218103677631895</v>
       </c>
       <c r="E55" s="3">
-        <v>11.610858997371952</v>
+        <v>11.61088911628133</v>
       </c>
       <c r="F55" s="2">
-        <v>67.405424144160392</v>
+        <v>67.404800970383505</v>
       </c>
       <c r="G55" s="12">
-        <v>58.039790771758227</v>
+        <v>58.039222842848105</v>
       </c>
       <c r="H55" s="2">
-        <v>13.894480290446401</v>
+        <v>13.894526788456016</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -9606,22 +9608,22 @@
         <v>7</v>
       </c>
       <c r="C56" s="2">
-        <v>66.459261932099196</v>
+        <v>66.459025979386652</v>
       </c>
       <c r="D56" s="12">
-        <v>58.523102157417625</v>
+        <v>58.522852509643251</v>
       </c>
       <c r="E56" s="3">
-        <v>11.941390174916288</v>
+        <v>11.941453177789475</v>
       </c>
       <c r="F56" s="2">
-        <v>67.62300912653032</v>
+        <v>67.624014725385635</v>
       </c>
       <c r="G56" s="12">
-        <v>58.289826960014032</v>
+        <v>58.290712283320836</v>
       </c>
       <c r="H56" s="2">
-        <v>13.801784757985031</v>
+        <v>13.801757378597548</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -9632,22 +9634,22 @@
         <v>8</v>
       </c>
       <c r="C57" s="2">
-        <v>65.77552607566453</v>
+        <v>65.77580976050632</v>
       </c>
       <c r="D57" s="12">
-        <v>58.104070717706968</v>
+        <v>58.104326164185714</v>
       </c>
       <c r="E57" s="3">
-        <v>11.663084760633822</v>
+        <v>11.663077390081449</v>
       </c>
       <c r="F57" s="2">
-        <v>68.009961050004634</v>
+        <v>68.009341739335468</v>
       </c>
       <c r="G57" s="12">
-        <v>58.626795603339133</v>
+        <v>58.626229461978809</v>
       </c>
       <c r="H57" s="2">
-        <v>13.796751684310591</v>
+        <v>13.796799141682653</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -9658,22 +9660,22 @@
         <v>9</v>
       </c>
       <c r="C58" s="2">
-        <v>65.85869632198758</v>
+        <v>65.85843167439613</v>
       </c>
       <c r="D58" s="12">
-        <v>58.211249735895755</v>
+        <v>58.211054428282829</v>
       </c>
       <c r="E58" s="3">
-        <v>11.611900953372885</v>
+        <v>11.611842328590392</v>
       </c>
       <c r="F58" s="2">
-        <v>67.539707093146077</v>
+        <v>67.539423538692972</v>
       </c>
       <c r="G58" s="12">
-        <v>58.269623200089363</v>
+        <v>58.269369117021739</v>
       </c>
       <c r="H58" s="2">
-        <v>13.725383618072323</v>
+        <v>13.725397606274301</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -9684,22 +9686,22 @@
         <v>10</v>
       </c>
       <c r="C59" s="2">
-        <v>65.907465889341736</v>
+        <v>65.907608457074247</v>
       </c>
       <c r="D59" s="12">
-        <v>58.689426243290541</v>
+        <v>58.689576257748485</v>
       </c>
       <c r="E59" s="3">
-        <v>10.95177844975901</v>
+        <v>10.951743460736967</v>
       </c>
       <c r="F59" s="2">
-        <v>67.937717917554863</v>
+        <v>67.937694089756789</v>
       </c>
       <c r="G59" s="12">
-        <v>59.194018540223382</v>
+        <v>59.194004472961716</v>
       </c>
       <c r="H59" s="2">
-        <v>12.870169392416605</v>
+        <v>12.870159539479269</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -9710,22 +9712,22 @@
         <v>11</v>
       </c>
       <c r="C60" s="2">
-        <v>65.545433435581074</v>
+        <v>65.545646435371467</v>
       </c>
       <c r="D60" s="12">
-        <v>58.033275334777699</v>
+        <v>58.033480090682609</v>
       </c>
       <c r="E60" s="3">
-        <v>11.460993858842068</v>
+        <v>11.460969192051387</v>
       </c>
       <c r="F60" s="2">
-        <v>67.514034919618311</v>
+        <v>67.514205931706542</v>
       </c>
       <c r="G60" s="12">
-        <v>58.233184066079701</v>
+        <v>58.233353521411743</v>
       </c>
       <c r="H60" s="2">
-        <v>13.746550424053794</v>
+        <v>13.746517910145847</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -9736,22 +9738,22 @@
         <v>12</v>
       </c>
       <c r="C61" s="2">
-        <v>66.570997517523338</v>
+        <v>66.571065669320561</v>
       </c>
       <c r="D61" s="12">
-        <v>59.144890916618834</v>
+        <v>59.144963540547913</v>
       </c>
       <c r="E61" s="3">
-        <v>11.155167982798732</v>
+        <v>11.155149844919761</v>
       </c>
       <c r="F61" s="2">
-        <v>68.584714637270977</v>
+        <v>68.585416364435176</v>
       </c>
       <c r="G61" s="12">
-        <v>59.504794399118012</v>
+        <v>59.505462387737865</v>
       </c>
       <c r="H61" s="2">
-        <v>13.238985226044333</v>
+        <v>13.238898964249351</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -9762,22 +9764,22 @@
         <v>1</v>
       </c>
       <c r="C62" s="2">
-        <v>66.063472188658253</v>
+        <v>66.063610805530033</v>
       </c>
       <c r="D62" s="12">
-        <v>58.62813649616777</v>
+        <v>58.628277867670434</v>
       </c>
       <c r="E62" s="3">
-        <v>11.254836365938054</v>
+        <v>11.254808581000548</v>
       </c>
       <c r="F62" s="2">
-        <v>67.547981951562477</v>
+        <v>67.548137726673033</v>
       </c>
       <c r="G62" s="12">
-        <v>58.260135807847057</v>
+        <v>58.260467109505512</v>
       </c>
       <c r="H62" s="2">
-        <v>13.749997964965956</v>
+        <v>13.749706401602316</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -9788,22 +9790,22 @@
         <v>2</v>
       </c>
       <c r="C63" s="2">
-        <v>65.611400589033309</v>
+        <v>65.611452242574558</v>
       </c>
       <c r="D63" s="12">
-        <v>57.870042164877788</v>
+        <v>57.870087105956415</v>
       </c>
       <c r="E63" s="3">
-        <v>11.798800749041577</v>
+        <v>11.798801690895743</v>
       </c>
       <c r="F63" s="2">
-        <v>68.091276763017675</v>
+        <v>68.090056802170707</v>
       </c>
       <c r="G63" s="12">
-        <v>59.317060153632873</v>
+        <v>59.315872689776519</v>
       </c>
       <c r="H63" s="2">
-        <v>12.885962822994573</v>
+        <v>12.886145972659053</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -9814,22 +9816,22 @@
         <v>3</v>
       </c>
       <c r="C64" s="2">
-        <v>66.202871476125011</v>
+        <v>66.202912842370097</v>
       </c>
       <c r="D64" s="12">
-        <v>58.58751678952958</v>
+        <v>58.587548898419058</v>
       </c>
       <c r="E64" s="3">
-        <v>11.503057974368659</v>
+        <v>11.503064770100528</v>
       </c>
       <c r="F64" s="2">
-        <v>67.646096471413401</v>
+        <v>67.645442663436867</v>
       </c>
       <c r="G64" s="12">
-        <v>59.805685797607509</v>
+        <v>59.80505245867095</v>
       </c>
       <c r="H64" s="2">
-        <v>11.59033718541197</v>
+        <v>11.590418949248354</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -9840,22 +9842,22 @@
         <v>4</v>
       </c>
       <c r="C65" s="2">
-        <v>64.416602538799012</v>
+        <v>64.416421792794992</v>
       </c>
       <c r="D65" s="12">
-        <v>56.764007548080407</v>
+        <v>56.763815754865291</v>
       </c>
       <c r="E65" s="3">
-        <v>11.879848810885878</v>
+        <v>11.879899294228807</v>
       </c>
       <c r="F65" s="2">
-        <v>67.035379831266027</v>
+        <v>67.035794064555247</v>
       </c>
       <c r="G65" s="12">
-        <v>58.705374290138415</v>
+        <v>58.705714699276854</v>
       </c>
       <c r="H65" s="2">
-        <v>12.426282303605902</v>
+        <v>12.426315644529456</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -9866,22 +9868,22 @@
         <v>5</v>
       </c>
       <c r="C66" s="2">
-        <v>65.059891363628779</v>
+        <v>65.059803230226137</v>
       </c>
       <c r="D66" s="12">
-        <v>57.324710123537116</v>
+        <v>57.324611851846704</v>
       </c>
       <c r="E66" s="3">
-        <v>11.889323941318423</v>
+        <v>11.889355630245337</v>
       </c>
       <c r="F66" s="2">
-        <v>67.383809234112121</v>
+        <v>67.384064875626095</v>
       </c>
       <c r="G66" s="12">
-        <v>58.398454833960841</v>
+        <v>58.398640902469232</v>
       </c>
       <c r="H66" s="2">
-        <v>13.334589573191685</v>
+        <v>13.334642232910218</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -9892,22 +9894,22 @@
         <v>6</v>
       </c>
       <c r="C67" s="2">
-        <v>66.979632402066628</v>
+        <v>66.979447972326824</v>
       </c>
       <c r="D67" s="12">
-        <v>59.861529927137127</v>
+        <v>59.861345074273608</v>
       </c>
       <c r="E67" s="3">
-        <v>10.627264169204174</v>
+        <v>10.627294063388097</v>
       </c>
       <c r="F67" s="2">
-        <v>68.266744522230795</v>
+        <v>68.266000704299699</v>
       </c>
       <c r="G67" s="12">
-        <v>59.862798989866391</v>
+        <v>59.862119419795725</v>
       </c>
       <c r="H67" s="2">
-        <v>12.310453048816008</v>
+        <v>12.310493068000479</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -9918,22 +9920,22 @@
         <v>7</v>
       </c>
       <c r="C68" s="2">
-        <v>65.765072258990756</v>
+        <v>65.764845532726937</v>
       </c>
       <c r="D68" s="12">
-        <v>57.834712279397934</v>
+        <v>57.834471326893542</v>
       </c>
       <c r="E68" s="3">
-        <v>12.058619731096943</v>
+        <v>12.058682935531195</v>
       </c>
       <c r="F68" s="2">
-        <v>67.086242016635637</v>
+        <v>67.087188895187239</v>
       </c>
       <c r="G68" s="12">
-        <v>58.595216597189136</v>
+        <v>58.596065813624087</v>
       </c>
       <c r="H68" s="2">
-        <v>12.656880403795668</v>
+        <v>12.656847337617833</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -9944,22 +9946,22 @@
         <v>8</v>
       </c>
       <c r="C69" s="2">
-        <v>64.47694144453628</v>
+        <v>64.47722192522744</v>
       </c>
       <c r="D69" s="12">
-        <v>56.050294740060771</v>
+        <v>56.050545861766366</v>
       </c>
       <c r="E69" s="3">
-        <v>13.069240748220329</v>
+        <v>13.069229429942359</v>
       </c>
       <c r="F69" s="2">
-        <v>64.813078434019744</v>
+        <v>64.812427157965857</v>
       </c>
       <c r="G69" s="12">
-        <v>56.496337627994322</v>
+        <v>56.495746184590324</v>
       </c>
       <c r="H69" s="2">
-        <v>12.83188672251071</v>
+        <v>12.831923348751415</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -9970,22 +9972,22 @@
         <v>9</v>
       </c>
       <c r="C70" s="2">
-        <v>63.060224245455501</v>
+        <v>63.059955046513416</v>
       </c>
       <c r="D70" s="12">
-        <v>54.7815238283588</v>
+        <v>54.781336245249435</v>
       </c>
       <c r="E70" s="3">
-        <v>13.12824449350623</v>
+        <v>13.128171111377448</v>
       </c>
       <c r="F70" s="2">
-        <v>64.962235762793512</v>
+        <v>64.961989664717763</v>
       </c>
       <c r="G70" s="12">
-        <v>56.484454967127476</v>
+        <v>56.484237297412477</v>
       </c>
       <c r="H70" s="2">
-        <v>13.050321769438856</v>
+        <v>13.050327446958935</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -9996,22 +9998,22 @@
         <v>10</v>
       </c>
       <c r="C71" s="2">
-        <v>61.655060746491777</v>
+        <v>61.655234126368654</v>
       </c>
       <c r="D71" s="12">
-        <v>53.903733462506665</v>
+        <v>53.903910010979651</v>
       </c>
       <c r="E71" s="3">
-        <v>12.572086038251395</v>
+        <v>12.572045545236071</v>
       </c>
       <c r="F71" s="2">
-        <v>64.318677426747954</v>
+        <v>64.318773160891425</v>
       </c>
       <c r="G71" s="12">
-        <v>55.834180300783309</v>
+        <v>55.834275626555055</v>
       </c>
       <c r="H71" s="2">
-        <v>13.191342647907462</v>
+        <v>13.191323648404593</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -10022,22 +10024,22 @@
         <v>11</v>
       </c>
       <c r="C72" s="2">
-        <v>62.286469892911214</v>
+        <v>62.28670170750916</v>
       </c>
       <c r="D72" s="12">
-        <v>54.654124142303949</v>
+        <v>54.654344807308505</v>
       </c>
       <c r="E72" s="3">
-        <v>12.253617460950217</v>
+        <v>12.253589756672763</v>
       </c>
       <c r="F72" s="2">
-        <v>64.913212911461756</v>
+        <v>64.913626277921026</v>
       </c>
       <c r="G72" s="12">
-        <v>56.561432116244113</v>
+        <v>56.561816977471032</v>
       </c>
       <c r="H72" s="2">
-        <v>12.866072130197963</v>
+        <v>12.866034112302666</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -10048,22 +10050,22 @@
         <v>12</v>
       </c>
       <c r="C73" s="2">
-        <v>62.511751835219073</v>
+        <v>62.511801127011104</v>
       </c>
       <c r="D73" s="12">
-        <v>54.526722686983717</v>
+        <v>54.526779593693007</v>
       </c>
       <c r="E73" s="3">
-        <v>12.773644816872007</v>
+        <v>12.773622563032816</v>
       </c>
       <c r="F73" s="2">
-        <v>64.54126927637941</v>
+        <v>64.542445554355439</v>
       </c>
       <c r="G73" s="12">
-        <v>55.499634403052887</v>
+        <v>55.500707210100195</v>
       </c>
       <c r="H73" s="2">
-        <v>14.009075084359321</v>
+        <v>14.008980085269002</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -10074,22 +10076,22 @@
         <v>1</v>
       </c>
       <c r="C74" s="2">
-        <v>62.698400648863206</v>
+        <v>62.698551937904192</v>
       </c>
       <c r="D74" s="12">
-        <v>55.162487712201333</v>
+        <v>55.162634251358114</v>
       </c>
       <c r="E74" s="3">
-        <v>12.019306487363345</v>
+        <v>12.019285061016332</v>
       </c>
       <c r="F74" s="2">
-        <v>64.869357369580925</v>
+        <v>64.869382726131519</v>
       </c>
       <c r="G74" s="12">
-        <v>56.96165358694244</v>
+        <v>56.961844160100583</v>
       </c>
       <c r="H74" s="2">
-        <v>12.190199045114369</v>
+        <v>12.189939588935719</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -10100,22 +10102,22 @@
         <v>2</v>
       </c>
       <c r="C75" s="2">
-        <v>63.725849872297246</v>
+        <v>63.725911988763698</v>
       </c>
       <c r="D75" s="12">
-        <v>56.314991232140585</v>
+        <v>56.315044260231815</v>
       </c>
       <c r="E75" s="3">
-        <v>11.629281767144061</v>
+        <v>11.629284693232121</v>
       </c>
       <c r="F75" s="2">
-        <v>66.322320220224171</v>
+        <v>66.320689571812835</v>
       </c>
       <c r="G75" s="12">
-        <v>58.570796986239202</v>
+        <v>58.569241106907967</v>
       </c>
       <c r="H75" s="2">
-        <v>11.687653882201234</v>
+        <v>11.687828511661495</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -10126,22 +10128,22 @@
         <v>3</v>
       </c>
       <c r="C76" s="2">
-        <v>62.700337096958748</v>
+        <v>62.700383645688618</v>
       </c>
       <c r="D76" s="12">
-        <v>55.157277039546685</v>
+        <v>55.157312714686888</v>
       </c>
       <c r="E76" s="3">
-        <v>12.030334136398025</v>
+        <v>12.030342547226828</v>
       </c>
       <c r="F76" s="2">
-        <v>65.955976602901046</v>
+        <v>65.954980243852972</v>
       </c>
       <c r="G76" s="12">
-        <v>58.060252243278086</v>
+        <v>58.059314643606456</v>
       </c>
       <c r="H76" s="2">
-        <v>11.971203773026467</v>
+        <v>11.971295527728383</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -10152,22 +10154,22 @@
         <v>4</v>
       </c>
       <c r="C77" s="2">
-        <v>64.084547554199574</v>
+        <v>64.084374267884698</v>
       </c>
       <c r="D77" s="12">
-        <v>57.240859621431682</v>
+        <v>57.24067774592838</v>
       </c>
       <c r="E77" s="3">
-        <v>10.679154638612129</v>
+        <v>10.679196918344532</v>
       </c>
       <c r="F77" s="2">
-        <v>65.745325644018621</v>
+        <v>65.745956881893377</v>
       </c>
       <c r="G77" s="12">
-        <v>58.192911574965521</v>
+        <v>58.193448601638188</v>
       </c>
       <c r="H77" s="2">
-        <v>11.487377992385378</v>
+        <v>11.487410995968293</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -10178,22 +10180,22 @@
         <v>5</v>
       </c>
       <c r="C78" s="2">
-        <v>63.47023704574147</v>
+        <v>63.470155805446012</v>
       </c>
       <c r="D78" s="12">
-        <v>56.043040371760036</v>
+        <v>56.042951755101342</v>
       </c>
       <c r="E78" s="3">
-        <v>11.701857468452234</v>
+        <v>11.701884068334648</v>
       </c>
       <c r="F78" s="2">
-        <v>67.01519367998479</v>
+        <v>67.015270919723974</v>
       </c>
       <c r="G78" s="12">
-        <v>59.275113455369443</v>
+        <v>59.275146013198324</v>
       </c>
       <c r="H78" s="2">
-        <v>11.549739394287602</v>
+        <v>11.549792756635069</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -10204,22 +10206,22 @@
         <v>6</v>
       </c>
       <c r="C79" s="2">
-        <v>63.926082845703689</v>
+        <v>63.925851251844811</v>
       </c>
       <c r="D79" s="12">
-        <v>56.64491091068156</v>
+        <v>56.644688455063971</v>
       </c>
       <c r="E79" s="3">
-        <v>11.389986075944098</v>
+        <v>11.390013045107029</v>
       </c>
       <c r="F79" s="2">
-        <v>66.343178798816609</v>
+        <v>66.342363435809688</v>
       </c>
       <c r="G79" s="12">
-        <v>58.729520425256645</v>
+        <v>58.728775144676582</v>
       </c>
       <c r="H79" s="2">
-        <v>11.476173604294928</v>
+        <v>11.476209011606459</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -10230,22 +10232,22 @@
         <v>7</v>
       </c>
       <c r="C80" s="2">
-        <v>63.21532504164805</v>
+        <v>63.215108083445855</v>
       </c>
       <c r="D80" s="12">
-        <v>56.297819536775314</v>
+        <v>56.297592215770685</v>
       </c>
       <c r="E80" s="3">
-        <v>10.942766647668558</v>
+        <v>10.942820596848225</v>
       </c>
       <c r="F80" s="2">
-        <v>65.437057891122237</v>
+        <v>65.43798544015506</v>
       </c>
       <c r="G80" s="12">
-        <v>58.134842090994631</v>
+        <v>58.135691655142118</v>
       </c>
       <c r="H80" s="2">
-        <v>11.159144428952526</v>
+        <v>11.159105427674138</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -10256,22 +10258,22 @@
         <v>8</v>
       </c>
       <c r="C81" s="2">
-        <v>63.726128222382584</v>
+        <v>63.726407237657014</v>
       </c>
       <c r="D81" s="12">
-        <v>56.732390279482161</v>
+        <v>56.732645660655066</v>
       </c>
       <c r="E81" s="3">
-        <v>10.974678892297753</v>
+        <v>10.974667928351725</v>
       </c>
       <c r="F81" s="2">
-        <v>66.032391459154411</v>
+        <v>66.031821114406895</v>
       </c>
       <c r="G81" s="12">
-        <v>58.398662799905566</v>
+        <v>58.398140931540787</v>
       </c>
       <c r="H81" s="2">
-        <v>11.560581845609569</v>
+        <v>11.560608285571858</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -10282,22 +10284,22 @@
         <v>9</v>
       </c>
       <c r="C82" s="2">
-        <v>63.942740958165359</v>
+        <v>63.942471742626708</v>
       </c>
       <c r="D82" s="12">
-        <v>56.826126801386948</v>
+        <v>56.825929622957318</v>
       </c>
       <c r="E82" s="3">
-        <v>11.129667027308804</v>
+        <v>11.12960122704361</v>
       </c>
       <c r="F82" s="2">
-        <v>66.726635884486925</v>
+        <v>66.726497131871881</v>
       </c>
       <c r="G82" s="12">
-        <v>59.414133929793003</v>
+        <v>59.414009325626438</v>
       </c>
       <c r="H82" s="2">
-        <v>10.958894986633066</v>
+        <v>10.958896571168346</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -10308,22 +10310,22 @@
         <v>10</v>
       </c>
       <c r="C83" s="2">
-        <v>64.934584190114236</v>
+        <v>64.93476690978062</v>
       </c>
       <c r="D83" s="12">
-        <v>57.517050869656231</v>
+        <v>57.517231385528063</v>
       </c>
       <c r="E83" s="3">
-        <v>11.423085884004584</v>
+        <v>11.423057134490625</v>
       </c>
       <c r="F83" s="2">
-        <v>66.76520013301193</v>
+        <v>66.765464690512601</v>
       </c>
       <c r="G83" s="12">
-        <v>59.326186941959726</v>
+        <v>59.326433854036345</v>
       </c>
       <c r="H83" s="2">
-        <v>11.142051811770122</v>
+        <v>11.142034090467936</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -10334,22 +10336,22 @@
         <v>11</v>
       </c>
       <c r="C84" s="2">
-        <v>64.301397584111967</v>
+        <v>64.301601038450912</v>
       </c>
       <c r="D84" s="12">
-        <v>57.432210108813017</v>
+        <v>57.432402940582115</v>
       </c>
       <c r="E84" s="3">
-        <v>10.68279653846316</v>
+        <v>10.682779257333202</v>
       </c>
       <c r="F84" s="2">
-        <v>66.654083982126636</v>
+        <v>66.654774783181338</v>
       </c>
       <c r="G84" s="12">
-        <v>59.631243550801891</v>
+        <v>59.63188359901924</v>
       </c>
       <c r="H84" s="2">
-        <v>10.536249261497504</v>
+        <v>10.536216208075993</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -10360,22 +10362,22 @@
         <v>12</v>
       </c>
       <c r="C85" s="2">
-        <v>63.171892550110051</v>
+        <v>63.171934307709442</v>
       </c>
       <c r="D85" s="12">
-        <v>56.338638985217585</v>
+        <v>56.338686636372572</v>
       </c>
       <c r="E85" s="3">
-        <v>10.816920768159825</v>
+        <v>10.816904288623221</v>
       </c>
       <c r="F85" s="2">
-        <v>65.308908491300812</v>
+        <v>65.310411844025182</v>
       </c>
       <c r="G85" s="12">
-        <v>57.94425835137401</v>
+        <v>57.945641502333125</v>
       </c>
       <c r="H85" s="2">
-        <v>11.276639450968281</v>
+        <v>11.276563925642749</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -10386,22 +10388,22 @@
         <v>1</v>
       </c>
       <c r="C86" s="2">
-        <v>63.659920452160577</v>
+        <v>63.660047231976058</v>
       </c>
       <c r="D86" s="12">
-        <v>56.639601867270386</v>
+        <v>56.639722674799351</v>
       </c>
       <c r="E86" s="3">
-        <v>11.027846932617276</v>
+        <v>11.027834352046215</v>
       </c>
       <c r="F86" s="2">
-        <v>66.972810331323387</v>
+        <v>66.972667928926683</v>
       </c>
       <c r="G86" s="12">
-        <v>60.216548003185075</v>
+        <v>60.216541014386991</v>
       </c>
       <c r="H86" s="2">
-        <v>10.08806752279645</v>
+        <v>10.08788678048405</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -10412,22 +10414,22 @@
         <v>2</v>
       </c>
       <c r="C87" s="2">
-        <v>64.339388123379962</v>
+        <v>64.339444359634641</v>
       </c>
       <c r="D87" s="12">
-        <v>57.23680640537544</v>
+        <v>57.236854196543831</v>
       </c>
       <c r="E87" s="3">
-        <v>11.039243494800266</v>
+        <v>11.03924697171748</v>
       </c>
       <c r="F87" s="2">
-        <v>67.177445695804849</v>
+        <v>67.17560123742345</v>
       </c>
       <c r="G87" s="12">
-        <v>59.395288109772757</v>
+        <v>59.393547760475563</v>
       </c>
       <c r="H87" s="2">
-        <v>11.584479739333217</v>
+        <v>11.584642836977698</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -10438,22 +10440,22 @@
         <v>3</v>
       </c>
       <c r="C88" s="2">
-        <v>64.884669588773562</v>
+        <v>64.8846999161741</v>
       </c>
       <c r="D88" s="12">
-        <v>57.56335346308871</v>
+        <v>57.563372111353509</v>
       </c>
       <c r="E88" s="3">
-        <v>11.283583891365941</v>
+        <v>11.283596617198151</v>
       </c>
       <c r="F88" s="2">
-        <v>67.344403391086388</v>
+        <v>67.34326536621586</v>
       </c>
       <c r="G88" s="12">
-        <v>59.572098915918914</v>
+        <v>59.571034663604237</v>
       </c>
       <c r="H88" s="2">
-        <v>11.541129008199354</v>
+        <v>11.541214493158099</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -10464,22 +10466,22 @@
         <v>4</v>
       </c>
       <c r="C89" s="2">
-        <v>64.761689553004786</v>
+        <v>64.761564191255246</v>
       </c>
       <c r="D89" s="12">
-        <v>57.664450450207028</v>
+        <v>57.664318833246639</v>
       </c>
       <c r="E89" s="3">
-        <v>10.959008561672807</v>
+        <v>10.959039434330009</v>
       </c>
       <c r="F89" s="2">
-        <v>68.121751053283248</v>
+        <v>68.122279541510665</v>
       </c>
       <c r="G89" s="12">
-        <v>60.421101941878455</v>
+        <v>60.421544404107777</v>
       </c>
       <c r="H89" s="2">
-        <v>11.3042442279288</v>
+        <v>11.304282812072378</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -10490,22 +10492,22 @@
         <v>5</v>
       </c>
       <c r="C90" s="2">
-        <v>64.508057692080982</v>
+        <v>64.507981628983387</v>
       </c>
       <c r="D90" s="12">
-        <v>57.531772562651163</v>
+        <v>57.531697927925507</v>
       </c>
       <c r="E90" s="3">
-        <v>10.814594918870451</v>
+        <v>10.814605456394315</v>
       </c>
       <c r="F90" s="2">
-        <v>67.21467332565561</v>
+        <v>67.214622899437387</v>
       </c>
       <c r="G90" s="12">
-        <v>59.316288266274263</v>
+        <v>59.316219585641946</v>
       </c>
       <c r="H90" s="2">
-        <v>11.750983332335213</v>
+        <v>11.75101930663595</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -10516,22 +10518,22 @@
         <v>6</v>
       </c>
       <c r="C91" s="2">
-        <v>62.899595701983266</v>
+        <v>62.899377953324255</v>
       </c>
       <c r="D91" s="12">
-        <v>55.583289879756215</v>
+        <v>55.583084013943228</v>
       </c>
       <c r="E91" s="3">
-        <v>11.631721540614565</v>
+        <v>11.631742916138569</v>
       </c>
       <c r="F91" s="2">
-        <v>65.489785595233727</v>
+        <v>65.489127026769225</v>
       </c>
       <c r="G91" s="12">
-        <v>57.833779229839401</v>
+        <v>57.833180773845228</v>
       </c>
       <c r="H91" s="2">
-        <v>11.690382394459268</v>
+        <v>11.690408164693608</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -10542,22 +10544,22 @@
         <v>7</v>
       </c>
       <c r="C92" s="2">
-        <v>64.06596862203196</v>
+        <v>64.065814526033833</v>
       </c>
       <c r="D92" s="12">
-        <v>56.600868262445005</v>
+        <v>56.600709164359074</v>
       </c>
       <c r="E92" s="3">
-        <v>11.652208684502359</v>
+        <v>11.652244519019177</v>
       </c>
       <c r="F92" s="2">
-        <v>67.69466575408606</v>
+        <v>67.695403629904376</v>
       </c>
       <c r="G92" s="12">
-        <v>59.746086528072354</v>
+        <v>59.746766309183286</v>
       </c>
       <c r="H92" s="2">
-        <v>11.741810285153717</v>
+        <v>11.741768117931427</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -10568,22 +10570,22 @@
         <v>8</v>
       </c>
       <c r="C93" s="2">
-        <v>64.272625575717171</v>
+        <v>64.272805139730622</v>
       </c>
       <c r="D93" s="12">
-        <v>56.781774565029387</v>
+        <v>56.781941886353003</v>
       </c>
       <c r="E93" s="3">
-        <v>11.654807849514537</v>
+        <v>11.654794336566306</v>
       </c>
       <c r="F93" s="2">
-        <v>67.383866062174249</v>
+        <v>67.383347213909261</v>
       </c>
       <c r="G93" s="12">
-        <v>59.573779978443056</v>
+        <v>59.573316405673907</v>
       </c>
       <c r="H93" s="2">
-        <v>11.590439284865207</v>
+        <v>11.590446499254959</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -10594,22 +10596,22 @@
         <v>9</v>
       </c>
       <c r="C94" s="2">
-        <v>64.233640264521298</v>
+        <v>64.23346675260909</v>
       </c>
       <c r="D94" s="12">
-        <v>56.914639100268829</v>
+        <v>56.914521350410688</v>
       </c>
       <c r="E94" s="3">
-        <v>11.394342799368072</v>
+        <v>11.394286767031964</v>
       </c>
       <c r="F94" s="2">
-        <v>66.525525786072265</v>
+        <v>66.52561142394984</v>
       </c>
       <c r="G94" s="12">
-        <v>58.652544432532061</v>
+        <v>58.652621203283573</v>
       </c>
       <c r="H94" s="2">
-        <v>11.834527063878516</v>
+        <v>11.834525158278982</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -10620,22 +10622,22 @@
         <v>10</v>
       </c>
       <c r="C95" s="2">
-        <v>62.101408518305512</v>
+        <v>62.101580940178394</v>
       </c>
       <c r="D95" s="12">
-        <v>54.99730578445098</v>
+        <v>54.997468181937037</v>
       </c>
       <c r="E95" s="3">
-        <v>11.43951949457067</v>
+        <v>11.439503875247</v>
       </c>
       <c r="F95" s="2">
-        <v>66.542334104353685</v>
+        <v>66.542876205129858</v>
       </c>
       <c r="G95" s="12">
-        <v>58.692478088180152</v>
+        <v>58.692968126941167</v>
       </c>
       <c r="H95" s="2">
-        <v>11.796784891649795</v>
+        <v>11.79676702580454</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -10646,22 +10648,22 @@
         <v>11</v>
       </c>
       <c r="C96" s="2">
-        <v>62.04049841665401</v>
+        <v>62.040657034793803</v>
       </c>
       <c r="D96" s="12">
-        <v>54.519224846723958</v>
+        <v>54.519369589268841</v>
       </c>
       <c r="E96" s="3">
-        <v>12.123167546814978</v>
+        <v>12.123158917074079</v>
       </c>
       <c r="F96" s="2">
-        <v>65.730017430018762</v>
+        <v>65.73089136864553</v>
       </c>
       <c r="G96" s="12">
-        <v>57.88751869237668</v>
+        <v>57.888306726851781</v>
       </c>
       <c r="H96" s="2">
-        <v>11.931380888483419</v>
+        <v>11.931352943031538</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -10672,22 +10674,22 @@
         <v>12</v>
       </c>
       <c r="C97" s="2">
-        <v>64.027294398207019</v>
+        <v>64.0273125299762</v>
       </c>
       <c r="D97" s="12">
-        <v>56.575950044737496</v>
+        <v>56.575973146559654</v>
       </c>
       <c r="E97" s="3">
-        <v>11.637762337929079</v>
+        <v>11.637751279858872</v>
       </c>
       <c r="F97" s="2">
-        <v>65.742393946471637</v>
+        <v>65.743912145839928</v>
       </c>
       <c r="G97" s="12">
-        <v>57.94820847785823</v>
+        <v>57.949588341808756</v>
       </c>
       <c r="H97" s="2">
-        <v>11.855645954967105</v>
+        <v>11.855582592561575</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -10698,22 +10700,22 @@
         <v>1</v>
       </c>
       <c r="C98" s="2">
-        <v>64.492585719367611</v>
+        <v>64.492689614076397</v>
       </c>
       <c r="D98" s="12">
-        <v>56.640470036689969</v>
+        <v>56.640565220115327</v>
       </c>
       <c r="E98" s="3">
-        <v>12.175222306708662</v>
+        <v>12.175216200391251</v>
       </c>
       <c r="F98" s="2">
-        <v>66.970636083804408</v>
+        <v>66.970417646106867</v>
       </c>
       <c r="G98" s="12">
-        <v>58.482513967609272</v>
+        <v>58.482419323316314</v>
       </c>
       <c r="H98" s="2">
-        <v>12.674393753067287</v>
+        <v>12.674250245300616</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -10724,22 +10726,22 @@
         <v>2</v>
       </c>
       <c r="C99" s="2">
-        <v>65.030912479693129</v>
+        <v>65.030956837889605</v>
       </c>
       <c r="D99" s="12">
-        <v>57.485668171328598</v>
+        <v>57.485707122984273</v>
       </c>
       <c r="E99" s="3">
-        <v>11.60255026518449</v>
+        <v>11.602550664776892</v>
       </c>
       <c r="F99" s="2">
-        <v>68.549389711364228</v>
+        <v>68.547556968988758</v>
       </c>
       <c r="G99" s="12">
-        <v>59.895879067187543</v>
+        <v>59.894196844431868</v>
       </c>
       <c r="H99" s="2">
-        <v>12.623760299855871</v>
+        <v>12.623878234598079</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -10750,22 +10752,22 @@
         <v>3</v>
       </c>
       <c r="C100" s="2">
-        <v>66.140993184559861</v>
+        <v>66.141008183137515</v>
       </c>
       <c r="D100" s="12">
-        <v>58.093048912067921</v>
+        <v>58.093053073249621</v>
       </c>
       <c r="E100" s="3">
-        <v>12.167861238543761</v>
+        <v>12.167874864568057</v>
       </c>
       <c r="F100" s="2">
-        <v>68.613801042111803</v>
+        <v>68.612640035626711</v>
       </c>
       <c r="G100" s="12">
-        <v>59.668656790618648</v>
+        <v>59.667590112660008</v>
       </c>
       <c r="H100" s="2">
-        <v>13.036946089028161</v>
+        <v>13.037029209664649</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -10776,22 +10778,22 @@
         <v>4</v>
       </c>
       <c r="C101" s="2">
-        <v>66.759706447968796</v>
+        <v>66.759632690422066</v>
       </c>
       <c r="D101" s="12">
-        <v>58.764576304312733</v>
+        <v>58.764498443161081</v>
       </c>
       <c r="E101" s="3">
-        <v>11.97598157488501</v>
+        <v>11.976000953055026</v>
       </c>
       <c r="F101" s="2">
-        <v>69.496783925076016</v>
+        <v>69.497275164845448</v>
       </c>
       <c r="G101" s="12">
-        <v>60.527924993620154</v>
+        <v>60.528312974360013</v>
       </c>
       <c r="H101" s="2">
-        <v>12.905430186704942</v>
+        <v>12.905487544959607</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -10802,22 +10804,22 @@
         <v>5</v>
       </c>
       <c r="C102" s="2">
-        <v>67.043557672720638</v>
+        <v>67.04350070284481</v>
       </c>
       <c r="D102" s="12">
-        <v>59.160209586940205</v>
+        <v>59.160160975253994</v>
       </c>
       <c r="E102" s="3">
-        <v>11.75854677083775</v>
+        <v>11.758544295787809</v>
       </c>
       <c r="F102" s="2">
-        <v>68.717585254036365</v>
+        <v>68.717336335686454</v>
       </c>
       <c r="G102" s="12">
-        <v>60.087541329922566</v>
+        <v>60.087305230406997</v>
       </c>
       <c r="H102" s="2">
-        <v>12.558712434684798</v>
+        <v>12.558739272316194</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -10828,22 +10830,22 @@
         <v>6</v>
       </c>
       <c r="C103" s="2">
-        <v>66.912734185504277</v>
+        <v>66.91254348865742</v>
       </c>
       <c r="D103" s="12">
-        <v>59.01825474459357</v>
+        <v>59.01807692704385</v>
       </c>
       <c r="E103" s="3">
-        <v>11.798171957858701</v>
+        <v>11.798186334004438</v>
       </c>
       <c r="F103" s="2">
-        <v>69.172972642343026</v>
+        <v>69.172569484556917</v>
       </c>
       <c r="G103" s="12">
-        <v>60.177757160428271</v>
+        <v>60.177391535459975</v>
       </c>
       <c r="H103" s="2">
-        <v>13.003945238011202</v>
+        <v>13.003966769089246</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -10854,22 +10856,22 @@
         <v>7</v>
       </c>
       <c r="C104" s="2">
-        <v>67.308405706847822</v>
+        <v>67.308322053951017</v>
       </c>
       <c r="D104" s="12">
-        <v>59.091542697107812</v>
+        <v>59.091461026092887</v>
       </c>
       <c r="E104" s="3">
-        <v>12.207781366160086</v>
+        <v>12.207793593891553</v>
       </c>
       <c r="F104" s="2">
-        <v>69.530089587401335</v>
+        <v>69.530654580309147</v>
       </c>
       <c r="G104" s="12">
-        <v>60.607376919880984</v>
+        <v>60.607904347900451</v>
       </c>
       <c r="H104" s="2">
-        <v>12.83287957842229</v>
+        <v>12.832829327246969</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -10880,22 +10882,22 @@
         <v>8</v>
       </c>
       <c r="C105" s="2">
-        <v>66.353947077810119</v>
+        <v>66.354032046568307</v>
       </c>
       <c r="D105" s="12">
-        <v>58.231087859223749</v>
+        <v>58.231175488050148</v>
       </c>
       <c r="E105" s="3">
-        <v>12.24171217585757</v>
+        <v>12.241692490996501</v>
       </c>
       <c r="F105" s="2">
-        <v>68.529724544576027</v>
+        <v>68.529287230915443</v>
       </c>
       <c r="G105" s="12">
-        <v>59.262711292258651</v>
+        <v>59.262351781705171</v>
       </c>
       <c r="H105" s="2">
-        <v>13.522618562824547</v>
+        <v>13.522591323596478</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -10906,22 +10908,22 @@
         <v>9</v>
       </c>
       <c r="C106" s="2">
-        <v>66.444153887596869</v>
+        <v>66.444067846657717</v>
       </c>
       <c r="D106" s="12">
-        <v>57.876082169187768</v>
+        <v>57.876039888515109</v>
       </c>
       <c r="E106" s="3">
-        <v>12.895147604563729</v>
+        <v>12.895098442672484</v>
       </c>
       <c r="F106" s="2">
-        <v>68.452356863708104</v>
+        <v>68.452644080033949</v>
       </c>
       <c r="G106" s="12">
-        <v>59.097684663407492</v>
+        <v>59.097952132389729</v>
       </c>
       <c r="H106" s="2">
-        <v>13.665960719111833</v>
+        <v>13.66593222711286</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -10932,22 +10934,22 @@
         <v>10</v>
       </c>
       <c r="C107" s="2">
-        <v>67.485504984859006</v>
+        <v>67.485637662515785</v>
       </c>
       <c r="D107" s="12">
-        <v>58.736595235630965</v>
+        <v>58.736712613071653</v>
       </c>
       <c r="E107" s="3">
-        <v>12.964131706787921</v>
+        <v>12.964128890944204</v>
       </c>
       <c r="F107" s="2">
-        <v>69.424914536680376</v>
+        <v>69.425639861646687</v>
       </c>
       <c r="G107" s="12">
-        <v>60.106238731224451</v>
+        <v>60.106886947343305</v>
       </c>
       <c r="H107" s="2">
-        <v>13.422668025802819</v>
+        <v>13.422638859179481</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -10958,22 +10960,22 @@
         <v>11</v>
       </c>
       <c r="C108" s="2">
-        <v>67.648333853039077</v>
+        <v>67.648417605218924</v>
       </c>
       <c r="D108" s="12">
-        <v>59.207515323217095</v>
+        <v>59.2075823472709</v>
       </c>
       <c r="E108" s="3">
-        <v>12.477496560608618</v>
+        <v>12.477505840871043</v>
       </c>
       <c r="F108" s="2">
-        <v>69.460540957121168</v>
+        <v>69.46144670750131</v>
       </c>
       <c r="G108" s="12">
-        <v>59.964349746564913</v>
+        <v>59.965138332468491</v>
       </c>
       <c r="H108" s="2">
-        <v>13.671346464776828</v>
+        <v>13.671336871259376</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -10984,22 +10986,22 @@
         <v>12</v>
       </c>
       <c r="C109" s="2">
-        <v>67.775072994472694</v>
+        <v>67.775094434642256</v>
       </c>
       <c r="D109" s="12">
-        <v>59.580154327331577</v>
+        <v>59.58016980737758</v>
       </c>
       <c r="E109" s="3">
-        <v>12.091346132241638</v>
+        <v>12.091351101203273</v>
       </c>
       <c r="F109" s="2">
-        <v>69.818868052719466</v>
+        <v>69.820212961639001</v>
       </c>
       <c r="G109" s="12">
-        <v>60.562305682260728</v>
+        <v>60.563490334614187</v>
       </c>
       <c r="H109" s="2">
-        <v>13.257966834221948</v>
+        <v>13.257940980659427</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -11010,22 +11012,22 @@
         <v>1</v>
       </c>
       <c r="C110" s="2">
-        <v>67.739086781002172</v>
+        <v>67.739157935115003</v>
       </c>
       <c r="D110" s="12">
-        <v>59.154732918977956</v>
+        <v>59.154792987082971</v>
       </c>
       <c r="E110" s="3">
-        <v>12.672674330223987</v>
+        <v>12.672677384408445</v>
       </c>
       <c r="F110" s="2">
-        <v>69.698922531466252</v>
+        <v>69.698662415646069</v>
       </c>
       <c r="G110" s="12">
-        <v>60.516844092746659</v>
+        <v>60.516649980360668</v>
       </c>
       <c r="H110" s="2">
-        <v>13.173917336490023</v>
+        <v>13.173871803347852</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -11036,22 +11038,22 @@
         <v>2</v>
       </c>
       <c r="C111" s="2">
-        <v>67.566804390735555</v>
+        <v>67.566824999143975</v>
       </c>
       <c r="D111" s="12">
-        <v>59.805852993095662</v>
+        <v>59.805871227086982</v>
       </c>
       <c r="E111" s="3">
-        <v>11.486337806889141</v>
+        <v>11.486337817642484</v>
       </c>
       <c r="F111" s="2">
-        <v>69.353193490132654</v>
+        <v>69.351410476446347</v>
       </c>
       <c r="G111" s="12">
-        <v>60.647446159347552</v>
+        <v>60.645828030542461</v>
       </c>
       <c r="H111" s="2">
-        <v>12.552770669491542</v>
+        <v>12.55285564647679</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -11062,22 +11064,22 @@
         <v>3</v>
       </c>
       <c r="C112" s="2">
-        <v>66.867861420404807</v>
+        <v>66.867858950250394</v>
       </c>
       <c r="D112" s="12">
-        <v>58.852257298867286</v>
+        <v>58.852247867788599</v>
       </c>
       <c r="E112" s="3">
-        <v>11.987229666494983</v>
+        <v>11.987240519283562</v>
       </c>
       <c r="F112" s="2">
-        <v>69.229337897718807</v>
+        <v>69.228357923815381</v>
       </c>
       <c r="G112" s="12">
-        <v>60.806637687806372</v>
+        <v>60.805726081268887</v>
       </c>
       <c r="H112" s="2">
-        <v>12.166374062910043</v>
+        <v>12.166447529804863</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -11088,22 +11090,22 @@
         <v>4</v>
       </c>
       <c r="C113" s="2">
-        <v>68.115437581786935</v>
+        <v>68.11541372102073</v>
       </c>
       <c r="D113" s="12">
-        <v>59.752930662335523</v>
+        <v>59.752908077273169</v>
       </c>
       <c r="E113" s="3">
-        <v>12.276962780148731</v>
+        <v>12.276965207901025</v>
       </c>
       <c r="F113" s="2">
-        <v>69.628601232662902</v>
+        <v>69.628872968622375</v>
       </c>
       <c r="G113" s="12">
-        <v>60.917423875358921</v>
+        <v>60.917611908959032</v>
       </c>
       <c r="H113" s="2">
-        <v>12.510918219074538</v>
+        <v>12.51098960568987</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -11114,22 +11116,22 @@
         <v>5</v>
       </c>
       <c r="C114" s="2">
-        <v>67.181001185103014</v>
+        <v>67.180943715288151</v>
       </c>
       <c r="D114" s="12">
-        <v>58.961895338767292</v>
+        <v>58.961858744571785</v>
       </c>
       <c r="E114" s="3">
-        <v>12.23427115009752</v>
+        <v>12.234250542160789</v>
       </c>
       <c r="F114" s="2">
-        <v>69.108416022473065</v>
+        <v>69.108094735817858</v>
       </c>
       <c r="G114" s="12">
-        <v>60.1365831943369</v>
+        <v>60.136290023167284</v>
       </c>
       <c r="H114" s="2">
-        <v>12.982257942677572</v>
+        <v>12.982277614434945</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -11140,22 +11142,22 @@
         <v>6</v>
       </c>
       <c r="C115" s="2">
-        <v>67.813423739778216</v>
+        <v>67.813275750393757</v>
       </c>
       <c r="D115" s="12">
-        <v>59.535220050792617</v>
+        <v>59.535087823545261</v>
       </c>
       <c r="E115" s="3">
-        <v>12.207323023169742</v>
+        <v>12.207326419857283</v>
       </c>
       <c r="F115" s="2">
-        <v>69.508869551238988</v>
+        <v>69.508730458257588</v>
       </c>
       <c r="G115" s="12">
-        <v>60.634073086050385</v>
+        <v>60.633927016730283</v>
       </c>
       <c r="H115" s="2">
-        <v>12.767861889404591</v>
+        <v>12.767897475637161</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -11166,22 +11168,22 @@
         <v>7</v>
       </c>
       <c r="C116" s="2">
-        <v>67.716757735771182</v>
+        <v>67.716737042927832</v>
       </c>
       <c r="D116" s="12">
-        <v>59.458436579851401</v>
+        <v>59.458425187910372</v>
       </c>
       <c r="E116" s="3">
-        <v>12.195387717975976</v>
+        <v>12.195377709623312</v>
       </c>
       <c r="F116" s="2">
-        <v>69.837091247225231</v>
+        <v>69.837509592394071</v>
       </c>
       <c r="G116" s="12">
-        <v>60.481208069926105</v>
+        <v>60.481595153981438</v>
       </c>
       <c r="H116" s="2">
-        <v>13.396725164539053</v>
+        <v>13.396689677249837</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -11192,22 +11194,22 @@
         <v>8</v>
       </c>
       <c r="C117" s="2">
-        <v>67.962330670131465</v>
+        <v>67.962324363886722</v>
       </c>
       <c r="D117" s="12">
-        <v>59.986196477137774</v>
+        <v>59.986208627931923</v>
       </c>
       <c r="E117" s="3">
-        <v>11.736110451696277</v>
+        <v>11.736084382942437</v>
       </c>
       <c r="F117" s="2">
-        <v>69.571763019058011</v>
+        <v>69.571330334620669</v>
       </c>
       <c r="G117" s="12">
-        <v>60.716670561251227</v>
+        <v>60.716428767168807</v>
       </c>
       <c r="H117" s="2">
-        <v>12.727997787523476</v>
+        <v>12.727802565887414</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -11218,22 +11220,22 @@
         <v>9</v>
       </c>
       <c r="C118" s="2">
-        <v>68.573220730087286</v>
+        <v>68.57322274574517</v>
       </c>
       <c r="D118" s="12">
-        <v>60.760672760435263</v>
+        <v>60.760708401022868</v>
       </c>
       <c r="E118" s="3">
-        <v>11.393001358946201</v>
+        <v>11.392951988984745</v>
       </c>
       <c r="F118" s="2">
-        <v>70.088566128785985</v>
+        <v>70.088913053357217</v>
       </c>
       <c r="G118" s="12">
-        <v>61.489037269260926</v>
+        <v>61.4894074259538</v>
       </c>
       <c r="H118" s="2">
-        <v>12.269517461269853</v>
+        <v>12.269423583237474</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -11244,22 +11246,22 @@
         <v>10</v>
       </c>
       <c r="C119" s="2">
-        <v>67.205016494394513</v>
+        <v>67.205097150530023</v>
       </c>
       <c r="D119" s="12">
-        <v>59.351995713406367</v>
+        <v>59.352083084263754</v>
       </c>
       <c r="E119" s="3">
-        <v>11.685170528368447</v>
+        <v>11.685146513033994</v>
       </c>
       <c r="F119" s="2">
-        <v>69.434728307505495</v>
+        <v>69.435913735159033</v>
       </c>
       <c r="G119" s="12">
-        <v>60.927303789384503</v>
+        <v>60.928344616614375</v>
       </c>
       <c r="H119" s="2">
-        <v>12.252405569219167</v>
+        <v>12.252404643213961</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -11270,22 +11272,22 @@
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>68.060594587372591</v>
+        <v>68.060652080080558</v>
       </c>
       <c r="D120" s="12">
-        <v>59.904959037901698</v>
+        <v>59.904933995603301</v>
       </c>
       <c r="E120" s="3">
-        <v>11.982903762324808</v>
+        <v>11.983014906882152</v>
       </c>
       <c r="F120" s="2">
-        <v>70.16242146121661</v>
+        <v>70.163138546124131</v>
       </c>
       <c r="G120" s="12">
-        <v>61.721595046152899</v>
+        <v>61.722218588184795</v>
       </c>
       <c r="H120" s="2">
-        <v>12.030409212329571</v>
+        <v>12.03041958049014</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -11296,22 +11298,22 @@
         <v>12</v>
       </c>
       <c r="C121" s="2">
-        <v>67.751719929693834</v>
+        <v>67.751742550618758</v>
       </c>
       <c r="D121" s="12">
-        <v>59.640144986717402</v>
+        <v>59.640164839556888</v>
       </c>
       <c r="E121" s="3">
-        <v>11.972500404999066</v>
+        <v>11.97250049325528</v>
       </c>
       <c r="F121" s="2">
-        <v>69.947602501631579</v>
+        <v>69.948553162897468</v>
       </c>
       <c r="G121" s="12">
-        <v>61.320423161734269</v>
+        <v>61.321201635990683</v>
       </c>
       <c r="H121" s="2">
-        <v>12.333774184320417</v>
+        <v>12.333852720034473</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -11322,22 +11324,22 @@
         <v>1</v>
       </c>
       <c r="C122" s="2">
-        <v>68.193160009553182</v>
+        <v>68.193205748065395</v>
       </c>
       <c r="D122" s="12">
-        <v>60.187793237471411</v>
+        <v>60.187826568476495</v>
       </c>
       <c r="E122" s="3">
-        <v>11.739251812000361</v>
+        <v>11.739262132893645</v>
       </c>
       <c r="F122" s="2">
-        <v>69.856416431486096</v>
+        <v>69.85621688178469</v>
       </c>
       <c r="G122" s="12">
-        <v>61.127407454583846</v>
+        <v>61.127168068190421</v>
       </c>
       <c r="H122" s="2">
-        <v>12.495643811708392</v>
+        <v>12.495736533179501</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -11348,22 +11350,22 @@
         <v>2</v>
       </c>
       <c r="C123" s="2">
-        <v>67.395223932962423</v>
+        <v>67.395229625067799</v>
       </c>
       <c r="D123" s="12">
-        <v>59.438822443433168</v>
+        <v>59.438821047898628</v>
       </c>
       <c r="E123" s="3">
-        <v>11.805586546375197</v>
+        <v>11.805596065822693</v>
       </c>
       <c r="F123" s="2">
-        <v>69.89898170080032</v>
+        <v>69.897425881591971</v>
       </c>
       <c r="G123" s="12">
-        <v>61.340404376031167</v>
+        <v>61.338978998338867</v>
       </c>
       <c r="H123" s="2">
-        <v>12.244208880472387</v>
+        <v>12.24429480100072</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -11374,22 +11376,22 @@
         <v>3</v>
       </c>
       <c r="C124" s="2">
-        <v>67.801599956873631</v>
+        <v>67.801599780620379</v>
       </c>
       <c r="D124" s="12">
-        <v>60.339770791518291</v>
+        <v>60.33976789632667</v>
       </c>
       <c r="E124" s="3">
-        <v>11.005388029340848</v>
+        <v>11.005392068088806</v>
       </c>
       <c r="F124" s="2">
-        <v>70.005301634418103</v>
+        <v>70.004509863738178</v>
       </c>
       <c r="G124" s="12">
-        <v>61.601499618819055</v>
+        <v>61.600785640211733</v>
       </c>
       <c r="H124" s="2">
-        <v>12.004522256736225</v>
+        <v>12.004546906883666</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -11400,22 +11402,22 @@
         <v>4</v>
       </c>
       <c r="C125" s="2">
-        <v>67.326670199445275</v>
+        <v>67.32665785234741</v>
       </c>
       <c r="D125" s="12">
-        <v>59.862308529980709</v>
+        <v>59.862316551558251</v>
       </c>
       <c r="E125" s="3">
-        <v>11.086782767293403</v>
+        <v>11.086754547001329</v>
       </c>
       <c r="F125" s="2">
-        <v>69.872196134366305</v>
+        <v>69.87226000626147</v>
       </c>
       <c r="G125" s="12">
-        <v>61.587375078417374</v>
+        <v>61.587334354173827</v>
       </c>
       <c r="H125" s="2">
-        <v>11.857106995774073</v>
+        <v>11.857245853139988</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -11426,22 +11428,22 @@
         <v>5</v>
       </c>
       <c r="C126" s="2">
-        <v>67.992953564070277</v>
+        <v>67.992897965999731</v>
       </c>
       <c r="D126" s="12">
-        <v>60.16289582390143</v>
+        <v>60.162891318834831</v>
       </c>
       <c r="E126" s="3">
-        <v>11.515984127370679</v>
+        <v>11.515918399419203</v>
       </c>
       <c r="F126" s="2">
-        <v>69.837215793530262</v>
+        <v>69.83692572978272</v>
       </c>
       <c r="G126" s="12">
-        <v>61.98890606056937</v>
+        <v>61.988680153161788</v>
       </c>
       <c r="H126" s="2">
-        <v>11.238004900086457</v>
+        <v>11.237959710580373</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -11452,22 +11454,22 @@
         <v>6</v>
       </c>
       <c r="C127" s="2">
-        <v>67.561729260120174</v>
+        <v>67.561625160426075</v>
       </c>
       <c r="D127" s="12">
-        <v>59.934671797659178</v>
+        <v>59.934565875704394</v>
       </c>
       <c r="E127" s="3">
-        <v>11.289020494274178</v>
+        <v>11.289040585703965</v>
       </c>
       <c r="F127" s="2">
-        <v>70.053985100254152</v>
+        <v>70.053966050169961</v>
       </c>
       <c r="G127" s="12">
-        <v>61.873189618948508</v>
+        <v>61.873160551304387</v>
       </c>
       <c r="H127" s="2">
-        <v>11.677844550310903</v>
+        <v>11.677862025694292</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -11478,22 +11480,22 @@
         <v>7</v>
       </c>
       <c r="C128" s="2">
-        <v>68.051702708689618</v>
+        <v>68.051685892172969</v>
       </c>
       <c r="D128" s="12">
-        <v>60.517616542917331</v>
+        <v>60.517635521626126</v>
       </c>
       <c r="E128" s="3">
-        <v>11.071120730106667</v>
+        <v>11.071070865877514</v>
       </c>
       <c r="F128" s="2">
-        <v>69.77805144487121</v>
+        <v>69.778373794141231</v>
       </c>
       <c r="G128" s="12">
-        <v>61.843820864909624</v>
+        <v>61.84415872296578</v>
       </c>
       <c r="H128" s="2">
-        <v>11.370668019054808</v>
+        <v>11.370593265160924</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -11504,22 +11506,22 @@
         <v>8</v>
       </c>
       <c r="C129" s="2">
-        <v>67.458926024091767</v>
+        <v>67.458914826714576</v>
       </c>
       <c r="D129" s="12">
-        <v>60.184489782694953</v>
+        <v>60.184515456486999</v>
       </c>
       <c r="E129" s="3">
-        <v>10.783504378351479</v>
+        <v>10.783451511062287</v>
       </c>
       <c r="F129" s="2">
-        <v>69.323671376460084</v>
+        <v>69.323243238945736</v>
       </c>
       <c r="G129" s="12">
-        <v>61.689886292332965</v>
+        <v>61.689781584482496</v>
       </c>
       <c r="H129" s="2">
-        <v>11.011801499479283</v>
+        <v>11.011402954925172</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -11530,22 +11532,22 @@
         <v>9</v>
       </c>
       <c r="C130" s="2">
-        <v>68.518946334062932</v>
+        <v>68.518928669105819</v>
       </c>
       <c r="D130" s="12">
-        <v>61.319015423383227</v>
+        <v>61.319044176799977</v>
       </c>
       <c r="E130" s="3">
-        <v>10.507941665618395</v>
+        <v>10.507876629355655</v>
       </c>
       <c r="F130" s="2">
-        <v>70.62866777022505</v>
+        <v>70.629110195285833</v>
       </c>
       <c r="G130" s="12">
-        <v>62.851661614547837</v>
+        <v>62.852222399117196</v>
       </c>
       <c r="H130" s="2">
-        <v>11.011118291198709</v>
+        <v>11.010881737949042</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -11556,22 +11558,22 @@
         <v>10</v>
       </c>
       <c r="C131" s="2">
-        <v>69.142731538583334</v>
+        <v>69.142766120172197</v>
       </c>
       <c r="D131" s="12">
-        <v>61.807865256215337</v>
+        <v>61.807923037742682</v>
       </c>
       <c r="E131" s="3">
-        <v>10.608296952044721</v>
+        <v>10.608258092656191</v>
       </c>
       <c r="F131" s="2">
-        <v>71.653795317982713</v>
+        <v>71.655214012510726</v>
       </c>
       <c r="G131" s="12">
-        <v>63.513801121432259</v>
+        <v>63.515082411001309</v>
       </c>
       <c r="H131" s="2">
-        <v>11.360171726322493</v>
+        <v>11.360138565894411</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -11582,22 +11584,22 @@
         <v>11</v>
       </c>
       <c r="C132" s="2">
-        <v>69.100697801722291</v>
+        <v>69.100768391883832</v>
       </c>
       <c r="D132" s="12">
-        <v>61.829133943821681</v>
+        <v>61.829038952016077</v>
       </c>
       <c r="E132" s="3">
-        <v>10.523140994560794</v>
+        <v>10.523369868520652</v>
       </c>
       <c r="F132" s="2">
-        <v>70.473265839982531</v>
+        <v>70.473770526915359</v>
       </c>
       <c r="G132" s="12">
-        <v>62.289091810224029</v>
+        <v>62.289491113437812</v>
       </c>
       <c r="H132" s="2">
-        <v>11.613161292030366</v>
+        <v>11.613227662271605</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -11608,22 +11610,22 @@
         <v>12</v>
       </c>
       <c r="C133" s="2">
-        <v>68.553544450247983</v>
+        <v>68.553603183409876</v>
       </c>
       <c r="D133" s="12">
-        <v>61.199362580181848</v>
+        <v>61.199397257076029</v>
       </c>
       <c r="E133" s="3">
-        <v>10.727646439059567</v>
+        <v>10.727672339349159</v>
       </c>
       <c r="F133" s="2">
-        <v>70.550939204853222</v>
+        <v>70.551477699431558</v>
       </c>
       <c r="G133" s="12">
-        <v>62.559787369476581</v>
+        <v>62.560013850225069</v>
       </c>
       <c r="H133" s="2">
-        <v>11.326783066875086</v>
+        <v>11.327138863415861</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -11634,22 +11636,22 @@
         <v>1</v>
       </c>
       <c r="C134" s="2">
-        <v>68.766876942008963</v>
+        <v>68.766941834483532</v>
       </c>
       <c r="D134" s="12">
-        <v>61.406359525750098</v>
+        <v>61.40638959182543</v>
       </c>
       <c r="E134" s="3">
-        <v>10.703579606306658</v>
+        <v>10.703620149888824</v>
       </c>
       <c r="F134" s="2">
-        <v>70.242130234791503</v>
+        <v>70.242009900058676</v>
       </c>
       <c r="G134" s="12">
-        <v>62.381390339920408</v>
+        <v>62.380942869005786</v>
       </c>
       <c r="H134" s="2">
-        <v>11.190918994904854</v>
+        <v>11.19140389382042</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -11660,22 +11662,22 @@
         <v>2</v>
       </c>
       <c r="C135" s="2">
-        <v>69.105260396613133</v>
+        <v>69.105283169101597</v>
       </c>
       <c r="D135" s="12">
-        <v>61.729536901916823</v>
+        <v>61.729536430405183</v>
       </c>
       <c r="E135" s="3">
-        <v>10.673172277139411</v>
+        <v>10.673202395608245</v>
       </c>
       <c r="F135" s="2">
-        <v>69.591165782806826</v>
+        <v>69.589825309194097</v>
       </c>
       <c r="G135" s="12">
-        <v>61.531062377871372</v>
+        <v>61.529870579895629</v>
       </c>
       <c r="H135" s="2">
-        <v>11.582078435201005</v>
+        <v>11.582087889267342</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -11686,22 +11688,22 @@
         <v>3</v>
       </c>
       <c r="C136" s="2">
-        <v>69.33533563365377</v>
+        <v>69.335327557885094</v>
       </c>
       <c r="D136" s="12">
-        <v>62.03078090245603</v>
+        <v>62.030777130472103</v>
       </c>
       <c r="E136" s="3">
-        <v>10.535111230718961</v>
+        <v>10.535106250583057</v>
       </c>
       <c r="F136" s="2">
-        <v>71.293344899935647</v>
+        <v>71.292764590239571</v>
       </c>
       <c r="G136" s="12">
-        <v>63.496523963292759</v>
+        <v>63.495876216008661</v>
       </c>
       <c r="H136" s="2">
-        <v>10.936253513685148</v>
+        <v>10.936437125203536</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -11712,22 +11714,22 @@
         <v>4</v>
       </c>
       <c r="C137" s="2">
-        <v>68.841182164940406</v>
+        <v>68.841133630779154</v>
       </c>
       <c r="D137" s="12">
-        <v>61.319427254600853</v>
+        <v>61.319432473001143</v>
       </c>
       <c r="E137" s="3">
-        <v>10.926243091406773</v>
+        <v>10.926172712552525</v>
       </c>
       <c r="F137" s="2">
-        <v>70.328502028380669</v>
+        <v>70.328327678882658</v>
       </c>
       <c r="G137" s="12">
-        <v>62.193441474255685</v>
+        <v>62.193141240417404</v>
       </c>
       <c r="H137" s="2">
-        <v>11.567231377745159</v>
+        <v>11.567439049041935</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -11738,22 +11740,22 @@
         <v>5</v>
       </c>
       <c r="C138" s="2">
-        <v>69.0272238197783</v>
+        <v>69.027087369709449</v>
       </c>
       <c r="D138" s="12">
-        <v>61.471484885064022</v>
+        <v>61.471447555632999</v>
       </c>
       <c r="E138" s="3">
-        <v>10.946027547683791</v>
+        <v>10.945905588640018</v>
       </c>
       <c r="F138" s="2">
-        <v>71.234250181813863</v>
+        <v>71.234123988886338</v>
       </c>
       <c r="G138" s="12">
-        <v>62.600248766531863</v>
+        <v>62.600203310682645</v>
       </c>
       <c r="H138" s="2">
-        <v>12.120575977489931</v>
+        <v>12.120484108923305</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -11764,22 +11766,22 @@
         <v>6</v>
       </c>
       <c r="C139" s="2">
-        <v>69.420394625761631</v>
+        <v>69.420249976372745</v>
       </c>
       <c r="D139" s="12">
-        <v>62.118921666836826</v>
+        <v>62.118770542398913</v>
       </c>
       <c r="E139" s="3">
-        <v>10.517763545261156</v>
+        <v>10.517794788205</v>
       </c>
       <c r="F139" s="2">
-        <v>71.036363806243926</v>
+        <v>71.036419714492851</v>
       </c>
       <c r="G139" s="12">
-        <v>63.048947730118662</v>
+        <v>63.048962534890151</v>
       </c>
       <c r="H139" s="2">
-        <v>11.244122936685539</v>
+        <v>11.244171949692298</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -11790,22 +11792,22 @@
         <v>7</v>
       </c>
       <c r="C140" s="2">
-        <v>68.402162352471265</v>
+        <v>68.4021299947199</v>
       </c>
       <c r="D140" s="12">
-        <v>61.132406770040348</v>
+        <v>61.132441962400463</v>
       </c>
       <c r="E140" s="3">
-        <v>10.627961649765421</v>
+        <v>10.627867922944215</v>
       </c>
       <c r="F140" s="2">
-        <v>70.910651002053854</v>
+        <v>70.910857028557146</v>
       </c>
       <c r="G140" s="12">
-        <v>62.570560783745741</v>
+        <v>62.570713402748211</v>
       </c>
       <c r="H140" s="2">
-        <v>11.761406926114038</v>
+        <v>11.761448070568651</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -11816,22 +11818,22 @@
         <v>8</v>
       </c>
       <c r="C141" s="2">
-        <v>68.727992927186676</v>
+        <v>68.727997314221383</v>
       </c>
       <c r="D141" s="12">
-        <v>61.649555457570038</v>
+        <v>61.649613808570436</v>
       </c>
       <c r="E141" s="3">
-        <v>10.299205852142133</v>
+        <v>10.299126676554957</v>
       </c>
       <c r="F141" s="2">
-        <v>70.979187091165784</v>
+        <v>70.978766004621704</v>
       </c>
       <c r="G141" s="12">
-        <v>62.992253936397546</v>
+        <v>62.992353195442853</v>
       </c>
       <c r="H141" s="2">
-        <v>11.252500179397387</v>
+        <v>11.251833835289322</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -11842,22 +11844,22 @@
         <v>9</v>
       </c>
       <c r="C142" s="2">
-        <v>67.873416874642913</v>
+        <v>67.873439099283559</v>
       </c>
       <c r="D142" s="12">
-        <v>60.594159006235756</v>
+        <v>60.594219587152878</v>
       </c>
       <c r="E142" s="3">
-        <v>10.724755292416447</v>
+        <v>10.724695269209553</v>
       </c>
       <c r="F142" s="2">
-        <v>70.443111451020783</v>
+        <v>70.443644513604781</v>
       </c>
       <c r="G142" s="12">
-        <v>62.36652447979175</v>
+        <v>62.367205450467466</v>
       </c>
       <c r="H142" s="2">
-        <v>11.465403507686785</v>
+        <v>11.465106779899106</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -11868,22 +11870,22 @@
         <v>10</v>
       </c>
       <c r="C143" s="2">
-        <v>67.539946898381871</v>
+        <v>67.539999635399894</v>
       </c>
       <c r="D143" s="12">
-        <v>60.480507009968235</v>
+        <v>60.480577426633339</v>
       </c>
       <c r="E143" s="3">
-        <v>10.452243764767873</v>
+        <v>10.452209426821609</v>
       </c>
       <c r="F143" s="2">
-        <v>70.409437134833752</v>
+        <v>70.411087090543219</v>
       </c>
       <c r="G143" s="12">
-        <v>62.376053400748447</v>
+        <v>62.377520358523199</v>
       </c>
       <c r="H143" s="2">
-        <v>11.409526990964887</v>
+        <v>11.409519528777443</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -11894,22 +11896,22 @@
         <v>11</v>
       </c>
       <c r="C144" s="2">
-        <v>67.627591592023578</v>
+        <v>67.627722149938677</v>
       </c>
       <c r="D144" s="12">
-        <v>60.471336459497607</v>
+        <v>60.47121579216784</v>
       </c>
       <c r="E144" s="3">
-        <v>10.581857144488369</v>
+        <v>10.582208198442647</v>
       </c>
       <c r="F144" s="2">
-        <v>70.574011989388922</v>
+        <v>70.574288739813241</v>
       </c>
       <c r="G144" s="12">
-        <v>62.631271759151595</v>
+        <v>62.631566418348918</v>
       </c>
       <c r="H144" s="2">
-        <v>11.254483068684761</v>
+        <v>11.254413559514322</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -11920,22 +11922,22 @@
         <v>12</v>
       </c>
       <c r="C145" s="2">
-        <v>68.329280792416938</v>
+        <v>68.329351659379952</v>
       </c>
       <c r="D145" s="12">
-        <v>61.135955867051514</v>
+        <v>61.136009356305976</v>
       </c>
       <c r="E145" s="3">
-        <v>10.527441298875365</v>
+        <v>10.52745581274152</v>
       </c>
       <c r="F145" s="2">
-        <v>70.162653539481738</v>
+        <v>70.162686719614371</v>
       </c>
       <c r="G145" s="12">
-        <v>62.317173480208176</v>
+        <v>62.317082278135572</v>
       </c>
       <c r="H145" s="2">
-        <v>11.181846272189203</v>
+        <v>11.182018261118712</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -11946,22 +11948,22 @@
         <v>1</v>
       </c>
       <c r="C146" s="2">
-        <v>68.110577474912617</v>
+        <v>68.110764638182332</v>
       </c>
       <c r="D146" s="12">
-        <v>61.13214784249238</v>
+        <v>61.132172031664297</v>
       </c>
       <c r="E146" s="3">
-        <v>10.245735524692364</v>
+        <v>10.245946648212909</v>
       </c>
       <c r="F146" s="2">
-        <v>70.37342224549225</v>
+        <v>70.374072799199155</v>
       </c>
       <c r="G146" s="12">
-        <v>62.533013935724632</v>
+        <v>62.531877702542751</v>
       </c>
       <c r="H146" s="2">
-        <v>11.141149683494083</v>
+        <v>11.143585676834165</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -11972,22 +11974,22 @@
         <v>2</v>
       </c>
       <c r="C147" s="2">
-        <v>67.857194536049136</v>
+        <v>67.857296347720435</v>
       </c>
       <c r="D147" s="12">
-        <v>60.706855182584341</v>
+        <v>60.706961335657859</v>
       </c>
       <c r="E147" s="3">
-        <v>10.537334180042157</v>
+        <v>10.537311972204439</v>
       </c>
       <c r="F147" s="2">
-        <v>69.982475619767754</v>
+        <v>69.980419367504481</v>
       </c>
       <c r="G147" s="12">
-        <v>62.006462966307218</v>
+        <v>62.005000817402944</v>
       </c>
       <c r="H147" s="2">
-        <v>11.397157049425038</v>
+        <v>11.396642978399953</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -11998,22 +12000,22 @@
         <v>3</v>
       </c>
       <c r="C148" s="2">
-        <v>67.373288440696626</v>
+        <v>67.37321773753925</v>
       </c>
       <c r="D148" s="12">
-        <v>60.404675225976476</v>
+        <v>60.404636759376572</v>
       </c>
       <c r="E148" s="3">
-        <v>10.34328793503091</v>
+        <v>10.343250941805458</v>
       </c>
       <c r="F148" s="2">
-        <v>70.086026128722807</v>
+        <v>70.085729653685462</v>
       </c>
       <c r="G148" s="12">
-        <v>62.045710119410479</v>
+        <v>62.045379459655848</v>
       </c>
       <c r="H148" s="2">
-        <v>11.47206719146148</v>
+        <v>11.47216449591005</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -12024,22 +12026,22 @@
         <v>4</v>
       </c>
       <c r="C149" s="2">
-        <v>67.501780724959517</v>
+        <v>67.501344596332814</v>
       </c>
       <c r="D149" s="12">
-        <v>60.521168840360097</v>
+        <v>60.520817650520101</v>
       </c>
       <c r="E149" s="3">
-        <v>10.341374419502184</v>
+        <v>10.341315402763019</v>
       </c>
       <c r="F149" s="2">
-        <v>69.523960295859695</v>
+        <v>69.523903805122032</v>
       </c>
       <c r="G149" s="12">
-        <v>61.756056305920559</v>
+        <v>61.75585359962561</v>
       </c>
       <c r="H149" s="2">
-        <v>11.172988358089448</v>
+        <v>11.173207746317782</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -12050,22 +12052,22 @@
         <v>5</v>
       </c>
       <c r="C150" s="2">
-        <v>68.442057077261765</v>
+        <v>68.441923652750575</v>
       </c>
       <c r="D150" s="12">
-        <v>61.740448219154651</v>
+        <v>61.740583323541586</v>
       </c>
       <c r="E150" s="3">
-        <v>9.7916531797720676</v>
+        <v>9.7912799225357041</v>
       </c>
       <c r="F150" s="2">
-        <v>70.344387354420164</v>
+        <v>70.344296705244432</v>
       </c>
       <c r="G150" s="12">
-        <v>62.67531573624877</v>
+        <v>62.675328210265235</v>
       </c>
       <c r="H150" s="2">
-        <v>10.902179842055991</v>
+        <v>10.90204729334857</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -12076,22 +12078,22 @@
         <v>6</v>
       </c>
       <c r="C151" s="2">
-        <v>67.314265432816413</v>
+        <v>67.313858396717379</v>
       </c>
       <c r="D151" s="12">
-        <v>60.701807526939099</v>
+        <v>60.701361948132657</v>
       </c>
       <c r="E151" s="3">
-        <v>9.8232638555298983</v>
+        <v>9.8233805134355414</v>
       </c>
       <c r="F151" s="2">
-        <v>69.791356859226667</v>
+        <v>69.791306455164147</v>
       </c>
       <c r="G151" s="12">
-        <v>62.119883339588924</v>
+        <v>62.119854208862392</v>
       </c>
       <c r="H151" s="2">
-        <v>10.99201085187606</v>
+        <v>10.991988309074157</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -12102,22 +12104,22 @@
         <v>7</v>
       </c>
       <c r="C152" s="2">
-        <v>68.328183321033436</v>
+        <v>68.328067787548676</v>
       </c>
       <c r="D152" s="12">
-        <v>61.688661216928367</v>
+        <v>61.688639865367378</v>
       </c>
       <c r="E152" s="3">
-        <v>9.7171061506346845</v>
+        <v>9.7169847431148835</v>
       </c>
       <c r="F152" s="2">
-        <v>70.134632864353492</v>
+        <v>70.134585978990629</v>
       </c>
       <c r="G152" s="12">
-        <v>62.902030615291501</v>
+        <v>62.901951495480546</v>
       </c>
       <c r="H152" s="2">
-        <v>10.312454708432663</v>
+        <v>10.312507563210922</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -12128,22 +12130,22 @@
         <v>8</v>
       </c>
       <c r="C153" s="2">
-        <v>68.118167665594783</v>
+        <v>68.118264611032899</v>
       </c>
       <c r="D153" s="12">
-        <v>61.365091358662951</v>
+        <v>61.365264450630598</v>
       </c>
       <c r="E153" s="3">
-        <v>9.9137668236820193</v>
+        <v>9.9136409287040728</v>
       </c>
       <c r="F153" s="2">
-        <v>70.582531353575746</v>
+        <v>70.582215829927179</v>
       </c>
       <c r="G153" s="12">
-        <v>62.750438999475897</v>
+        <v>62.750791550514698</v>
       </c>
       <c r="H153" s="2">
-        <v>11.09636081889129</v>
+        <v>11.095463903092593</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -12154,22 +12156,22 @@
         <v>9</v>
       </c>
       <c r="C154" s="2">
-        <v>67.724212703130078</v>
+        <v>67.724432647166338</v>
       </c>
       <c r="D154" s="12">
-        <v>61.134414977731254</v>
+        <v>61.13465578691676</v>
       </c>
       <c r="E154" s="3">
-        <v>9.7303423138860126</v>
+        <v>9.7302799044198345</v>
       </c>
       <c r="F154" s="2">
-        <v>69.545492892052309</v>
+        <v>69.546101315448936</v>
       </c>
       <c r="G154" s="12">
-        <v>62.154222833316254</v>
+        <v>62.155047555300392</v>
       </c>
       <c r="H154" s="2">
-        <v>10.627964158955191</v>
+        <v>10.62756016562887</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -12180,22 +12182,22 @@
         <v>10</v>
       </c>
       <c r="C155" s="2">
-        <v>67.560455851983136</v>
+        <v>67.56066357892972</v>
       </c>
       <c r="D155" s="12">
-        <v>61.237217944655256</v>
+        <v>61.237393296808364</v>
       </c>
       <c r="E155" s="3">
-        <v>9.3593772090308764</v>
+        <v>9.3593963515974217</v>
       </c>
       <c r="F155" s="2">
-        <v>68.753487678522333</v>
+        <v>68.754979320563208</v>
       </c>
       <c r="G155" s="12">
-        <v>61.932802457844346</v>
+        <v>61.934230723491126</v>
       </c>
       <c r="H155" s="2">
-        <v>9.9204934192868208</v>
+        <v>9.9203703709531066</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -12206,22 +12208,22 @@
         <v>11</v>
       </c>
       <c r="C156" s="2">
-        <v>67.224261786540183</v>
+        <v>67.224474326962664</v>
       </c>
       <c r="D156" s="12">
-        <v>60.598616944062101</v>
+        <v>60.59852743167734</v>
       </c>
       <c r="E156" s="3">
-        <v>9.8560321324416389</v>
+        <v>9.8564502907949958</v>
       </c>
       <c r="F156" s="2">
-        <v>69.707039534179103</v>
+        <v>69.707301220289523</v>
       </c>
       <c r="G156" s="12">
-        <v>62.240732372004636</v>
+        <v>62.241229000208598</v>
       </c>
       <c r="H156" s="2">
-        <v>10.71098014213262</v>
+        <v>10.710602891491366</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -12232,22 +12234,22 @@
         <v>12</v>
       </c>
       <c r="C157" s="2">
-        <v>67.601788930300046</v>
+        <v>67.601930369603309</v>
       </c>
       <c r="D157" s="12">
-        <v>61.400731628805453</v>
+        <v>61.400832426716576</v>
       </c>
       <c r="E157" s="3">
-        <v>9.1729189413731476</v>
+        <v>9.1729598681327058</v>
       </c>
       <c r="F157" s="2">
-        <v>69.808799121723425</v>
+        <v>69.80864936659728</v>
       </c>
       <c r="G157" s="12">
-        <v>62.547961169625879</v>
+        <v>62.548055589829886</v>
       </c>
       <c r="H157" s="2">
-        <v>10.401035461786206</v>
+        <v>10.400707996280927</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -12258,22 +12260,22 @@
         <v>1</v>
       </c>
       <c r="C158" s="2">
-        <v>67.458776902679531</v>
+        <v>67.459134851892216</v>
       </c>
       <c r="D158" s="12">
-        <v>61.113205025942598</v>
+        <v>61.113275286090804</v>
       </c>
       <c r="E158" s="3">
-        <v>9.4065919485784146</v>
+        <v>9.4069684998686522</v>
       </c>
       <c r="F158" s="2">
-        <v>69.541142478802854</v>
+        <v>69.542729085439163</v>
       </c>
       <c r="G158" s="12">
-        <v>62.357938163245606</v>
+        <v>62.35559986636148</v>
       </c>
       <c r="H158" s="2">
-        <v>10.329430980727389</v>
+        <v>10.334839189655149</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -12284,22 +12286,22 @@
         <v>2</v>
       </c>
       <c r="C159" s="2">
-        <v>67.205883895444217</v>
+        <v>67.206055037701034</v>
       </c>
       <c r="D159" s="12">
-        <v>60.741957145678057</v>
+        <v>60.742194753028677</v>
       </c>
       <c r="E159" s="3">
-        <v>9.6180964747408737</v>
+        <v>9.6179730844881135</v>
       </c>
       <c r="F159" s="2">
-        <v>69.939567675339845</v>
+        <v>69.936657942356476</v>
       </c>
       <c r="G159" s="12">
-        <v>62.568095512256249</v>
+        <v>62.566426172077293</v>
       </c>
       <c r="H159" s="2">
-        <v>10.539773704781881</v>
+        <v>10.538438620206739</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -12310,22 +12312,22 @@
         <v>3</v>
       </c>
       <c r="C160" s="2">
-        <v>67.331644770679361</v>
+        <v>67.331401203691016</v>
       </c>
       <c r="D160" s="12">
-        <v>60.797246242104166</v>
+        <v>60.797114157447872</v>
       </c>
       <c r="E160" s="3">
-        <v>9.704795643757544</v>
+        <v>9.7046651776570272</v>
       </c>
       <c r="F160" s="2">
-        <v>69.654224828251884</v>
+        <v>69.65415468725557</v>
       </c>
       <c r="G160" s="12">
-        <v>62.413604200415499</v>
+        <v>62.413644509771551</v>
       </c>
       <c r="H160" s="2">
-        <v>10.395091820617861</v>
+        <v>10.394943718710866</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -12336,22 +12338,22 @@
         <v>4</v>
       </c>
       <c r="C161" s="2">
-        <v>67.404421278561827</v>
+        <v>67.403427564903112</v>
       </c>
       <c r="D161" s="12">
-        <v>61.15247235224335</v>
+        <v>61.151621636458962</v>
       </c>
       <c r="E161" s="3">
-        <v>9.275280178552519</v>
+        <v>9.2752047697044055</v>
       </c>
       <c r="F161" s="2">
-        <v>69.852497038084877</v>
+        <v>69.852513446506322</v>
       </c>
       <c r="G161" s="12">
-        <v>63.082505842500282</v>
+        <v>63.08248304806574</v>
       </c>
       <c r="H161" s="2">
-        <v>9.6918384920348242</v>
+        <v>9.6918923377397466</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -12362,22 +12364,22 @@
         <v>5</v>
       </c>
       <c r="C162" s="2">
-        <v>67.355641655843741</v>
+        <v>67.355298389673408</v>
       </c>
       <c r="D162" s="12">
-        <v>61.266246244596203</v>
+        <v>61.266369409325208</v>
       </c>
       <c r="E162" s="3">
-        <v>9.0406612743169301</v>
+        <v>9.0400148554337587</v>
       </c>
       <c r="F162" s="2">
-        <v>69.832454031139818</v>
+        <v>69.832342283840816</v>
       </c>
       <c r="G162" s="12">
-        <v>62.506808919723191</v>
+        <v>62.506852523903625</v>
       </c>
       <c r="H162" s="2">
-        <v>10.490316018609299</v>
+        <v>10.490110341941543</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -12388,22 +12390,22 @@
         <v>6</v>
       </c>
       <c r="C163" s="2">
-        <v>67.417619564975041</v>
+        <v>67.416513128778604</v>
       </c>
       <c r="D163" s="12">
-        <v>60.836567825313061</v>
+        <v>60.83540060521355</v>
       </c>
       <c r="E163" s="3">
-        <v>9.7616198586177578</v>
+        <v>9.7618702275418148</v>
       </c>
       <c r="F163" s="2">
-        <v>69.921703896646363</v>
+        <v>69.921503548019558</v>
       </c>
       <c r="G163" s="12">
-        <v>62.543202704281683</v>
+        <v>62.543172918926395</v>
       </c>
       <c r="H163" s="2">
-        <v>10.552519148090376</v>
+        <v>10.552305449247083</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -12414,22 +12416,22 @@
         <v>7</v>
       </c>
       <c r="C164" s="2">
-        <v>67.239378483923232</v>
+        <v>67.239287890465704</v>
       </c>
       <c r="D164" s="12">
-        <v>60.980205147487801</v>
+        <v>60.980185329901119</v>
       </c>
       <c r="E164" s="3">
-        <v>9.3087911839220627</v>
+        <v>9.3086984662312382</v>
       </c>
       <c r="F164" s="2">
-        <v>69.661331902401713</v>
+        <v>69.661101623615522</v>
       </c>
       <c r="G164" s="12">
-        <v>62.483635724702737</v>
+        <v>62.483449353139044</v>
       </c>
       <c r="H164" s="2">
-        <v>10.303702185532737</v>
+        <v>10.30367321673708</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -12440,22 +12442,22 @@
         <v>8</v>
       </c>
       <c r="C165" s="2">
-        <v>67.693812650712943</v>
+        <v>67.694249492911624</v>
       </c>
       <c r="D165" s="12">
-        <v>61.360974556444383</v>
+        <v>61.361463138486016</v>
       </c>
       <c r="E165" s="3">
-        <v>9.35512101666483</v>
+        <v>9.3549842148537596</v>
       </c>
       <c r="F165" s="2">
-        <v>69.836128976573235</v>
+        <v>69.835809910436197</v>
       </c>
       <c r="G165" s="12">
-        <v>62.680489640098799</v>
+        <v>62.681016199791387</v>
       </c>
       <c r="H165" s="2">
-        <v>10.246328714575249</v>
+        <v>10.245164650944506</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -12466,22 +12468,22 @@
         <v>9</v>
       </c>
       <c r="C166" s="2">
-        <v>67.776810942781651</v>
+        <v>67.777500499676336</v>
       </c>
       <c r="D166" s="12">
-        <v>61.603602813514932</v>
+        <v>61.604330489264257</v>
       </c>
       <c r="E166" s="3">
-        <v>9.1081419196283004</v>
+        <v>9.1079930137606162</v>
       </c>
       <c r="F166" s="2">
-        <v>71.062768708809628</v>
+        <v>71.063335019556845</v>
       </c>
       <c r="G166" s="12">
-        <v>63.883120907632765</v>
+        <v>63.884026208686549</v>
       </c>
       <c r="H166" s="2">
-        <v>10.103248060312085</v>
+        <v>10.102690520919866</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -12492,22 +12494,22 @@
         <v>10</v>
       </c>
       <c r="C167" s="2">
-        <v>67.746326407443661</v>
+        <v>67.746970823109052</v>
       </c>
       <c r="D167" s="12">
-        <v>61.484329209992126</v>
+        <v>61.485013243318839</v>
       </c>
       <c r="E167" s="3">
-        <v>9.2433014888368739</v>
+        <v>9.2431550868016057</v>
       </c>
       <c r="F167" s="2">
-        <v>70.228016211119325</v>
+        <v>70.229412893890327</v>
       </c>
       <c r="G167" s="12">
-        <v>63.213394371666112</v>
+        <v>63.214833887812226</v>
       </c>
       <c r="H167" s="2">
-        <v>9.988352537776187</v>
+        <v>9.9880929044308591</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -12518,22 +12520,22 @@
         <v>11</v>
       </c>
       <c r="C168" s="2">
-        <v>67.634907730475391</v>
+        <v>67.635482814912535</v>
       </c>
       <c r="D168" s="12">
-        <v>61.292292788519333</v>
+        <v>61.292103052071582</v>
       </c>
       <c r="E168" s="3">
-        <v>9.3777239517075124</v>
+        <v>9.3787750139965684</v>
       </c>
       <c r="F168" s="2">
-        <v>69.904527143477949</v>
+        <v>69.904945800338695</v>
       </c>
       <c r="G168" s="12">
-        <v>62.781776080237087</v>
+        <v>62.782608891826598</v>
       </c>
       <c r="H168" s="2">
-        <v>10.18925576682827</v>
+        <v>10.188602289821942</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -12544,22 +12546,22 @@
         <v>12</v>
       </c>
       <c r="C169" s="2">
-        <v>66.925237954262769</v>
+        <v>66.925139103088696</v>
       </c>
       <c r="D169" s="12">
-        <v>60.520724018609627</v>
+        <v>60.52075711321654</v>
       </c>
       <c r="E169" s="3">
-        <v>9.5696543358277406</v>
+        <v>9.5694713163122493</v>
       </c>
       <c r="F169" s="2">
-        <v>69.767386878799599</v>
+        <v>69.767251044639039</v>
       </c>
       <c r="G169" s="12">
-        <v>62.734828937803456</v>
+        <v>62.735284095899623</v>
       </c>
       <c r="H169" s="2">
-        <v>10.080007659184874</v>
+        <v>10.079180193354862</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -12570,22 +12572,22 @@
         <v>1</v>
       </c>
       <c r="C170" s="2">
-        <v>67.03241617243755</v>
+        <v>67.03238258736657</v>
       </c>
       <c r="D170" s="12">
-        <v>61.029363239712033</v>
+        <v>61.029063477434455</v>
       </c>
       <c r="E170" s="3">
-        <v>8.9554476408592549</v>
+        <v>8.9558492152769489</v>
       </c>
       <c r="F170" s="2">
-        <v>69.944196630183697</v>
+        <v>69.946795456333419</v>
       </c>
       <c r="G170" s="12">
-        <v>63.090197020152431</v>
+        <v>63.086875636233877</v>
       </c>
       <c r="H170" s="2">
-        <v>9.799239880143956</v>
+        <v>9.8073396720255346</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -12596,22 +12598,22 @@
         <v>2</v>
       </c>
       <c r="C171" s="2">
-        <v>67.233157631609018</v>
+        <v>67.234372761101383</v>
       </c>
       <c r="D171" s="12">
-        <v>61.321834011134634</v>
+        <v>61.323135969866584</v>
       </c>
       <c r="E171" s="3">
-        <v>8.7922742716686422</v>
+        <v>8.79198622442531</v>
       </c>
       <c r="F171" s="2">
-        <v>69.868018003824915</v>
+        <v>69.86433092012561</v>
       </c>
       <c r="G171" s="12">
-        <v>63.306819051554463</v>
+        <v>63.30491731892419</v>
       </c>
       <c r="H171" s="2">
-        <v>9.3908474001813769</v>
+        <v>9.3887875469682118</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -12622,22 +12624,22 @@
         <v>3</v>
       </c>
       <c r="C172" s="2">
-        <v>67.610233636269172</v>
+        <v>67.609456718221196</v>
       </c>
       <c r="D172" s="12">
-        <v>61.585103236264601</v>
+        <v>61.584585006415061</v>
       </c>
       <c r="E172" s="3">
-        <v>8.9115657141767475</v>
+        <v>8.9112854979980707</v>
       </c>
       <c r="F172" s="2">
-        <v>69.970688930014717</v>
+        <v>69.970378709743969</v>
       </c>
       <c r="G172" s="12">
-        <v>62.992889757804107</v>
+        <v>62.993007921909907</v>
       </c>
       <c r="H172" s="2">
-        <v>9.9724602957530806</v>
+        <v>9.9718922728403285</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -12648,22 +12650,22 @@
         <v>4</v>
       </c>
       <c r="C173" s="2">
-        <v>67.841488068550944</v>
+        <v>67.839051111304087</v>
       </c>
       <c r="D173" s="12">
-        <v>61.204181057646892</v>
+        <v>61.202092436979406</v>
       </c>
       <c r="E173" s="3">
-        <v>9.7835516287575182</v>
+        <v>9.7833896046620428</v>
       </c>
       <c r="F173" s="2">
-        <v>70.234540313844633</v>
+        <v>70.234560192852115</v>
       </c>
       <c r="G173" s="12">
-        <v>62.568939843575663</v>
+        <v>62.569194486860013</v>
       </c>
       <c r="H173" s="2">
-        <v>10.914288661981765</v>
+        <v>10.913951315341496</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -12674,22 +12676,22 @@
         <v>5</v>
       </c>
       <c r="C174" s="2">
-        <v>67.648847069588371</v>
+        <v>67.648518720490287</v>
       </c>
       <c r="D174" s="12">
-        <v>61.432775963722527</v>
+        <v>61.433071516973612</v>
       </c>
       <c r="E174" s="3">
-        <v>9.1887317746473087</v>
+        <v>9.1878541039421968</v>
       </c>
       <c r="F174" s="2">
-        <v>69.570059638262165</v>
+        <v>69.569972639883915</v>
       </c>
       <c r="G174" s="12">
-        <v>62.551238413781327</v>
+        <v>62.551517543548641</v>
       </c>
       <c r="H174" s="2">
-        <v>10.088853252356023</v>
+        <v>10.088339595395567</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -12700,22 +12702,22 @@
         <v>6</v>
       </c>
       <c r="C175" s="2">
-        <v>66.997846683115853</v>
+        <v>66.996132471509824</v>
       </c>
       <c r="D175" s="12">
-        <v>61.039892524375141</v>
+        <v>61.037993256246224</v>
       </c>
       <c r="E175" s="3">
-        <v>8.8927546984016441</v>
+        <v>8.8932584545791684</v>
       </c>
       <c r="F175" s="2">
-        <v>69.002051294029982</v>
+        <v>69.000775218159433</v>
       </c>
       <c r="G175" s="12">
-        <v>62.348340550021994</v>
+        <v>62.34763569606676</v>
       </c>
       <c r="H175" s="2">
-        <v>9.6427723802809098</v>
+        <v>9.6421228617467918</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -12726,22 +12728,22 @@
         <v>7</v>
       </c>
       <c r="C176" s="2">
-        <v>67.464364444912519</v>
+        <v>67.463734196058923</v>
       </c>
       <c r="D176" s="12">
-        <v>61.476736569641922</v>
+        <v>61.476078744372522</v>
       </c>
       <c r="E176" s="3">
-        <v>8.8752453603260975</v>
+        <v>8.8753691491275042</v>
       </c>
       <c r="F176" s="2">
-        <v>69.282822536893633</v>
+        <v>69.282756094274717</v>
       </c>
       <c r="G176" s="12">
-        <v>62.776449135502197</v>
+        <v>62.776517458813331</v>
       </c>
       <c r="H176" s="2">
-        <v>9.3910339722761016</v>
+        <v>9.390848462506586</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -12752,22 +12754,22 @@
         <v>8</v>
       </c>
       <c r="C177" s="2">
-        <v>67.40493732126663</v>
+        <v>67.4046226443742</v>
       </c>
       <c r="D177" s="12">
-        <v>61.00837769553015</v>
+        <v>61.008043335526942</v>
       </c>
       <c r="E177" s="3">
-        <v>9.4897493862342372</v>
+        <v>9.4898228903313022</v>
       </c>
       <c r="F177" s="2">
-        <v>69.94001313606276</v>
+        <v>69.939334273670013</v>
       </c>
       <c r="G177" s="12">
-        <v>62.462995551477718</v>
+        <v>62.463311247625541</v>
       </c>
       <c r="H177" s="2">
-        <v>10.690615070430569</v>
+        <v>10.68929680798945</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -12778,22 +12780,22 @@
         <v>9</v>
       </c>
       <c r="C178" s="2">
-        <v>67.598492962075056</v>
+        <v>67.60328586842806</v>
       </c>
       <c r="D178" s="12">
-        <v>61.154517553472751</v>
+        <v>61.158906938327299</v>
       </c>
       <c r="E178" s="3">
-        <v>9.5327205182186407</v>
+        <v>9.5326415681081667</v>
       </c>
       <c r="F178" s="2">
-        <v>69.198302420264241</v>
+        <v>69.19894942136618</v>
       </c>
       <c r="G178" s="12">
-        <v>62.008631079407138</v>
+        <v>62.009783659428763</v>
       </c>
       <c r="H178" s="2">
-        <v>10.389953350577661</v>
+        <v>10.38912558940911</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -12804,22 +12806,22 @@
         <v>10</v>
       </c>
       <c r="C179" s="2">
-        <v>67.743282408317057</v>
+        <v>67.743187260699983</v>
       </c>
       <c r="D179" s="12">
-        <v>61.303171200507791</v>
+        <v>61.303262578871987</v>
       </c>
       <c r="E179" s="3">
-        <v>9.5066418083966351</v>
+        <v>9.5063798180101227</v>
       </c>
       <c r="F179" s="2">
-        <v>69.687882724430452</v>
+        <v>69.689305205220464</v>
       </c>
       <c r="G179" s="12">
-        <v>62.594189382433875</v>
+        <v>62.595775639759324</v>
       </c>
       <c r="H179" s="2">
-        <v>10.179234989886906</v>
+        <v>10.178792204301899</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -12830,22 +12832,22 @@
         <v>11</v>
       </c>
       <c r="C180" s="2">
-        <v>67.686854522412148</v>
+        <v>67.687420873327824</v>
       </c>
       <c r="D180" s="12">
-        <v>61.615900385824339</v>
+        <v>61.615412026138486</v>
       </c>
       <c r="E180" s="3">
-        <v>8.9691775152258284</v>
+        <v>8.9706606764537256</v>
       </c>
       <c r="F180" s="2">
-        <v>69.800456110211002</v>
+        <v>69.801474516932828</v>
       </c>
       <c r="G180" s="12">
-        <v>63.020335456573385</v>
+        <v>63.021617982022669</v>
       </c>
       <c r="H180" s="2">
-        <v>9.7135764312659738</v>
+        <v>9.7130563241403447</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -12856,22 +12858,22 @@
         <v>12</v>
       </c>
       <c r="C181" s="2">
-        <v>67.443632329960877</v>
+        <v>67.443367456902067</v>
       </c>
       <c r="D181" s="12">
-        <v>61.126075103961611</v>
+        <v>61.126269887108144</v>
       </c>
       <c r="E181" s="3">
-        <v>9.367166339872222</v>
+        <v>9.3665215839507105</v>
       </c>
       <c r="F181" s="2">
-        <v>68.879422214767217</v>
+        <v>68.879794614450446</v>
       </c>
       <c r="G181" s="12">
-        <v>61.621889166582363</v>
+        <v>61.622685381058382</v>
       </c>
       <c r="H181" s="2">
-        <v>10.536576549024678</v>
+        <v>10.535904286610027</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -12882,22 +12884,22 @@
         <v>1</v>
       </c>
       <c r="C182" s="2">
-        <v>67.591502830604213</v>
+        <v>67.590905140873332</v>
       </c>
       <c r="D182" s="12">
-        <v>60.866309332441318</v>
+        <v>60.865699301313214</v>
       </c>
       <c r="E182" s="3">
-        <v>9.9497617548427151</v>
+        <v>9.9498679970972468</v>
       </c>
       <c r="F182" s="2">
-        <v>69.884982513054339</v>
+        <v>69.887989012927491</v>
       </c>
       <c r="G182" s="12">
-        <v>61.501840018570284</v>
+        <v>61.49816857280149</v>
       </c>
       <c r="H182" s="2">
-        <v>11.995627948991908</v>
+        <v>12.004667123236445</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -12908,22 +12910,22 @@
         <v>2</v>
       </c>
       <c r="C183" s="2">
-        <v>67.232355047860409</v>
+        <v>67.234369663883243</v>
       </c>
       <c r="D183" s="12">
-        <v>61.199090652450636</v>
+        <v>61.201192004202078</v>
       </c>
       <c r="E183" s="3">
-        <v>8.9737513896618566</v>
+        <v>8.9733534944138</v>
       </c>
       <c r="F183" s="2">
-        <v>70.215332407819758</v>
+        <v>70.211602746735352</v>
       </c>
       <c r="G183" s="12">
-        <v>63.327737087050437</v>
+        <v>63.326033510890603</v>
       </c>
       <c r="H183" s="2">
-        <v>9.8092469046009629</v>
+        <v>9.8068822907833457</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -12934,22 +12936,22 @@
         <v>3</v>
       </c>
       <c r="C184" s="2">
-        <v>66.877819794870973</v>
+        <v>66.876571215619734</v>
       </c>
       <c r="D184" s="12">
-        <v>60.060539393651126</v>
+        <v>60.059627763794943</v>
       </c>
       <c r="E184" s="3">
-        <v>10.193634335165157</v>
+        <v>10.193320811627713</v>
       </c>
       <c r="F184" s="2">
-        <v>68.725807364672775</v>
+        <v>68.724637036629758</v>
       </c>
       <c r="G184" s="12">
-        <v>61.815899873422374</v>
+        <v>61.815494911933968</v>
       </c>
       <c r="H184" s="2">
-        <v>10.054312573710558</v>
+        <v>10.05337011967522</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -12960,22 +12962,22 @@
         <v>4</v>
       </c>
       <c r="C185" s="2">
-        <v>67.174218951301086</v>
+        <v>67.170126151687811</v>
       </c>
       <c r="D185" s="12">
-        <v>60.841843153724881</v>
+        <v>60.838508279474368</v>
       </c>
       <c r="E185" s="3">
-        <v>9.4267948275914275</v>
+        <v>9.4262408528383403</v>
       </c>
       <c r="F185" s="2">
-        <v>68.954192472338633</v>
+        <v>68.953656948634887</v>
       </c>
       <c r="G185" s="12">
-        <v>62.394753678862223</v>
+        <v>62.394974256178401</v>
       </c>
       <c r="H185" s="2">
-        <v>9.5127483308687264</v>
+        <v>9.5117256759016975</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -12986,22 +12988,22 @@
         <v>5</v>
       </c>
       <c r="C186" s="2">
-        <v>66.468067582219405</v>
+        <v>66.46762755147391</v>
       </c>
       <c r="D186" s="12">
-        <v>60.394816137226258</v>
+        <v>60.39513899799973</v>
       </c>
       <c r="E186" s="3">
-        <v>9.1370964523388434</v>
+        <v>9.1360091779588721</v>
       </c>
       <c r="F186" s="2">
-        <v>67.512184024080952</v>
+        <v>67.511768940693216</v>
       </c>
       <c r="G186" s="12">
-        <v>60.988016590101367</v>
+        <v>60.988345863828982</v>
       </c>
       <c r="H186" s="2">
-        <v>9.6636889004397659</v>
+        <v>9.662645756764034</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -13012,22 +13014,22 @@
         <v>6</v>
       </c>
       <c r="C187" s="2">
-        <v>66.934481205256489</v>
+        <v>66.93212776906347</v>
       </c>
       <c r="D187" s="12">
-        <v>60.499745219743986</v>
+        <v>60.496433064475539</v>
       </c>
       <c r="E187" s="3">
-        <v>9.6134845144764967</v>
+        <v>9.6152549143410848</v>
       </c>
       <c r="F187" s="2">
-        <v>68.719215960365858</v>
+        <v>68.716800640290955</v>
       </c>
       <c r="G187" s="12">
-        <v>61.648065484076234</v>
+        <v>61.646494458667654</v>
       </c>
       <c r="H187" s="2">
-        <v>10.289917277822196</v>
+        <v>10.289050298825682</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -13038,22 +13040,22 @@
         <v>7</v>
       </c>
       <c r="C188" s="2">
-        <v>66.542040608806175</v>
+        <v>66.540810816497995</v>
       </c>
       <c r="D188" s="12">
-        <v>59.976384544292117</v>
+        <v>59.975013045475286</v>
       </c>
       <c r="E188" s="3">
-        <v>9.8669292441944663</v>
+        <v>9.8673245643631322</v>
       </c>
       <c r="F188" s="2">
-        <v>68.367582284418361</v>
+        <v>68.367735744279344</v>
       </c>
       <c r="G188" s="12">
-        <v>60.986803494065633</v>
+        <v>60.986978805876866</v>
       </c>
       <c r="H188" s="2">
-        <v>10.795728828975827</v>
+        <v>10.795672634251401</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -13064,22 +13066,22 @@
         <v>8</v>
       </c>
       <c r="C189" s="2">
-        <v>66.675166048188075</v>
+        <v>66.67479132866471</v>
       </c>
       <c r="D189" s="12">
-        <v>60.40308690420111</v>
+        <v>60.402560621204252</v>
       </c>
       <c r="E189" s="3">
-        <v>9.4069194210239342</v>
+        <v>9.4071996064334265</v>
       </c>
       <c r="F189" s="2">
-        <v>68.457797707690332</v>
+        <v>68.456521187630486</v>
       </c>
       <c r="G189" s="12">
-        <v>61.209719865245283</v>
+        <v>61.209723996651334</v>
       </c>
       <c r="H189" s="2">
-        <v>10.587658506622997</v>
+        <v>10.585985184839611</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -13090,22 +13092,22 @@
         <v>9</v>
       </c>
       <c r="C190" s="2">
-        <v>66.555173264317787</v>
+        <v>66.564371493099472</v>
       </c>
       <c r="D190" s="12">
-        <v>60.379445304328328</v>
+        <v>60.387534292684187</v>
       </c>
       <c r="E190" s="3">
-        <v>9.2791103337123442</v>
+        <v>9.2794945131505013</v>
       </c>
       <c r="F190" s="2">
-        <v>68.527729713035299</v>
+        <v>68.528588326484879</v>
       </c>
       <c r="G190" s="12">
-        <v>61.750006337766429</v>
+        <v>61.75134507361836</v>
       </c>
       <c r="H190" s="2">
-        <v>9.8904828799247593</v>
+        <v>9.8896583431403684</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -13116,22 +13118,22 @@
         <v>10</v>
       </c>
       <c r="C191" s="2">
-        <v>66.861713513514445</v>
+        <v>66.861066038235919</v>
       </c>
       <c r="D191" s="12">
-        <v>60.418706944424748</v>
+        <v>60.418375594334314</v>
       </c>
       <c r="E191" s="3">
-        <v>9.6363168553665552</v>
+        <v>9.6359373633337135</v>
       </c>
       <c r="F191" s="2">
-        <v>68.701795515495277</v>
+        <v>68.703830025689143</v>
       </c>
       <c r="G191" s="12">
-        <v>61.575452118262398</v>
+        <v>61.577511671732054</v>
       </c>
       <c r="H191" s="2">
-        <v>10.372863392814205</v>
+        <v>10.372519772613087</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -13142,22 +13144,22 @@
         <v>11</v>
       </c>
       <c r="C192" s="2">
-        <v>66.801570912363815</v>
+        <v>66.802065967060827</v>
       </c>
       <c r="D192" s="12">
-        <v>60.618980296466773</v>
+        <v>60.618457129097557</v>
       </c>
       <c r="E192" s="3">
-        <v>9.2551575231784735</v>
+        <v>9.2566131727307912</v>
       </c>
       <c r="F192" s="2">
-        <v>68.490277307735127</v>
+        <v>68.49231133548615</v>
       </c>
       <c r="G192" s="12">
-        <v>61.529548808317273</v>
+        <v>61.531418657328359</v>
       </c>
       <c r="H192" s="2">
-        <v>10.163089964057907</v>
+        <v>10.163027852954503</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -13168,22 +13170,22 @@
         <v>12</v>
       </c>
       <c r="C193" s="2">
-        <v>66.742488344637607</v>
+        <v>66.741700325931461</v>
       </c>
       <c r="D193" s="12">
-        <v>60.252416353658276</v>
+        <v>60.25280931577587</v>
       </c>
       <c r="E193" s="3">
-        <v>9.7240485812674464</v>
+        <v>9.7223939133513948</v>
       </c>
       <c r="F193" s="2">
-        <v>68.569985767356371</v>
+        <v>68.571281568539121</v>
       </c>
       <c r="G193" s="12">
-        <v>61.307994638450822</v>
+        <v>61.309263184077501</v>
       </c>
       <c r="H193" s="2">
-        <v>10.590626565891311</v>
+        <v>10.590466181097998</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -13194,22 +13196,22 @@
         <v>1</v>
       </c>
       <c r="C194" s="2">
-        <v>66.694980410114454</v>
+        <v>66.693461428112712</v>
       </c>
       <c r="D194" s="12">
-        <v>60.246056401858574</v>
+        <v>60.245066926082082</v>
       </c>
       <c r="E194" s="3">
-        <v>9.6692794099357435</v>
+        <v>9.6687056931078494</v>
       </c>
       <c r="F194" s="2">
-        <v>68.877785322403412</v>
+        <v>68.881305566672935</v>
       </c>
       <c r="G194" s="12">
-        <v>61.162069717598492</v>
+        <v>61.158619879790642</v>
       </c>
       <c r="H194" s="2">
-        <v>11.202037883025946</v>
+        <v>11.21158436726666</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -13220,22 +13222,22 @@
         <v>2</v>
       </c>
       <c r="C195" s="2">
-        <v>66.691672535754293</v>
+        <v>66.694581797878641</v>
       </c>
       <c r="D195" s="12">
-        <v>60.351061245087998</v>
+        <v>60.354202335560473</v>
       </c>
       <c r="E195" s="3">
-        <v>9.507350842441376</v>
+        <v>9.5065885284849987</v>
       </c>
       <c r="F195" s="2">
-        <v>68.282898999506443</v>
+        <v>68.280140688259422</v>
       </c>
       <c r="G195" s="12">
-        <v>61.111323927330574</v>
+        <v>61.11027936916085</v>
       </c>
       <c r="H195" s="2">
-        <v>10.502739598428169</v>
+        <v>10.500653992254328</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -13246,22 +13248,22 @@
         <v>3</v>
       </c>
       <c r="C196" s="2">
-        <v>66.440427311109843</v>
+        <v>66.437867701671351</v>
       </c>
       <c r="D196" s="12">
-        <v>60.056013644588091</v>
+        <v>60.053930231642447</v>
       </c>
       <c r="E196" s="3">
-        <v>9.6092302908084619</v>
+        <v>9.6088837448771578</v>
       </c>
       <c r="F196" s="2">
-        <v>67.960367678679887</v>
+        <v>67.955528392695243</v>
       </c>
       <c r="G196" s="12">
-        <v>60.747407227739004</v>
+        <v>60.74499472105942</v>
       </c>
       <c r="H196" s="2">
-        <v>10.613480617179917</v>
+        <v>10.610665301531087</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -13272,22 +13274,22 @@
         <v>4</v>
       </c>
       <c r="C197" s="2">
-        <v>66.670128352801271</v>
+        <v>66.664529460393553</v>
       </c>
       <c r="D197" s="12">
-        <v>60.498787075419791</v>
+        <v>60.494150728290975</v>
       </c>
       <c r="E197" s="3">
-        <v>9.2565312679830427</v>
+        <v>9.2558648235393211</v>
       </c>
       <c r="F197" s="2">
-        <v>68.46005329683716</v>
+        <v>68.459403011453745</v>
       </c>
       <c r="G197" s="12">
-        <v>60.83360253534287</v>
+        <v>60.834336899053454</v>
       </c>
       <c r="H197" s="2">
-        <v>11.140001203952657</v>
+        <v>11.138084436880886</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -13298,22 +13300,22 @@
         <v>5</v>
       </c>
       <c r="C198" s="2">
-        <v>66.505240276847545</v>
+        <v>66.505007888123018</v>
       </c>
       <c r="D198" s="12">
-        <v>60.069340290781938</v>
+        <v>60.069881466048656</v>
       </c>
       <c r="E198" s="3">
-        <v>9.6772825107830514</v>
+        <v>9.6761531596233379</v>
       </c>
       <c r="F198" s="2">
-        <v>67.890703924857462</v>
+        <v>67.889735065048512</v>
       </c>
       <c r="G198" s="12">
-        <v>60.477664824323028</v>
+        <v>60.477864573934184</v>
       </c>
       <c r="H198" s="2">
-        <v>10.919078271362894</v>
+        <v>10.917512763914399</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -13324,22 +13326,22 @@
         <v>6</v>
       </c>
       <c r="C199" s="2">
-        <v>67.012627770081224</v>
+        <v>67.00996303085789</v>
       </c>
       <c r="D199" s="12">
-        <v>60.716201101102143</v>
+        <v>60.711945608593766</v>
       </c>
       <c r="E199" s="3">
-        <v>9.3958808638007199</v>
+        <v>9.3986284089783876</v>
       </c>
       <c r="F199" s="2">
-        <v>68.411191356942354</v>
+        <v>68.407770634574049</v>
       </c>
       <c r="G199" s="12">
-        <v>60.867990715512221</v>
+        <v>60.865448527171232</v>
       </c>
       <c r="H199" s="2">
-        <v>11.026267035860721</v>
+        <v>11.025534142448508</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -13350,22 +13352,22 @@
         <v>7</v>
       </c>
       <c r="C200" s="2">
-        <v>66.421758198771812</v>
+        <v>66.419634700285101</v>
       </c>
       <c r="D200" s="12">
-        <v>60.037775085515712</v>
+        <v>60.035305686596544</v>
       </c>
       <c r="E200" s="3">
-        <v>9.6112829385689977</v>
+        <v>9.6121110007567623</v>
       </c>
       <c r="F200" s="2">
-        <v>67.591726896178756</v>
+        <v>67.592236313488343</v>
       </c>
       <c r="G200" s="12">
-        <v>59.635558942489098</v>
+        <v>59.635643802405582</v>
       </c>
       <c r="H200" s="2">
-        <v>11.77091978417768</v>
+        <v>11.771459186792706</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -13376,22 +13378,22 @@
         <v>8</v>
       </c>
       <c r="C201" s="2">
-        <v>66.488482960363086</v>
+        <v>66.487986930493562</v>
       </c>
       <c r="D201" s="12">
-        <v>60.021994522527145</v>
+        <v>60.020306500628941</v>
       </c>
       <c r="E201" s="3">
-        <v>9.7257271484009014</v>
+        <v>9.7275924997186802</v>
       </c>
       <c r="F201" s="2">
-        <v>68.321094960383306</v>
+        <v>68.318801441500483</v>
       </c>
       <c r="G201" s="12">
-        <v>60.910167933168033</v>
+        <v>60.909620330973709</v>
       </c>
       <c r="H201" s="2">
-        <v>10.847201777888035</v>
+        <v>10.84501038395859</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -13402,22 +13404,22 @@
         <v>9</v>
       </c>
       <c r="C202" s="2">
-        <v>66.209752856155575</v>
+        <v>66.222490572407807</v>
       </c>
       <c r="D202" s="12">
-        <v>59.617825867910398</v>
+        <v>59.628746396285123</v>
       </c>
       <c r="E202" s="3">
-        <v>9.9561268602927893</v>
+        <v>9.9569558908586693</v>
       </c>
       <c r="F202" s="2">
-        <v>67.926520452712964</v>
+        <v>67.927177889616502</v>
       </c>
       <c r="G202" s="12">
-        <v>60.217485384292416</v>
+        <v>60.218321713641522</v>
       </c>
       <c r="H202" s="2">
-        <v>11.349079883735822</v>
+        <v>11.348706681885226</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -13428,22 +13430,22 @@
         <v>10</v>
       </c>
       <c r="C203" s="2">
-        <v>66.065641043952141</v>
+        <v>66.06619228003666</v>
       </c>
       <c r="D203" s="12">
-        <v>59.66807954359362</v>
+        <v>59.668898792918114</v>
       </c>
       <c r="E203" s="3">
-        <v>9.6836440232258543</v>
+        <v>9.6831575520534958</v>
       </c>
       <c r="F203" s="2">
-        <v>67.190378813346314</v>
+        <v>67.194543243891772</v>
       </c>
       <c r="G203" s="12">
-        <v>59.994930870707762</v>
+        <v>59.998801830980696</v>
       </c>
       <c r="H203" s="2">
-        <v>10.709045059304364</v>
+        <v>10.708818105650552</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -13454,22 +13456,22 @@
         <v>11</v>
       </c>
       <c r="C204" s="2">
-        <v>66.068472203202717</v>
+        <v>66.068054239285118</v>
       </c>
       <c r="D204" s="12">
-        <v>59.263670504938304</v>
+        <v>59.262965946045256</v>
       </c>
       <c r="E204" s="3">
-        <v>10.299620183943867</v>
+        <v>10.300119129576943</v>
       </c>
       <c r="F204" s="2">
-        <v>67.301373540245805</v>
+        <v>67.304706561665057</v>
       </c>
       <c r="G204" s="12">
-        <v>59.731566129106895</v>
+        <v>59.733993103533912</v>
       </c>
       <c r="H204" s="2">
-        <v>11.247626924898091</v>
+        <v>11.248416113655894</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -13480,22 +13482,22 @@
         <v>12</v>
       </c>
       <c r="C205" s="2">
-        <v>66.005860277478135</v>
+        <v>66.005163713924915</v>
       </c>
       <c r="D205" s="12">
-        <v>59.645942111849813</v>
+        <v>59.647204299299574</v>
       </c>
       <c r="E205" s="3">
-        <v>9.6353840990667248</v>
+        <v>9.6325182105169525</v>
       </c>
       <c r="F205" s="2">
-        <v>67.144395458841245</v>
+        <v>67.147017087148527</v>
       </c>
       <c r="G205" s="12">
-        <v>60.02945946773017</v>
+        <v>60.031191436390294</v>
       </c>
       <c r="H205" s="2">
-        <v>10.596470401572745</v>
+        <v>10.597381625341249</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -13506,22 +13508,22 @@
         <v>1</v>
       </c>
       <c r="C206" s="2">
-        <v>65.794793065742823</v>
+        <v>65.791501592751203</v>
       </c>
       <c r="D206" s="12">
-        <v>59.338390541178356</v>
+        <v>59.336372709632933</v>
       </c>
       <c r="E206" s="3">
-        <v>9.8129384161345019</v>
+        <v>9.811493470806381</v>
       </c>
       <c r="F206" s="2">
-        <v>66.781301100234913</v>
+        <v>66.784692181456023</v>
       </c>
       <c r="G206" s="12">
-        <v>59.192090563105737</v>
+        <v>59.189109571731521</v>
       </c>
       <c r="H206" s="2">
-        <v>11.364274747714482</v>
+        <v>11.373238928895669</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -13532,22 +13534,22 @@
         <v>2</v>
       </c>
       <c r="C207" s="2">
-        <v>65.362254420656313</v>
+        <v>65.364673859104542</v>
       </c>
       <c r="D207" s="12">
-        <v>58.926072949160812</v>
+        <v>58.928612884687034</v>
       </c>
       <c r="E207" s="3">
-        <v>9.846939228983338</v>
+        <v>9.8463904039215695</v>
       </c>
       <c r="F207" s="2">
-        <v>66.976639779409211</v>
+        <v>66.975416818931606</v>
       </c>
       <c r="G207" s="12">
-        <v>59.410102376680364</v>
+        <v>59.408819452210935</v>
       </c>
       <c r="H207" s="2">
-        <v>11.297278316215326</v>
+        <v>11.297574134069231</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -13558,22 +13560,22 @@
         <v>3</v>
       </c>
       <c r="C208" s="2">
-        <v>65.674874411461246</v>
+        <v>65.671732773186079</v>
       </c>
       <c r="D208" s="12">
-        <v>59.459739483196806</v>
+        <v>59.456544497329531</v>
       </c>
       <c r="E208" s="3">
-        <v>9.4634896282037104</v>
+        <v>9.4640235812297906</v>
       </c>
       <c r="F208" s="2">
-        <v>67.688958154026707</v>
+        <v>67.678606409628301</v>
       </c>
       <c r="G208" s="12">
-        <v>60.474892175052084</v>
+        <v>60.47126594347997</v>
       </c>
       <c r="H208" s="2">
-        <v>10.657670284360062</v>
+        <v>10.649362994452812</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -13584,22 +13586,22 @@
         <v>4</v>
       </c>
       <c r="C209" s="2">
-        <v>66.017057029078529</v>
+        <v>66.011779574737389</v>
       </c>
       <c r="D209" s="12">
-        <v>59.548128664020652</v>
+        <v>59.543520740882016</v>
       </c>
       <c r="E209" s="3">
-        <v>9.7988741942987634</v>
+        <v>9.7986433262750143</v>
       </c>
       <c r="F209" s="2">
-        <v>67.061363894239022</v>
+        <v>67.059115950981891</v>
       </c>
       <c r="G209" s="12">
-        <v>59.686138831614159</v>
+        <v>59.685100301860807</v>
       </c>
       <c r="H209" s="2">
-        <v>10.99772601442489</v>
+        <v>10.996291174657397</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -13610,22 +13612,22 @@
         <v>5</v>
       </c>
       <c r="C210" s="2">
-        <v>65.950954178139099</v>
+        <v>65.949976634915302</v>
       </c>
       <c r="D210" s="12">
-        <v>59.518599217269205</v>
+        <v>59.517953756681344</v>
       </c>
       <c r="E210" s="3">
-        <v>9.75324017829303</v>
+        <v>9.7528812084956904</v>
       </c>
       <c r="F210" s="2">
-        <v>68.063199717582904</v>
+        <v>68.060974209291714</v>
       </c>
       <c r="G210" s="12">
-        <v>60.735657392372723</v>
+        <v>60.73453619239173</v>
       </c>
       <c r="H210" s="2">
-        <v>10.765791728297563</v>
+        <v>10.764521228230933</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -13636,22 +13638,22 @@
         <v>6</v>
       </c>
       <c r="C211" s="2">
-        <v>65.715360776683582</v>
+        <v>65.712062563645375</v>
       </c>
       <c r="D211" s="12">
-        <v>59.329959149295419</v>
+        <v>59.324062301047285</v>
       </c>
       <c r="E211" s="3">
-        <v>9.7167565572488925</v>
+        <v>9.7211988383578749</v>
       </c>
       <c r="F211" s="2">
-        <v>66.671356331307024</v>
+        <v>66.667134240233523</v>
       </c>
       <c r="G211" s="12">
-        <v>59.151800088573481</v>
+        <v>59.147995997798176</v>
       </c>
       <c r="H211" s="2">
-        <v>11.278540975478204</v>
+        <v>11.278628259826352</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -13662,22 +13664,22 @@
         <v>7</v>
       </c>
       <c r="C212" s="2">
-        <v>65.801346081344192</v>
+        <v>65.799008266452461</v>
       </c>
       <c r="D212" s="12">
-        <v>59.386177105174895</v>
+        <v>59.382783936156372</v>
       </c>
       <c r="E212" s="3">
-        <v>9.7492974812989512</v>
+        <v>9.7512477761270393</v>
       </c>
       <c r="F212" s="2">
-        <v>67.570816663106456</v>
+        <v>67.569421662207631</v>
       </c>
       <c r="G212" s="12">
-        <v>60.585487897701782</v>
+        <v>60.583164331299166</v>
       </c>
       <c r="H212" s="2">
-        <v>10.337789463507633</v>
+        <v>10.339377131025476</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -13688,22 +13690,22 @@
         <v>8</v>
       </c>
       <c r="C213" s="2">
-        <v>65.89916419144798</v>
+        <v>65.899876571405883</v>
       </c>
       <c r="D213" s="12">
-        <v>59.54584664132102</v>
+        <v>59.544256752687176</v>
       </c>
       <c r="E213" s="3">
-        <v>9.6409683310542693</v>
+        <v>9.6443576974413201</v>
       </c>
       <c r="F213" s="2">
-        <v>66.772736392171495</v>
+        <v>66.769376078561251</v>
       </c>
       <c r="G213" s="12">
-        <v>59.487715614980964</v>
+        <v>59.486466537911994</v>
       </c>
       <c r="H213" s="2">
-        <v>10.910172580623248</v>
+        <v>10.907559675381934</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -13714,22 +13716,22 @@
         <v>9</v>
       </c>
       <c r="C214" s="2">
-        <v>66.064716226537286</v>
+        <v>66.077973004401471</v>
       </c>
       <c r="D214" s="12">
-        <v>59.390014338191001</v>
+        <v>59.400976355264476</v>
       </c>
       <c r="E214" s="3">
-        <v>10.103277921392396</v>
+        <v>10.104723776397075</v>
       </c>
       <c r="F214" s="2">
-        <v>67.651517392285626</v>
+        <v>67.65236205245985</v>
       </c>
       <c r="G214" s="12">
-        <v>60.052341904761249</v>
+        <v>60.053327975604361</v>
       </c>
       <c r="H214" s="2">
-        <v>11.232823416893382</v>
+        <v>11.23247414622853</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -13740,22 +13742,22 @@
         <v>10</v>
       </c>
       <c r="C215" s="2">
-        <v>65.24800551093746</v>
+        <v>65.252487041693456</v>
       </c>
       <c r="D215" s="12">
-        <v>58.538559532763102</v>
+        <v>58.541886969132584</v>
       </c>
       <c r="E215" s="3">
-        <v>10.282990147568041</v>
+        <v>10.284052573004764</v>
       </c>
       <c r="F215" s="2">
-        <v>66.647316166193988</v>
+        <v>66.65314430763587</v>
       </c>
       <c r="G215" s="12">
-        <v>58.982420062505334</v>
+        <v>58.987217113459408</v>
       </c>
       <c r="H215" s="2">
-        <v>11.500682314911531</v>
+        <v>11.501223646396296</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -13766,22 +13768,22 @@
         <v>11</v>
       </c>
       <c r="C216" s="2">
-        <v>64.280121397185354</v>
+        <v>64.28075768017824</v>
       </c>
       <c r="D216" s="12">
-        <v>57.530322310633878</v>
+        <v>57.528922391775083</v>
       </c>
       <c r="E216" s="3">
-        <v>10.500601025384844</v>
+        <v>10.503664754538477</v>
       </c>
       <c r="F216" s="2">
-        <v>66.045280897692692</v>
+        <v>66.051795629321191</v>
       </c>
       <c r="G216" s="12">
-        <v>58.514854258292516</v>
+        <v>58.519216205181912</v>
       </c>
       <c r="H216" s="2">
-        <v>11.401914772783202</v>
+        <v>11.404049431769691</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -13792,22 +13794,22 @@
         <v>12</v>
       </c>
       <c r="C217" s="2">
-        <v>66.268620335994768</v>
+        <v>66.265333087055339</v>
       </c>
       <c r="D217" s="12">
-        <v>59.081406328729948</v>
+        <v>59.087098520957106</v>
       </c>
       <c r="E217" s="3">
-        <v>10.845576640684921</v>
+        <v>10.832563923987083</v>
       </c>
       <c r="F217" s="2">
-        <v>66.862579713088408</v>
+        <v>66.870864665941951</v>
       </c>
       <c r="G217" s="12">
-        <v>59.031383583000249</v>
+        <v>59.03859485686629</v>
       </c>
       <c r="H217" s="2">
-        <v>11.71237508886483</v>
+        <v>11.712529586991751</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -13818,22 +13820,22 @@
         <v>1</v>
       </c>
       <c r="C218" s="2">
-        <v>65.431488307614202</v>
+        <v>65.425841158611391</v>
       </c>
       <c r="D218" s="12">
-        <v>58.398782251423107</v>
+        <v>58.393111583406643</v>
       </c>
       <c r="E218" s="3">
-        <v>10.748198211735788</v>
+        <v>10.749161876505871</v>
       </c>
       <c r="F218" s="2">
-        <v>66.576208544617941</v>
+        <v>66.577463610187849</v>
       </c>
       <c r="G218" s="12">
-        <v>58.945256746418252</v>
+        <v>58.939748154600103</v>
       </c>
       <c r="H218" s="2">
-        <v>11.461980135269487</v>
+        <v>11.471923142501627</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -13844,22 +13846,22 @@
         <v>2</v>
       </c>
       <c r="C219" s="2">
-        <v>65.595909034060583</v>
+        <v>65.599125620099684</v>
       </c>
       <c r="D219" s="12">
-        <v>58.510068095694514</v>
+        <v>58.511782159368245</v>
       </c>
       <c r="E219" s="3">
-        <v>10.802260449941713</v>
+        <v>10.80402123311209</v>
       </c>
       <c r="F219" s="2">
-        <v>66.484895703389412</v>
+        <v>66.48412953740943</v>
       </c>
       <c r="G219" s="12">
-        <v>58.582989986367963</v>
+        <v>58.57839610470544</v>
       </c>
       <c r="H219" s="2">
-        <v>11.885264515228251</v>
+        <v>11.891158818971331</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -13870,22 +13872,22 @@
         <v>3</v>
       </c>
       <c r="C220" s="2">
-        <v>65.377214252114186</v>
+        <v>65.372073190989155</v>
       </c>
       <c r="D220" s="12">
-        <v>58.289892886814535</v>
+        <v>58.284527523099548</v>
       </c>
       <c r="E220" s="3">
-        <v>10.840659771719254</v>
+        <v>10.841855431420758</v>
       </c>
       <c r="F220" s="2">
-        <v>66.916437575157332</v>
+        <v>66.897874349644908</v>
       </c>
       <c r="G220" s="12">
-        <v>58.882552527496415</v>
+        <v>58.877444223085909</v>
       </c>
       <c r="H220" s="2">
-        <v>12.005846902172047</v>
+        <v>11.98906572821709</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -13896,22 +13898,22 @@
         <v>4</v>
       </c>
       <c r="C221" s="2">
-        <v>63.957341424607627</v>
+        <v>63.951818016297757</v>
       </c>
       <c r="D221" s="12">
-        <v>57.14940017646186</v>
+        <v>57.144642299220138</v>
       </c>
       <c r="E221" s="3">
-        <v>10.644503189944048</v>
+        <v>10.644225493859844</v>
       </c>
       <c r="F221" s="2">
-        <v>66.304230293966057</v>
+        <v>66.300499958419266</v>
       </c>
       <c r="G221" s="12">
-        <v>58.774144896466282</v>
+        <v>58.771135973253529</v>
       </c>
       <c r="H221" s="2">
-        <v>11.356870239069865</v>
+        <v>11.356421127876599</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -13922,22 +13924,22 @@
         <v>5</v>
       </c>
       <c r="C222" s="2">
-        <v>64.746967808466096</v>
+        <v>64.743738909979967</v>
       </c>
       <c r="D222" s="12">
-        <v>57.801803811529794</v>
+        <v>57.798317148517597</v>
       </c>
       <c r="E222" s="3">
-        <v>10.726624322364296</v>
+        <v>10.727557410793512</v>
       </c>
       <c r="F222" s="2">
-        <v>66.637790012146709</v>
+        <v>66.632736936693988</v>
       </c>
       <c r="G222" s="12">
-        <v>58.656037715613849</v>
+        <v>58.650971805356875</v>
       </c>
       <c r="H222" s="2">
-        <v>11.977816633891907</v>
+        <v>11.978744230362901</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -13948,22 +13950,22 @@
         <v>6</v>
       </c>
       <c r="C223" s="2">
-        <v>64.872736311455569</v>
+        <v>64.868943913484529</v>
       </c>
       <c r="D223" s="12">
-        <v>58.336996677746491</v>
+        <v>58.329853400717838</v>
       </c>
       <c r="E223" s="3">
-        <v>10.074709354528908</v>
+        <v>10.08046396051683</v>
       </c>
       <c r="F223" s="2">
-        <v>66.336249224999705</v>
+        <v>66.330187952368419</v>
       </c>
       <c r="G223" s="12">
-        <v>59.118034276238006</v>
+        <v>59.111439516441187</v>
       </c>
       <c r="H223" s="2">
-        <v>10.881252758622061</v>
+        <v>10.883051380935337</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -13974,22 +13976,22 @@
         <v>7</v>
       </c>
       <c r="C224" s="2">
-        <v>64.604274448899503</v>
+        <v>64.600750125234313</v>
       </c>
       <c r="D224" s="12">
-        <v>57.47360141980554</v>
+        <v>57.469161661837298</v>
       </c>
       <c r="E224" s="3">
-        <v>11.037463217289375</v>
+        <v>11.039482435686597</v>
       </c>
       <c r="F224" s="2">
-        <v>66.65060052405596</v>
+        <v>66.646542261020898</v>
       </c>
       <c r="G224" s="12">
-        <v>59.484066256240517</v>
+        <v>59.47876463575178</v>
       </c>
       <c r="H224" s="2">
-        <v>10.752392643827486</v>
+        <v>10.754912981376535</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -14000,22 +14002,22 @@
         <v>8</v>
       </c>
       <c r="C225" s="2">
-        <v>64.165428213988633</v>
+        <v>64.166150268148286</v>
       </c>
       <c r="D225" s="12">
-        <v>56.830211187520604</v>
+        <v>56.828292674144777</v>
       </c>
       <c r="E225" s="3">
-        <v>11.431727692996025</v>
+        <v>11.435714256409097</v>
       </c>
       <c r="F225" s="2">
-        <v>66.14140472772965</v>
+        <v>66.136984672602722</v>
       </c>
       <c r="G225" s="12">
-        <v>58.069836570364039</v>
+        <v>58.067873488955954</v>
       </c>
       <c r="H225" s="2">
-        <v>12.203502768941963</v>
+        <v>12.200603374331653</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -14026,22 +14028,22 @@
         <v>9</v>
       </c>
       <c r="C226" s="2">
-        <v>64.538545451472615</v>
+        <v>64.553906238526622</v>
       </c>
       <c r="D226" s="12">
-        <v>57.245057872318483</v>
+        <v>57.256838664390521</v>
       </c>
       <c r="E226" s="3">
-        <v>11.300979171645906</v>
+        <v>11.303835816183522</v>
       </c>
       <c r="F226" s="2">
-        <v>65.874928543431096</v>
+        <v>65.876238131430739</v>
       </c>
       <c r="G226" s="12">
-        <v>58.629749842872471</v>
+        <v>58.63116253203988</v>
       </c>
       <c r="H226" s="2">
-        <v>10.998385669263998</v>
+        <v>10.998010519265083</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -14052,22 +14054,22 @@
         <v>10</v>
       </c>
       <c r="C227" s="2">
-        <v>64.615674961718099</v>
+        <v>64.625441338325302</v>
       </c>
       <c r="D227" s="12">
-        <v>57.48406691473965</v>
+        <v>57.491742362970989</v>
       </c>
       <c r="E227" s="3">
-        <v>11.036962859559409</v>
+        <v>11.038530380021959</v>
       </c>
       <c r="F227" s="2">
-        <v>66.198722580567264</v>
+        <v>66.208990109403558</v>
       </c>
       <c r="G227" s="12">
-        <v>58.671273839661794</v>
+        <v>58.679527505865067</v>
       </c>
       <c r="H227" s="2">
-        <v>11.370987909538835</v>
+        <v>11.372266199947831</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -14078,22 +14080,22 @@
         <v>11</v>
       </c>
       <c r="C228" s="2">
-        <v>64.744248439378552</v>
+        <v>64.747111028800617</v>
       </c>
       <c r="D228" s="12">
-        <v>57.582529425945161</v>
+        <v>57.582789182412519</v>
       </c>
       <c r="E228" s="3">
-        <v>11.061552471551277</v>
+        <v>11.065083418472978</v>
       </c>
       <c r="F228" s="2">
-        <v>66.486690249031227</v>
+        <v>66.498220418269099</v>
       </c>
       <c r="G228" s="12">
-        <v>58.614220830556505</v>
+        <v>58.62525463256555</v>
       </c>
       <c r="H228" s="2">
-        <v>11.840669747565661</v>
+        <v>11.839363123077801</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -14104,22 +14106,22 @@
         <v>12</v>
       </c>
       <c r="C229" s="2">
-        <v>64.444019159798643</v>
+        <v>64.438916859744737</v>
       </c>
       <c r="D229" s="12">
-        <v>57.433002801190703</v>
+        <v>57.444197310998412</v>
       </c>
       <c r="E229" s="3">
-        <v>10.879235109813772</v>
+        <v>10.854806209686547</v>
       </c>
       <c r="F229" s="2">
-        <v>66.463749920676264</v>
+        <v>66.481538130402924</v>
       </c>
       <c r="G229" s="12">
-        <v>58.726939364321126</v>
+        <v>58.742810824212143</v>
       </c>
       <c r="H229" s="2">
-        <v>11.640647067896309</v>
+        <v>11.640415555686049</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -14130,22 +14132,22 @@
         <v>1</v>
       </c>
       <c r="C230" s="2">
-        <v>64.402100962285644</v>
+        <v>64.394722948883171</v>
       </c>
       <c r="D230" s="12">
-        <v>57.245700963129721</v>
+        <v>57.236335620040755</v>
       </c>
       <c r="E230" s="3">
-        <v>11.112059843120271</v>
+        <v>11.116419173858056</v>
       </c>
       <c r="F230" s="2">
-        <v>66.826325786062384</v>
+        <v>66.829163162295188</v>
       </c>
       <c r="G230" s="12">
-        <v>59.461043841906402</v>
+        <v>59.452691868599338</v>
       </c>
       <c r="H230" s="2">
-        <v>11.021527605355971</v>
+        <v>11.037802876241365</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -14156,22 +14158,22 @@
         <v>2</v>
       </c>
       <c r="C231" s="2">
-        <v>64.319347889435079</v>
+        <v>64.321202587674847</v>
       </c>
       <c r="D231" s="12">
-        <v>56.865161221501857</v>
+        <v>56.864411087489032</v>
       </c>
       <c r="E231" s="3">
-        <v>11.589338064725061</v>
+        <v>11.593053612487463</v>
       </c>
       <c r="F231" s="2">
-        <v>66.26021703224265</v>
+        <v>66.254349774207071</v>
       </c>
       <c r="G231" s="12">
-        <v>58.908870993890048</v>
+        <v>58.895082400330992</v>
       </c>
       <c r="H231" s="2">
-        <v>11.094660367284025</v>
+        <v>11.107598820237845</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -14182,22 +14184,22 @@
         <v>3</v>
       </c>
       <c r="C232" s="2">
-        <v>60.72505866970701</v>
+        <v>60.718076240883555</v>
       </c>
       <c r="D232" s="12">
-        <v>52.961547977932213</v>
+        <v>52.954417348448231</v>
       </c>
       <c r="E232" s="3">
-        <v>12.784690310472557</v>
+        <v>12.786404598253384</v>
       </c>
       <c r="F232" s="2">
-        <v>60.915655300523497</v>
+        <v>60.885834778909583</v>
       </c>
       <c r="G232" s="12">
-        <v>52.551527696793521</v>
+        <v>52.545718460462332</v>
       </c>
       <c r="H232" s="2">
-        <v>13.730669993560902</v>
+        <v>13.697958398258193</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -14208,22 +14210,22 @@
         <v>4</v>
       </c>
       <c r="C233" s="2">
-        <v>53.315709894984678</v>
+        <v>53.30987401515965</v>
       </c>
       <c r="D233" s="12">
-        <v>42.446939572494919</v>
+        <v>42.442489956026421</v>
       </c>
       <c r="E233" s="3">
-        <v>20.385680588137809</v>
+        <v>20.385311839309342</v>
       </c>
       <c r="F233" s="2">
-        <v>55.519069934951823</v>
+        <v>55.51029262536472</v>
       </c>
       <c r="G233" s="12">
-        <v>42.072072596743901</v>
+        <v>42.062566196975716</v>
       </c>
       <c r="H233" s="2">
-        <v>24.22050180949163</v>
+        <v>24.225644997310354</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -14234,22 +14236,22 @@
         <v>5</v>
       </c>
       <c r="C234" s="2">
-        <v>56.698130801561874</v>
+        <v>56.691326134302386</v>
       </c>
       <c r="D234" s="12">
-        <v>44.382336337885711</v>
+        <v>44.37470138313946</v>
       </c>
       <c r="E234" s="3">
-        <v>21.721693977496876</v>
+        <v>21.725765811130799</v>
       </c>
       <c r="F234" s="2">
-        <v>60.541794027450024</v>
+        <v>60.531087537131825</v>
       </c>
       <c r="G234" s="12">
-        <v>45.145209605460607</v>
+        <v>45.133453292483452</v>
       </c>
       <c r="H234" s="2">
-        <v>25.431331643407379</v>
+        <v>25.43756418584573</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -14260,22 +14262,22 @@
         <v>6</v>
       </c>
       <c r="C235" s="2">
-        <v>58.743326569228302</v>
+        <v>58.738367165122476</v>
       </c>
       <c r="D235" s="12">
-        <v>46.587588094930659</v>
+        <v>46.578835298472939</v>
       </c>
       <c r="E235" s="3">
-        <v>20.692969200462723</v>
+        <v>20.701174468243639</v>
       </c>
       <c r="F235" s="2">
-        <v>60.794048128080611</v>
+        <v>60.787810805527684</v>
       </c>
       <c r="G235" s="12">
-        <v>45.099990893896766</v>
+        <v>45.093751747674453</v>
       </c>
       <c r="H235" s="2">
-        <v>25.815121245289802</v>
+        <v>25.817773086222257</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -14286,22 +14288,22 @@
         <v>7</v>
       </c>
       <c r="C236" s="2">
-        <v>58.225800388280881</v>
+        <v>58.221023393133578</v>
       </c>
       <c r="D236" s="12">
-        <v>46.13991984183869</v>
+        <v>46.134950991663551</v>
       </c>
       <c r="E236" s="3">
-        <v>20.756916119395626</v>
+        <v>20.758948738945413</v>
       </c>
       <c r="F236" s="2">
-        <v>61.359269423612787</v>
+        <v>61.345917450151269</v>
       </c>
       <c r="G236" s="12">
-        <v>45.613635051535951</v>
+        <v>45.600323890263944</v>
       </c>
       <c r="H236" s="2">
-        <v>25.661378500731402</v>
+        <v>25.666897186242167</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -14312,22 +14314,22 @@
         <v>8</v>
       </c>
       <c r="C237" s="2">
-        <v>60.380880831026261</v>
+        <v>60.382836126676644</v>
       </c>
       <c r="D237" s="12">
-        <v>49.704035040788384</v>
+        <v>49.703915639554424</v>
       </c>
       <c r="E237" s="3">
-        <v>17.68249426522388</v>
+        <v>17.685357581944302</v>
       </c>
       <c r="F237" s="2">
-        <v>62.752119049987407</v>
+        <v>62.74818451976337</v>
       </c>
       <c r="G237" s="12">
-        <v>49.872477575603114</v>
+        <v>49.870254546661222</v>
       </c>
       <c r="H237" s="2">
-        <v>20.524631947687006</v>
+        <v>20.5231913427648</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -14338,22 +14340,22 @@
         <v>9</v>
       </c>
       <c r="C238" s="2">
-        <v>61.254708266157095</v>
+        <v>61.271217771358458</v>
       </c>
       <c r="D238" s="12">
-        <v>50.919331760981166</v>
+        <v>50.930653570149801</v>
       </c>
       <c r="E238" s="3">
-        <v>16.872787084819361</v>
+        <v>16.876707493877177</v>
       </c>
       <c r="F238" s="2">
-        <v>63.661909491401993</v>
+        <v>63.665778293215645</v>
       </c>
       <c r="G238" s="12">
-        <v>51.35287770211491</v>
+        <v>51.356979255827483</v>
       </c>
       <c r="H238" s="2">
-        <v>19.335002496193614</v>
+        <v>19.333461974970955</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -14364,22 +14366,22 @@
         <v>10</v>
       </c>
       <c r="C239" s="2">
-        <v>62.654098478333154</v>
+        <v>62.671436110204027</v>
       </c>
       <c r="D239" s="12">
-        <v>52.468022957902605</v>
+        <v>52.481762065391734</v>
       </c>
       <c r="E239" s="3">
-        <v>16.257636400199839</v>
+        <v>16.258880723419765</v>
       </c>
       <c r="F239" s="2">
-        <v>65.140386951012204</v>
+        <v>65.155169537653862</v>
       </c>
       <c r="G239" s="12">
-        <v>53.280551557074254</v>
+        <v>53.292331888395296</v>
       </c>
       <c r="H239" s="2">
-        <v>18.206578052502117</v>
+        <v>18.20705514763937</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -14390,22 +14392,22 @@
         <v>11</v>
       </c>
       <c r="C240" s="2">
-        <v>62.039619683903389</v>
+        <v>62.04810103617735</v>
       </c>
       <c r="D240" s="12">
-        <v>52.524698129469002</v>
+        <v>52.529827217361117</v>
       </c>
       <c r="E240" s="3">
-        <v>15.336847006660651</v>
+        <v>15.340153300205875</v>
       </c>
       <c r="F240" s="2">
-        <v>64.311095131949372</v>
+        <v>64.328486495354596</v>
       </c>
       <c r="G240" s="12">
-        <v>53.239469653565877</v>
+        <v>53.256632938280049</v>
       </c>
       <c r="H240" s="2">
-        <v>17.215731524502029</v>
+        <v>17.211431762620585</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -14416,22 +14418,22 @@
         <v>12</v>
       </c>
       <c r="C241" s="2">
-        <v>62.280014186416032</v>
+        <v>62.272674056423952</v>
       </c>
       <c r="D241" s="12">
-        <v>53.022115536388661</v>
+        <v>53.03756962205275</v>
       </c>
       <c r="E241" s="3">
-        <v>14.864959122065555</v>
+        <v>14.83010738546969</v>
       </c>
       <c r="F241" s="2">
-        <v>63.891379736700493</v>
+        <v>63.93071133777606</v>
       </c>
       <c r="G241" s="12">
-        <v>53.301813042959836</v>
+        <v>53.339809034140572</v>
       </c>
       <c r="H241" s="2">
-        <v>16.574327769068031</v>
+        <v>16.566220024799598</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -14442,22 +14444,22 @@
         <v>1</v>
       </c>
       <c r="C242" s="2">
-        <v>61.176487036378347</v>
+        <v>61.166632099820141</v>
       </c>
       <c r="D242" s="12">
-        <v>51.92971559176177</v>
+        <v>51.916272330611733</v>
       </c>
       <c r="E242" s="3">
-        <v>15.114910797538958</v>
+        <v>15.123212528870972</v>
       </c>
       <c r="F242" s="2">
-        <v>63.993669815141573</v>
+        <v>63.997446671999938</v>
       </c>
       <c r="G242" s="12">
-        <v>53.147440538549759</v>
+        <v>53.131986034944376</v>
       </c>
       <c r="H242" s="2">
-        <v>16.948909646724911</v>
+        <v>16.9779595938308</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -14468,22 +14470,22 @@
         <v>2</v>
       </c>
       <c r="C243" s="2">
-        <v>62.433226245058016</v>
+        <v>62.430738358023966</v>
       </c>
       <c r="D243" s="12">
-        <v>53.43995330006274</v>
+        <v>53.433708560763939</v>
       </c>
       <c r="E243" s="3">
-        <v>14.404626327807552</v>
+        <v>14.411217989549332</v>
       </c>
       <c r="F243" s="2">
-        <v>64.831876803675343</v>
+        <v>64.816096651041306</v>
       </c>
       <c r="G243" s="12">
-        <v>53.72488673306718</v>
+        <v>53.697377544333868</v>
       </c>
       <c r="H243" s="2">
-        <v>17.131989105054735</v>
+        <v>17.154255935171019</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -14494,22 +14496,22 @@
         <v>3</v>
       </c>
       <c r="C244" s="2">
-        <v>61.738028761719441</v>
+        <v>61.725037551351647</v>
       </c>
       <c r="D244" s="12">
-        <v>52.927468288831193</v>
+        <v>52.914541435768037</v>
       </c>
       <c r="E244" s="3">
-        <v>14.270880767659392</v>
+        <v>14.273780081954223</v>
       </c>
       <c r="F244" s="2">
-        <v>64.045592939357533</v>
+        <v>64.005756430590665</v>
       </c>
       <c r="G244" s="12">
-        <v>53.560920298289183</v>
+        <v>53.550881672807648</v>
       </c>
       <c r="H244" s="2">
-        <v>16.370638727626282</v>
+        <v>16.334272635494166</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -14520,22 +14522,22 @@
         <v>4</v>
       </c>
       <c r="C245" s="2">
-        <v>60.942734531422218</v>
+        <v>60.933779341446836</v>
       </c>
       <c r="D245" s="12">
-        <v>51.621266285245291</v>
+        <v>51.612374739199652</v>
       </c>
       <c r="E245" s="3">
-        <v>15.295454524395783</v>
+        <v>15.297597987503817</v>
       </c>
       <c r="F245" s="2">
-        <v>63.828154433485572</v>
+        <v>63.81328986994609</v>
       </c>
       <c r="G245" s="12">
-        <v>52.798268085360135</v>
+        <v>52.780386547578708</v>
       </c>
       <c r="H245" s="2">
-        <v>17.280597325776547</v>
+        <v>17.289350454823531</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -14546,22 +14548,22 @@
         <v>5</v>
       </c>
       <c r="C246" s="2">
-        <v>61.413883610038603</v>
+        <v>61.400303190317153</v>
       </c>
       <c r="D246" s="12">
-        <v>52.18090936471674</v>
+        <v>52.1654989618456</v>
       </c>
       <c r="E246" s="3">
-        <v>15.03401788421121</v>
+        <v>15.04032349782905</v>
       </c>
       <c r="F246" s="2">
-        <v>63.728205067373459</v>
+        <v>63.709153474765124</v>
       </c>
       <c r="G246" s="12">
-        <v>53.080508038316651</v>
+        <v>53.057758462465429</v>
       </c>
       <c r="H246" s="2">
-        <v>16.707981996040925</v>
+        <v>16.718782830035021</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -14572,22 +14574,22 @@
         <v>6</v>
       </c>
       <c r="C247" s="2">
-        <v>61.19861794884077</v>
+        <v>61.186891367494134</v>
       </c>
       <c r="D247" s="12">
-        <v>52.060952773630312</v>
+        <v>52.044803083365757</v>
       </c>
       <c r="E247" s="3">
-        <v>14.931162633197262</v>
+        <v>14.941253068766239</v>
       </c>
       <c r="F247" s="2">
-        <v>63.854046319986487</v>
+        <v>63.842272432998371</v>
       </c>
       <c r="G247" s="12">
-        <v>53.522926767198243</v>
+        <v>53.509972325052878</v>
       </c>
       <c r="H247" s="2">
-        <v>16.179271554721474</v>
+        <v>16.184104534795658</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -14598,22 +14600,22 @@
         <v>7</v>
       </c>
       <c r="C248" s="2">
-        <v>61.104647567923784</v>
+        <v>61.092389401169044</v>
       </c>
       <c r="D248" s="12">
-        <v>53.160477925967555</v>
+        <v>53.147888135480493</v>
       </c>
       <c r="E248" s="3">
-        <v>13.000925392991611</v>
+        <v>13.004076847478041</v>
       </c>
       <c r="F248" s="2">
-        <v>62.960254485203116</v>
+        <v>62.92868685565589</v>
       </c>
       <c r="G248" s="12">
-        <v>53.791117762875174</v>
+        <v>53.759926163670322</v>
       </c>
       <c r="H248" s="2">
-        <v>14.563373031604984</v>
+        <v>14.570081071319066</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -14624,22 +14626,22 @@
         <v>8</v>
       </c>
       <c r="C249" s="2">
-        <v>61.428311901952483</v>
+        <v>61.431783235896845</v>
       </c>
       <c r="D249" s="12">
-        <v>53.350727206859197</v>
+        <v>53.350392876017395</v>
       </c>
       <c r="E249" s="3">
-        <v>13.149612035548289</v>
+        <v>13.155063933024808</v>
       </c>
       <c r="F249" s="2">
-        <v>63.686488271862821</v>
+        <v>63.698727700875615</v>
       </c>
       <c r="G249" s="12">
-        <v>54.980185848361238</v>
+        <v>54.992122618492012</v>
       </c>
       <c r="H249" s="2">
-        <v>13.670564447416847</v>
+        <v>13.668412850048067</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -14650,22 +14652,22 @@
         <v>9</v>
       </c>
       <c r="C250" s="2">
-        <v>61.174379365254417</v>
+        <v>61.187100899373824</v>
       </c>
       <c r="D250" s="12">
-        <v>53.453330993909475</v>
+        <v>53.459551155371621</v>
       </c>
       <c r="E250" s="3">
-        <v>12.621375895364311</v>
+        <v>12.629377156977359</v>
       </c>
       <c r="F250" s="2">
-        <v>62.929266664536435</v>
+        <v>62.928502511609921</v>
       </c>
       <c r="G250" s="12">
-        <v>54.260291542794583</v>
+        <v>54.261825600627354</v>
       </c>
       <c r="H250" s="2">
-        <v>13.77574470707637</v>
+        <v>13.772259890315372</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -14676,22 +14678,22 @@
         <v>10</v>
       </c>
       <c r="C251" s="2">
-        <v>61.534228442234138</v>
+        <v>61.557652589954536</v>
       </c>
       <c r="D251" s="12">
-        <v>53.587396171682165</v>
+        <v>53.60676197144614</v>
       </c>
       <c r="E251" s="3">
-        <v>12.914490799234017</v>
+        <v>12.916169288440168</v>
       </c>
       <c r="F251" s="2">
-        <v>62.397549277834642</v>
+        <v>62.417084559558923</v>
       </c>
       <c r="G251" s="12">
-        <v>53.771038923584683</v>
+        <v>53.786348444207796</v>
       </c>
       <c r="H251" s="2">
-        <v>13.825078795705744</v>
+        <v>13.82752202582547</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -14702,22 +14704,22 @@
         <v>11</v>
       </c>
       <c r="C252" s="2">
-        <v>62.111091680529839</v>
+        <v>62.130426193290504</v>
       </c>
       <c r="D252" s="12">
-        <v>54.079311467264866</v>
+        <v>54.098015160649759</v>
       </c>
       <c r="E252" s="3">
-        <v>12.931313869955243</v>
+        <v>12.928305058863696</v>
       </c>
       <c r="F252" s="2">
-        <v>62.919946064202634</v>
+        <v>62.945494001076</v>
       </c>
       <c r="G252" s="12">
-        <v>54.336952454850639</v>
+        <v>54.366075722104426</v>
       </c>
       <c r="H252" s="2">
-        <v>13.64113313224081</v>
+        <v>13.629916509710627</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -14728,22 +14730,22 @@
         <v>12</v>
       </c>
       <c r="C253" s="2">
-        <v>62.320149052144849</v>
+        <v>62.333048777586683</v>
       </c>
       <c r="D253" s="12">
-        <v>54.876671991250305</v>
+        <v>54.918528410965031</v>
       </c>
       <c r="E253" s="3">
-        <v>11.943933341151663</v>
+        <v>11.895006761305273</v>
       </c>
       <c r="F253" s="2">
-        <v>62.428549708434936</v>
+        <v>62.501008171966909</v>
       </c>
       <c r="G253" s="12">
-        <v>54.94809802083774</v>
+        <v>55.026907452047389</v>
       </c>
       <c r="H253" s="2">
-        <v>11.982421059809573</v>
+        <v>11.958368254404936</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -14754,22 +14756,22 @@
         <v>1</v>
       </c>
       <c r="C254" s="2">
-        <v>63.051306033044739</v>
+        <v>63.023485150143763</v>
       </c>
       <c r="D254" s="12">
-        <v>55.327518548417508</v>
+        <v>55.29613309565179</v>
       </c>
       <c r="E254" s="3">
-        <v>12.250003958013568</v>
+        <v>12.261067499016832</v>
       </c>
       <c r="F254" s="2">
-        <v>65.234805380262202</v>
+        <v>65.258080455354545</v>
       </c>
       <c r="G254" s="12">
-        <v>57.109088875836491</v>
+        <v>57.090304859825146</v>
       </c>
       <c r="H254" s="2">
-        <v>12.456105995963107</v>
+        <v>12.516113772481049</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -14780,22 +14782,22 @@
         <v>2</v>
       </c>
       <c r="C255" s="2">
-        <v>64.06504828427498</v>
+        <v>64.058882896718927</v>
       </c>
       <c r="D255" s="12">
-        <v>56.503120831376293</v>
+        <v>56.491842597698003</v>
       </c>
       <c r="E255" s="3">
-        <v>11.803514795375238</v>
+        <v>11.812632310839922</v>
       </c>
       <c r="F255" s="2">
-        <v>65.657285761292499</v>
+        <v>65.614637151728559</v>
       </c>
       <c r="G255" s="12">
-        <v>57.897008089793943</v>
+        <v>57.83770036374095</v>
       </c>
       <c r="H255" s="2">
-        <v>11.819370206243788</v>
+        <v>11.852441963527252</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -14806,22 +14808,22 @@
         <v>3</v>
       </c>
       <c r="C256" s="2">
-        <v>63.56272756066862</v>
+        <v>63.539111790695316</v>
       </c>
       <c r="D256" s="12">
-        <v>56.162003427869408</v>
+        <v>56.140994838131299</v>
       </c>
       <c r="E256" s="3">
-        <v>11.643182123887705</v>
+        <v>11.643406311586805</v>
       </c>
       <c r="F256" s="2">
-        <v>65.709979952922581</v>
+        <v>65.644848531721223</v>
       </c>
       <c r="G256" s="12">
-        <v>57.552396909393842</v>
+        <v>57.525174587255364</v>
       </c>
       <c r="H256" s="2">
-        <v>12.41452675738628</v>
+        <v>12.369095406690176</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -14832,22 +14834,22 @@
         <v>4</v>
       </c>
       <c r="C257" s="2">
-        <v>63.481968991483974</v>
+        <v>63.47791400032343</v>
       </c>
       <c r="D257" s="12">
-        <v>56.558591750082009</v>
+        <v>56.550725131026212</v>
       </c>
       <c r="E257" s="3">
-        <v>10.906053090966235</v>
+        <v>10.912754425518642</v>
       </c>
       <c r="F257" s="2">
-        <v>65.770410281979579</v>
+        <v>65.761399328193562</v>
       </c>
       <c r="G257" s="12">
-        <v>58.562975920741835</v>
+        <v>58.552575063748293</v>
       </c>
       <c r="H257" s="2">
-        <v>10.958475597669349</v>
+        <v>10.962090737255135</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -14858,22 +14860,22 @@
         <v>5</v>
       </c>
       <c r="C258" s="2">
-        <v>63.701059026439708</v>
+        <v>63.688041578721453</v>
       </c>
       <c r="D258" s="12">
-        <v>56.990900912128886</v>
+        <v>56.972586020561323</v>
       </c>
       <c r="E258" s="3">
-        <v>10.533825052305209</v>
+        <v>10.544295901860169</v>
       </c>
       <c r="F258" s="2">
-        <v>65.211422754566698</v>
+        <v>65.182539894158154</v>
       </c>
       <c r="G258" s="12">
-        <v>57.947409569076711</v>
+        <v>57.912167925607548</v>
       </c>
       <c r="H258" s="2">
-        <v>11.139172983281195</v>
+        <v>11.153864179511954</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -14884,22 +14886,22 @@
         <v>6</v>
       </c>
       <c r="C259" s="2">
-        <v>63.736873299806561</v>
+        <v>63.702990078811247</v>
       </c>
       <c r="D259" s="12">
-        <v>56.380449806853029</v>
+        <v>56.338440422842787</v>
       </c>
       <c r="E259" s="3">
-        <v>11.541864406103311</v>
+        <v>11.560759780439335</v>
       </c>
       <c r="F259" s="2">
-        <v>65.025353243787336</v>
+        <v>65.009284121583434</v>
       </c>
       <c r="G259" s="12">
-        <v>57.408532415055944</v>
+        <v>57.396632264663772</v>
       </c>
       <c r="H259" s="2">
-        <v>11.713616995166612</v>
+        <v>11.710099503145001</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -14910,22 +14912,22 @@
         <v>7</v>
       </c>
       <c r="C260" s="2">
-        <v>63.463233069700763</v>
+        <v>63.447196733748846</v>
       </c>
       <c r="D260" s="12">
-        <v>56.464555973568039</v>
+        <v>56.446459814135878</v>
       </c>
       <c r="E260" s="3">
-        <v>11.027923976779096</v>
+        <v>11.033957810604312</v>
       </c>
       <c r="F260" s="2">
-        <v>64.982815684100331</v>
+        <v>64.924602619722137</v>
       </c>
       <c r="G260" s="12">
-        <v>57.787319858253852</v>
+        <v>57.727620022509996</v>
       </c>
       <c r="H260" s="2">
-        <v>11.07292097163935</v>
+        <v>11.085139233529816</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -14936,22 +14938,22 @@
         <v>8</v>
       </c>
       <c r="C261" s="2">
-        <v>63.494309029540716</v>
+        <v>63.503022259596818</v>
       </c>
       <c r="D261" s="12">
-        <v>56.542926538849812</v>
+        <v>56.547758316842703</v>
       </c>
       <c r="E261" s="3">
-        <v>10.948040221142936</v>
+        <v>10.952650275952823</v>
       </c>
       <c r="F261" s="2">
-        <v>65.270024139303388</v>
+        <v>65.306368393104691</v>
       </c>
       <c r="G261" s="12">
-        <v>58.025562451233547</v>
+        <v>58.059712015590357</v>
       </c>
       <c r="H261" s="2">
-        <v>11.099217111683993</v>
+        <v>11.096400788808005</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -14962,22 +14964,22 @@
         <v>9</v>
       </c>
       <c r="C262" s="2">
-        <v>64.390728402880555</v>
+        <v>64.401493133061265</v>
       </c>
       <c r="D262" s="12">
-        <v>57.025622956806089</v>
+        <v>57.029659052167169</v>
       </c>
       <c r="E262" s="3">
-        <v>11.438145877139966</v>
+        <v>11.446681935872208</v>
       </c>
       <c r="F262" s="2">
-        <v>66.577047558240182</v>
+        <v>66.573446924467191</v>
       </c>
       <c r="G262" s="12">
-        <v>59.296283074767921</v>
+        <v>59.297869022074835</v>
       </c>
       <c r="H262" s="2">
-        <v>10.935847638937734</v>
+        <v>10.928648340301637</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -14988,22 +14990,22 @@
         <v>10</v>
       </c>
       <c r="C263" s="2">
-        <v>63.604952002711016</v>
+        <v>63.63459330560184</v>
       </c>
       <c r="D263" s="12">
-        <v>56.873102929025208</v>
+        <v>56.898879228535073</v>
       </c>
       <c r="E263" s="3">
-        <v>10.583844278978251</v>
+        <v>10.584988018574824</v>
       </c>
       <c r="F263" s="2">
-        <v>65.588480972890139</v>
+        <v>65.609639432617556</v>
       </c>
       <c r="G263" s="12">
-        <v>58.538220167446184</v>
+        <v>58.554797515059143</v>
       </c>
       <c r="H263" s="2">
-        <v>10.749236300133338</v>
+        <v>10.752752154359685</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -15014,22 +15016,22 @@
         <v>11</v>
       </c>
       <c r="C264" s="2">
-        <v>63.350921321202257</v>
+        <v>63.386808608371425</v>
       </c>
       <c r="D264" s="12">
-        <v>56.487126826901687</v>
+        <v>56.524828902973148</v>
       </c>
       <c r="E264" s="3">
-        <v>10.834561441497787</v>
+        <v>10.825564271257569</v>
       </c>
       <c r="F264" s="2">
-        <v>64.955113497561115</v>
+        <v>64.990247505648014</v>
       </c>
       <c r="G264" s="12">
-        <v>58.080732468302379</v>
+        <v>58.12249078935379</v>
       </c>
       <c r="H264" s="2">
-        <v>10.583279220221591</v>
+        <v>10.567365073809551</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -15040,22 +15042,22 @@
         <v>12</v>
       </c>
       <c r="C265" s="2">
-        <v>63.653528378394562</v>
+        <v>63.692567064893232</v>
       </c>
       <c r="D265" s="12">
-        <v>56.645851697966265</v>
+        <v>56.722651486773287</v>
       </c>
       <c r="E265" s="3">
-        <v>11.00909385379312</v>
+        <v>10.943059605398924</v>
       </c>
       <c r="F265" s="2">
-        <v>65.899356805929415</v>
+        <v>66.00555570460331</v>
       </c>
       <c r="G265" s="12">
-        <v>58.444118382941234</v>
+        <v>58.570676825129922</v>
       </c>
       <c r="H265" s="2">
-        <v>11.313067053057173</v>
+        <v>11.264019823947754</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -15066,22 +15068,22 @@
         <v>1</v>
       </c>
       <c r="C266" s="2">
-        <v>63.880620058055861</v>
+        <v>63.832741629705851</v>
       </c>
       <c r="D266" s="12">
-        <v>56.632583532042844</v>
+        <v>56.581759809384245</v>
       </c>
       <c r="E266" s="3">
-        <v>11.346221310040288</v>
+        <v>11.35934574514218</v>
       </c>
       <c r="F266" s="2">
-        <v>66.246444921388246</v>
+        <v>66.290358276474436</v>
       </c>
       <c r="G266" s="12">
-        <v>58.17574333853586</v>
+        <v>58.153791258019282</v>
       </c>
       <c r="H266" s="2">
-        <v>12.182844818962801</v>
+        <v>12.274133418498531</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -15092,22 +15094,22 @@
         <v>2</v>
       </c>
       <c r="C267" s="2">
-        <v>63.643556220387488</v>
+        <v>63.637486047491208</v>
       </c>
       <c r="D267" s="12">
-        <v>57.109075806539835</v>
+        <v>57.095723491677738</v>
       </c>
       <c r="E267" s="3">
-        <v>10.267308745632922</v>
+        <v>10.279731274946188</v>
       </c>
       <c r="F267" s="2">
-        <v>65.332408687103765</v>
+        <v>65.261314986715064</v>
       </c>
       <c r="G267" s="12">
-        <v>58.396498523379911</v>
+        <v>58.30468307902521</v>
       </c>
       <c r="H267" s="2">
-        <v>10.616339276486762</v>
+        <v>10.659656350942322</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -15118,22 +15120,22 @@
         <v>3</v>
       </c>
       <c r="C268" s="2">
-        <v>64.323687395187463</v>
+        <v>64.287460056309826</v>
       </c>
       <c r="D268" s="12">
-        <v>58.201271813530795</v>
+        <v>58.171478868649004</v>
       </c>
       <c r="E268" s="3">
-        <v>9.5181352773546646</v>
+        <v>9.513490161695259</v>
       </c>
       <c r="F268" s="2">
-        <v>66.482999050714156</v>
+        <v>66.390404695083902</v>
       </c>
       <c r="G268" s="12">
-        <v>59.664259607179773</v>
+        <v>59.612567910517413</v>
       </c>
       <c r="H268" s="2">
-        <v>10.256365598568966</v>
+        <v>10.209060805843183</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -15144,22 +15146,22 @@
         <v>4</v>
       </c>
       <c r="C269" s="2">
-        <v>64.489090752003406</v>
+        <v>64.490170180136829</v>
       </c>
       <c r="D269" s="12">
-        <v>57.746652505429012</v>
+        <v>57.741026828641687</v>
       </c>
       <c r="E269" s="3">
-        <v>10.455160970562973</v>
+        <v>10.465383069455608</v>
       </c>
       <c r="F269" s="2">
-        <v>66.210682782576669</v>
+        <v>66.213531139900311</v>
       </c>
       <c r="G269" s="12">
-        <v>58.901668384003905</v>
+        <v>58.907998395379366</v>
       </c>
       <c r="H269" s="2">
-        <v>11.039025866224929</v>
+        <v>11.033292770756082</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -15170,22 +15172,22 @@
         <v>5</v>
       </c>
       <c r="C270" s="2">
-        <v>63.737652824822078</v>
+        <v>63.726971939707532</v>
       </c>
       <c r="D270" s="12">
-        <v>57.0966203452804</v>
+        <v>57.075052373803182</v>
       </c>
       <c r="E270" s="3">
-        <v>10.419323877197096</v>
+        <v>10.438154149545605</v>
       </c>
       <c r="F270" s="2">
-        <v>65.767751850003208</v>
+        <v>65.729972441715589</v>
       </c>
       <c r="G270" s="12">
-        <v>58.339067351294858</v>
+        <v>58.294688516368353</v>
       </c>
       <c r="H270" s="2">
-        <v>11.295329838324079</v>
+        <v>11.311862228362079</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -15196,22 +15198,22 @@
         <v>6</v>
       </c>
       <c r="C271" s="2">
-        <v>64.464615489934459</v>
+        <v>64.404379362311104</v>
       </c>
       <c r="D271" s="12">
-        <v>58.270374544160752</v>
+        <v>58.19850375154725</v>
       </c>
       <c r="E271" s="3">
-        <v>9.6087456641091453</v>
+        <v>9.6357975532258493</v>
       </c>
       <c r="F271" s="2">
-        <v>66.302217531892396</v>
+        <v>66.282481318332714</v>
       </c>
       <c r="G271" s="12">
-        <v>60.473340365909721</v>
+        <v>60.467030011245235</v>
       </c>
       <c r="H271" s="2">
-        <v>8.7913758890174254</v>
+        <v>8.7737380849666788</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -15222,22 +15224,22 @@
         <v>7</v>
       </c>
       <c r="C272" s="2">
-        <v>64.709047588351893</v>
+        <v>64.686800914286266</v>
       </c>
       <c r="D272" s="12">
-        <v>58.448841004145457</v>
+        <v>58.422359853818129</v>
       </c>
       <c r="E272" s="3">
-        <v>9.6743914761825565</v>
+        <v>9.6842647525093746</v>
       </c>
       <c r="F272" s="2">
-        <v>67.032593119889739</v>
+        <v>66.949229075523036</v>
       </c>
       <c r="G272" s="12">
-        <v>60.612994590897337</v>
+        <v>60.522233326420007</v>
       </c>
       <c r="H272" s="2">
-        <v>9.5768315534366462</v>
+        <v>9.5998054613190096</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -15248,22 +15250,22 @@
         <v>8</v>
       </c>
       <c r="C273" s="2">
-        <v>64.375122712912699</v>
+        <v>64.388706470971115</v>
       </c>
       <c r="D273" s="12">
-        <v>58.178097066460531</v>
+        <v>58.18841187391557</v>
       </c>
       <c r="E273" s="3">
-        <v>9.6264292560472882</v>
+        <v>9.6294753177731014</v>
       </c>
       <c r="F273" s="2">
-        <v>66.428060487292129</v>
+        <v>66.49222552394211</v>
       </c>
       <c r="G273" s="12">
-        <v>59.909454190463805</v>
+        <v>59.96901724748399</v>
       </c>
       <c r="H273" s="2">
-        <v>9.8130311934597838</v>
+        <v>9.810482691858887</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -15274,22 +15276,22 @@
         <v>9</v>
       </c>
       <c r="C274" s="2">
-        <v>64.443077242552647</v>
+        <v>64.454578283514635</v>
       </c>
       <c r="D274" s="12">
-        <v>58.022789426884501</v>
+        <v>58.027088456100898</v>
       </c>
       <c r="E274" s="3">
-        <v>9.9627269372989176</v>
+        <v>9.9721230028708074</v>
       </c>
       <c r="F274" s="2">
-        <v>66.620062079071289</v>
+        <v>66.611069972423991</v>
       </c>
       <c r="G274" s="12">
-        <v>59.867022347952336</v>
+        <v>59.864869422702803</v>
       </c>
       <c r="H274" s="2">
-        <v>10.136645809641799</v>
+        <v>10.127746863267648</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -15300,22 +15302,22 @@
         <v>10</v>
       </c>
       <c r="C275" s="2">
-        <v>63.822769010680481</v>
+        <v>63.855495530752727</v>
       </c>
       <c r="D275" s="12">
-        <v>57.394769168522586</v>
+        <v>57.425207588285851</v>
       </c>
       <c r="E275" s="3">
-        <v>10.071640484733896</v>
+        <v>10.070061925006989</v>
       </c>
       <c r="F275" s="2">
-        <v>66.582123992448444</v>
+        <v>66.6052852134288</v>
       </c>
       <c r="G275" s="12">
-        <v>60.072916862970061</v>
+        <v>60.090102915110634</v>
       </c>
       <c r="H275" s="2">
-        <v>9.7762082961135874</v>
+        <v>9.7817797453175555</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -15326,22 +15328,22 @@
         <v>11</v>
       </c>
       <c r="C276" s="2">
-        <v>64.10929663824281</v>
+        <v>64.160782473388053</v>
       </c>
       <c r="D276" s="12">
-        <v>57.492621175790305</v>
+        <v>57.550759009101725</v>
       </c>
       <c r="E276" s="3">
-        <v>10.320929739393662</v>
+        <v>10.302280005746441</v>
       </c>
       <c r="F276" s="2">
-        <v>66.70529979736574</v>
+        <v>66.749010636848723</v>
       </c>
       <c r="G276" s="12">
-        <v>59.927516693345162</v>
+        <v>59.983024749053257</v>
       </c>
       <c r="H276" s="2">
-        <v>10.160786511131507</v>
+        <v>10.136458687913972</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
@@ -15352,22 +15354,22 @@
         <v>12</v>
       </c>
       <c r="C277" s="2">
-        <v>63.655382367809175</v>
+        <v>63.727116319827282</v>
       </c>
       <c r="D277" s="12">
-        <v>56.883332312001286</v>
+        <v>56.998189546822509</v>
       </c>
       <c r="E277" s="3">
-        <v>10.638613427342403</v>
+        <v>10.558969496178534</v>
       </c>
       <c r="F277" s="2">
-        <v>66.236165847119537</v>
+        <v>66.370951366853504</v>
       </c>
       <c r="G277" s="12">
-        <v>59.165859289048463</v>
+        <v>59.335389539759355</v>
       </c>
       <c r="H277" s="2">
-        <v>10.674389840725574</v>
+        <v>10.600363083853274</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
@@ -15378,22 +15380,22 @@
         <v>1</v>
       </c>
       <c r="C278" s="2">
-        <v>63.788831723302394</v>
+        <v>63.717718438371747</v>
       </c>
       <c r="D278" s="12">
-        <v>57.205905307290273</v>
+        <v>57.134206232967919</v>
       </c>
       <c r="E278" s="3">
-        <v>10.319872990568246</v>
+        <v>10.332310017929238</v>
       </c>
       <c r="F278" s="2">
-        <v>66.694638096163189</v>
+        <v>66.767236028182865</v>
       </c>
       <c r="G278" s="12">
-        <v>59.941384658976538</v>
+        <v>59.92466927659158</v>
       </c>
       <c r="H278" s="2">
-        <v>10.125631729869381</v>
+        <v>10.2483900167786</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
@@ -15404,22 +15406,22 @@
         <v>2</v>
       </c>
       <c r="C279" s="2">
-        <v>63.706569454871534</v>
+        <v>63.702731131470166</v>
       </c>
       <c r="D279" s="12">
-        <v>56.949775511570486</v>
+        <v>56.937397241013279</v>
       </c>
       <c r="E279" s="3">
-        <v>10.606118020665708</v>
+        <v>10.620163013881692</v>
       </c>
       <c r="F279" s="2">
-        <v>66.66759751627248</v>
+        <v>66.570255338697464</v>
       </c>
       <c r="G279" s="12">
-        <v>59.494902211073338</v>
+        <v>59.374976340403087</v>
       </c>
       <c r="H279" s="2">
-        <v>10.7588927341328</v>
+        <v>10.808549496597381</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
@@ -15430,22 +15432,22 @@
         <v>3</v>
       </c>
       <c r="C280" s="2">
-        <v>63.840595164490942</v>
+        <v>63.793594726389024</v>
       </c>
       <c r="D280" s="12">
-        <v>56.972101743041151</v>
+        <v>56.93698590468783</v>
       </c>
       <c r="E280" s="3">
-        <v>10.758817964889769</v>
+        <v>10.748114839913324</v>
       </c>
       <c r="F280" s="2">
-        <v>66.789539680396487</v>
+        <v>66.670799293705144</v>
       </c>
       <c r="G280" s="12">
-        <v>59.738313491050747</v>
+        <v>59.663998183391975</v>
       </c>
       <c r="H280" s="2">
-        <v>10.55738102566286</v>
+        <v>10.509550184700933</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -15456,22 +15458,22 @@
         <v>4</v>
       </c>
       <c r="C281" s="2">
-        <v>63.805202779128066</v>
+        <v>63.815875264654743</v>
       </c>
       <c r="D281" s="12">
-        <v>57.186813274403612</v>
+        <v>57.188142375109685</v>
       </c>
       <c r="E281" s="3">
-        <v>10.372805377070994</v>
+        <v>10.385711802993816</v>
       </c>
       <c r="F281" s="2">
-        <v>66.813606033672215</v>
+        <v>66.834082081018295</v>
       </c>
       <c r="G281" s="12">
-        <v>59.908614545485264</v>
+        <v>59.939033855504356</v>
       </c>
       <c r="H281" s="2">
-        <v>10.334708599184157</v>
+        <v>10.316664807568625</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
@@ -15482,22 +15484,22 @@
         <v>5</v>
       </c>
       <c r="C282" s="2">
-        <v>63.975057178306606</v>
+        <v>63.973162471226964</v>
       </c>
       <c r="D282" s="12">
-        <v>57.398661590843489</v>
+        <v>57.38711609782591</v>
       </c>
       <c r="E282" s="3">
-        <v>10.279624399762344</v>
+        <v>10.295014532638195</v>
       </c>
       <c r="F282" s="2">
-        <v>67.176244116757147</v>
+        <v>67.12808087410157</v>
       </c>
       <c r="G282" s="12">
-        <v>60.222241654358314</v>
+        <v>60.176016431320825</v>
       </c>
       <c r="H282" s="2">
-        <v>10.351877443925387</v>
+        <v>10.356417690264847</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
@@ -15508,22 +15510,22 @@
         <v>6</v>
       </c>
       <c r="C283" s="2">
-        <v>63.862827809996212</v>
+        <v>63.78543433006945</v>
       </c>
       <c r="D283" s="12">
-        <v>57.134649059230313</v>
+        <v>57.036728807670791</v>
       </c>
       <c r="E283" s="3">
-        <v>10.535359897910384</v>
+        <v>10.580323851800163</v>
       </c>
       <c r="F283" s="2">
-        <v>66.71482510924335</v>
+        <v>66.696812242243354</v>
       </c>
       <c r="G283" s="12">
-        <v>59.939229478251775</v>
+        <v>59.931308417478633</v>
       </c>
       <c r="H283" s="2">
-        <v>10.15605694820716</v>
+        <v>10.143668936069004</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
@@ -15534,22 +15536,22 @@
         <v>7</v>
       </c>
       <c r="C284" s="2">
-        <v>64.061647960495137</v>
+        <v>64.026517307853553</v>
       </c>
       <c r="D284" s="12">
-        <v>57.625528167570309</v>
+        <v>57.577704261464447</v>
       </c>
       <c r="E284" s="3">
-        <v>10.046759641421955</v>
+        <v>10.072097183393264</v>
       </c>
       <c r="F284" s="2">
-        <v>66.915324123295335</v>
+        <v>66.802627098084059</v>
       </c>
       <c r="G284" s="12">
-        <v>60.2162381171959</v>
+        <v>60.097155657644308</v>
       </c>
       <c r="H284" s="2">
-        <v>10.011288286904199</v>
+        <v>10.037736136625767</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -15560,22 +15562,22 @@
         <v>8</v>
       </c>
       <c r="C285" s="2">
-        <v>64.401426528089004</v>
+        <v>64.420500878095098</v>
       </c>
       <c r="D285" s="12">
-        <v>57.948821862523047</v>
+        <v>57.966991950147317</v>
       </c>
       <c r="E285" s="3">
-        <v>10.019350522851573</v>
+        <v>10.017787567594279</v>
       </c>
       <c r="F285" s="2">
-        <v>67.205170449820244</v>
+        <v>67.283294676016808</v>
       </c>
       <c r="G285" s="12">
-        <v>60.348338266480681</v>
+        <v>60.420957545215316</v>
       </c>
       <c r="H285" s="2">
-        <v>10.202834301951977</v>
+        <v>10.199169294317544</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -15586,22 +15588,22 @@
         <v>9</v>
       </c>
       <c r="C286" s="2">
-        <v>63.724650415842241</v>
+        <v>63.741375490791263</v>
       </c>
       <c r="D286" s="12">
-        <v>57.452261299723816</v>
+        <v>57.462817691309212</v>
       </c>
       <c r="E286" s="3">
-        <v>9.8429557089560404</v>
+        <v>9.8500506949196893</v>
       </c>
       <c r="F286" s="2">
-        <v>66.192890460069748</v>
+        <v>66.18593700697221</v>
       </c>
       <c r="G286" s="12">
-        <v>59.795036229522246</v>
+        <v>59.796265087351763</v>
       </c>
       <c r="H286" s="2">
-        <v>9.6654703942970119</v>
+        <v>9.6541232300561521</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
@@ -15612,22 +15614,22 @@
         <v>10</v>
       </c>
       <c r="C287" s="2">
-        <v>63.769534789930226</v>
+        <v>63.806396197106672</v>
       </c>
       <c r="D287" s="12">
-        <v>57.404871417953231</v>
+        <v>57.442057896933143</v>
       </c>
       <c r="E287" s="3">
-        <v>9.9807273064536002</v>
+        <v>9.9744519037138861</v>
       </c>
       <c r="F287" s="2">
-        <v>66.558558055179034</v>
+        <v>66.586153734661139</v>
       </c>
       <c r="G287" s="12">
-        <v>59.69567213501783</v>
+        <v>59.717828481535285</v>
       </c>
       <c r="H287" s="2">
-        <v>10.311049579036343</v>
+        <v>10.314945176883795</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -15638,22 +15640,22 @@
         <v>11</v>
       </c>
       <c r="C288" s="2">
-        <v>63.775585525317879</v>
+        <v>63.839148762618848</v>
       </c>
       <c r="D288" s="12">
-        <v>57.73467288959305</v>
+        <v>57.808921204839017</v>
       </c>
       <c r="E288" s="3">
-        <v>9.4721398258690854</v>
+        <v>9.4459711237735888</v>
       </c>
       <c r="F288" s="2">
-        <v>66.174961155464572</v>
+        <v>66.226047641941733</v>
       </c>
       <c r="G288" s="12">
-        <v>59.853825022294451</v>
+        <v>59.91979437313514</v>
       </c>
       <c r="H288" s="2">
-        <v>9.5521569227972947</v>
+        <v>9.5223156044310979</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
@@ -15664,22 +15666,172 @@
         <v>12</v>
       </c>
       <c r="C289" s="2">
-        <v>64.196293311069297</v>
+        <v>64.284553273045503</v>
       </c>
       <c r="D289" s="12">
-        <v>57.985564304830731</v>
+        <v>58.118715461553549</v>
       </c>
       <c r="E289" s="3">
-        <v>9.6745912978867512</v>
+        <v>9.5914764862763562</v>
       </c>
       <c r="F289" s="2">
-        <v>65.999054014785884</v>
+        <v>66.151936889504995</v>
       </c>
       <c r="G289" s="12">
-        <v>59.803928474965403</v>
+        <v>59.994545994673757</v>
       </c>
       <c r="H289" s="2">
-        <v>9.3866883886435399</v>
+        <v>9.3079525473548301</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B290" s="9">
+        <v>1</v>
+      </c>
+      <c r="C290" s="2">
+        <v>64.576402985882282</v>
+      </c>
+      <c r="D290" s="12">
+        <v>58.523971531207472</v>
+      </c>
+      <c r="E290" s="3">
+        <v>9.3725125197790842</v>
+      </c>
+      <c r="F290" s="2">
+        <v>66.529263188884286</v>
+      </c>
+      <c r="G290" s="12">
+        <v>60.512481690936859</v>
+      </c>
+      <c r="H290" s="2">
+        <v>9.0438120152707597</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B291" s="9">
+        <v>2</v>
+      </c>
+      <c r="C291" s="2">
+        <v>64.596917093563903</v>
+      </c>
+      <c r="D291" s="12">
+        <v>58.579428960597681</v>
+      </c>
+      <c r="E291" s="3">
+        <v>9.3154416707694097</v>
+      </c>
+      <c r="F291" s="2">
+        <v>66.934986074467432</v>
+      </c>
+      <c r="G291" s="12">
+        <v>60.906900440033006</v>
+      </c>
+      <c r="H291" s="2">
+        <v>9.0058816591490309</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B292" s="9">
+        <v>3</v>
+      </c>
+      <c r="C292" s="2">
+        <v>64.619062288644031</v>
+      </c>
+      <c r="D292" s="12">
+        <v>58.761565236710389</v>
+      </c>
+      <c r="E292" s="3">
+        <v>9.0646580814946773</v>
+      </c>
+      <c r="F292" s="2">
+        <v>66.955472004792142</v>
+      </c>
+      <c r="G292" s="12">
+        <v>60.877535246233549</v>
+      </c>
+      <c r="H292" s="2">
+        <v>9.0775803329764884</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B293" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B294" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B295" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B296" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B297" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B298" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B299" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B300" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B301" s="9">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
